--- a/published-data/fonds-solidarite/fds-2020-12-06/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-06/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -430,10 +430,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20989</v>
+        <v>20712</v>
       </c>
       <c r="D2" t="n">
-        <v>28513165</v>
+        <v>27663020</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D5" t="n">
-        <v>186593</v>
+        <v>148409</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8077</v>
+        <v>7934</v>
       </c>
       <c r="D6" t="n">
-        <v>15378957</v>
+        <v>14355947</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4462</v>
+        <v>4391</v>
       </c>
       <c r="D8" t="n">
-        <v>8290160</v>
+        <v>7794603</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D9" t="n">
-        <v>389899</v>
+        <v>377039</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D11" t="n">
-        <v>970485</v>
+        <v>931199</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>13894</v>
+        <v>13710</v>
       </c>
       <c r="D12" t="n">
-        <v>19041176</v>
+        <v>18371710</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -958,10 +958,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>36952</v>
+        <v>26952</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1054,10 +1054,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" t="n">
-        <v>123042</v>
+        <v>113042</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4203</v>
+        <v>4123</v>
       </c>
       <c r="D16" t="n">
-        <v>7600241</v>
+        <v>7055461</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1968</v>
+        <v>1923</v>
       </c>
       <c r="D18" t="n">
-        <v>3755384</v>
+        <v>3413373</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1246,10 +1246,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D19" t="n">
-        <v>634446</v>
+        <v>630422</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D21" t="n">
-        <v>535473</v>
+        <v>511142</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>18138</v>
+        <v>17929</v>
       </c>
       <c r="D22" t="n">
-        <v>24025552</v>
+        <v>23346232</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1486,10 +1486,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" t="n">
-        <v>67104</v>
+        <v>59644</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1534,10 +1534,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" t="n">
-        <v>86567</v>
+        <v>78565</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1582,10 +1582,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6231</v>
+        <v>6143</v>
       </c>
       <c r="D26" t="n">
-        <v>11527476</v>
+        <v>10887162</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1678,10 +1678,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2286</v>
+        <v>2253</v>
       </c>
       <c r="D28" t="n">
-        <v>4239784</v>
+        <v>4022391</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1726,10 +1726,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D29" t="n">
-        <v>469715</v>
+        <v>445629</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D31" t="n">
-        <v>833184</v>
+        <v>818283</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1870,10 +1870,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>7770</v>
+        <v>7699</v>
       </c>
       <c r="D32" t="n">
-        <v>10775393</v>
+        <v>10498216</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D34" t="n">
-        <v>118861</v>
+        <v>102026</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2014,10 +2014,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2068</v>
+        <v>2044</v>
       </c>
       <c r="D35" t="n">
-        <v>3529121</v>
+        <v>3341196</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="D37" t="n">
-        <v>1248346</v>
+        <v>1174110</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2254,10 +2254,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D40" t="n">
-        <v>288528</v>
+        <v>277502</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2302,10 +2302,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>27586</v>
+        <v>27250</v>
       </c>
       <c r="D41" t="n">
-        <v>36616565</v>
+        <v>35542863</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2494,10 +2494,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D45" t="n">
-        <v>125387</v>
+        <v>115693</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>9935</v>
+        <v>9775</v>
       </c>
       <c r="D47" t="n">
-        <v>18649240</v>
+        <v>17504407</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2638,10 +2638,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D48" t="n">
-        <v>35332</v>
+        <v>33166</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2686,10 +2686,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5069</v>
+        <v>4981</v>
       </c>
       <c r="D49" t="n">
-        <v>9393150</v>
+        <v>8833911</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D51" t="n">
-        <v>486726</v>
+        <v>469857</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>952</v>
+        <v>941</v>
       </c>
       <c r="D52" t="n">
-        <v>1543309</v>
+        <v>1483537</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>10238</v>
+        <v>10097</v>
       </c>
       <c r="D53" t="n">
-        <v>14090484</v>
+        <v>13550063</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -3022,10 +3022,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D56" t="n">
-        <v>150588</v>
+        <v>143096</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3070,10 +3070,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3501</v>
+        <v>3455</v>
       </c>
       <c r="D57" t="n">
-        <v>6428601</v>
+        <v>6077077</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3166,10 +3166,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1328</v>
+        <v>1303</v>
       </c>
       <c r="D59" t="n">
-        <v>2437092</v>
+        <v>2227850</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3262,10 +3262,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D61" t="n">
-        <v>581570</v>
+        <v>553862</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3310,10 +3310,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>46408</v>
+        <v>45879</v>
       </c>
       <c r="D62" t="n">
-        <v>64233325</v>
+        <v>62683753</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3358,10 +3358,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D63" t="n">
-        <v>76590</v>
+        <v>69806</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3406,10 +3406,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D64" t="n">
-        <v>304181</v>
+        <v>288796</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D66" t="n">
-        <v>201840</v>
+        <v>183524</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>17562</v>
+        <v>17263</v>
       </c>
       <c r="D67" t="n">
-        <v>35275283</v>
+        <v>33004642</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3598,10 +3598,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D68" t="n">
-        <v>74921</v>
+        <v>64921</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3646,10 +3646,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>7251</v>
+        <v>7115</v>
       </c>
       <c r="D69" t="n">
-        <v>14634163</v>
+        <v>13668112</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3742,10 +3742,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D71" t="n">
-        <v>475767</v>
+        <v>463067</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3886,10 +3886,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="D74" t="n">
-        <v>877017</v>
+        <v>845147</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3982,10 +3982,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>58122</v>
+        <v>57494</v>
       </c>
       <c r="D76" t="n">
-        <v>79758566</v>
+        <v>77882750</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4030,10 +4030,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D77" t="n">
-        <v>41516</v>
+        <v>39701</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4078,10 +4078,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D78" t="n">
-        <v>77920</v>
+        <v>67920</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -4126,10 +4126,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D79" t="n">
-        <v>206242</v>
+        <v>195576</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4174,10 +4174,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>23513</v>
+        <v>23107</v>
       </c>
       <c r="D80" t="n">
-        <v>45853851</v>
+        <v>42903288</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4222,10 +4222,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D81" t="n">
-        <v>72674</v>
+        <v>62674</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4270,10 +4270,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>12576</v>
+        <v>12370</v>
       </c>
       <c r="D82" t="n">
-        <v>24325549</v>
+        <v>22884039</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1298</v>
+        <v>1285</v>
       </c>
       <c r="D86" t="n">
-        <v>2312362</v>
+        <v>2246155</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -4510,10 +4510,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>31518</v>
+        <v>31131</v>
       </c>
       <c r="D87" t="n">
-        <v>43228434</v>
+        <v>41920432</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -4606,10 +4606,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D89" t="n">
-        <v>371517</v>
+        <v>343608</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4702,10 +4702,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>11391</v>
+        <v>11196</v>
       </c>
       <c r="D91" t="n">
-        <v>22016080</v>
+        <v>20662351</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4750,10 +4750,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D92" t="n">
-        <v>35875</v>
+        <v>34612</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4798,10 +4798,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>6611</v>
+        <v>6521</v>
       </c>
       <c r="D93" t="n">
-        <v>12681375</v>
+        <v>12132132</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4846,10 +4846,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D94" t="n">
-        <v>659583</v>
+        <v>616949</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -4942,10 +4942,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1136</v>
+        <v>1124</v>
       </c>
       <c r="D96" t="n">
-        <v>1867815</v>
+        <v>1812993</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4990,10 +4990,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>27811</v>
+        <v>27486</v>
       </c>
       <c r="D97" t="n">
-        <v>37473672</v>
+        <v>36442472</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -5182,10 +5182,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D101" t="n">
-        <v>164923</v>
+        <v>158423</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -5230,10 +5230,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>12059</v>
+        <v>11869</v>
       </c>
       <c r="D102" t="n">
-        <v>22958413</v>
+        <v>21565805</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>4371</v>
+        <v>4307</v>
       </c>
       <c r="D104" t="n">
-        <v>8208050</v>
+        <v>7722722</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5518,10 +5518,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="D108" t="n">
-        <v>1175083</v>
+        <v>1126411</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -5566,10 +5566,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>108624</v>
+        <v>107429</v>
       </c>
       <c r="D109" t="n">
-        <v>155457836</v>
+        <v>151228243</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -5806,10 +5806,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D114" t="n">
-        <v>437292</v>
+        <v>417185</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -5902,10 +5902,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>40278</v>
+        <v>39615</v>
       </c>
       <c r="D116" t="n">
-        <v>79768932</v>
+        <v>74749218</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -5950,10 +5950,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D117" t="n">
-        <v>82353</v>
+        <v>72353</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -5998,10 +5998,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>29010</v>
+        <v>28509</v>
       </c>
       <c r="D118" t="n">
-        <v>56782890</v>
+        <v>53342504</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -6142,10 +6142,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D121" t="n">
-        <v>1209728</v>
+        <v>1199837</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -6334,10 +6334,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>3163</v>
+        <v>3135</v>
       </c>
       <c r="D125" t="n">
-        <v>5476705</v>
+        <v>5326948</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>35419</v>
+        <v>35098</v>
       </c>
       <c r="D126" t="n">
-        <v>50229096</v>
+        <v>49241208</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -6430,10 +6430,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D127" t="n">
-        <v>167667</v>
+        <v>161278</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -6526,10 +6526,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D129" t="n">
-        <v>272781</v>
+        <v>259784</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -6622,10 +6622,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>13667</v>
+        <v>13447</v>
       </c>
       <c r="D131" t="n">
-        <v>29249912</v>
+        <v>27543013</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -6718,10 +6718,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>4656</v>
+        <v>4582</v>
       </c>
       <c r="D133" t="n">
-        <v>10163680</v>
+        <v>9558429</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -6766,10 +6766,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D134" t="n">
-        <v>447236</v>
+        <v>437236</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -6862,10 +6862,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D136" t="n">
-        <v>951335</v>
+        <v>917922</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -6910,10 +6910,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>19947</v>
+        <v>19700</v>
       </c>
       <c r="D137" t="n">
-        <v>26711052</v>
+        <v>25942409</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -7054,10 +7054,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D140" t="n">
-        <v>115813</v>
+        <v>96653</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -7102,10 +7102,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>10117</v>
+        <v>9938</v>
       </c>
       <c r="D141" t="n">
-        <v>19566169</v>
+        <v>18255263</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -7198,10 +7198,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>3048</v>
+        <v>2995</v>
       </c>
       <c r="D143" t="n">
-        <v>5853736</v>
+        <v>5493291</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -7294,10 +7294,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D145" t="n">
-        <v>543486</v>
+        <v>533586</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -7390,10 +7390,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D147" t="n">
-        <v>910907</v>
+        <v>900768</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -7438,10 +7438,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>16924</v>
+        <v>16726</v>
       </c>
       <c r="D148" t="n">
-        <v>22593029</v>
+        <v>21964553</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -7582,10 +7582,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D151" t="n">
-        <v>113328</v>
+        <v>102662</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -7630,10 +7630,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>7823</v>
+        <v>7708</v>
       </c>
       <c r="D152" t="n">
-        <v>14063704</v>
+        <v>13176223</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -7726,10 +7726,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>2602</v>
+        <v>2561</v>
       </c>
       <c r="D154" t="n">
-        <v>4812142</v>
+        <v>4509389</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -7870,10 +7870,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D157" t="n">
-        <v>829849</v>
+        <v>814638</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -7918,10 +7918,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>7349</v>
+        <v>7261</v>
       </c>
       <c r="D158" t="n">
-        <v>9683450</v>
+        <v>9404760</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -8062,10 +8062,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>2522</v>
+        <v>2476</v>
       </c>
       <c r="D161" t="n">
-        <v>4569480</v>
+        <v>4244043</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -8158,10 +8158,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="D163" t="n">
-        <v>1676154</v>
+        <v>1561152</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -8302,10 +8302,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D166" t="n">
-        <v>173103</v>
+        <v>163103</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -8350,10 +8350,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>9503</v>
+        <v>9362</v>
       </c>
       <c r="D167" t="n">
-        <v>12581807</v>
+        <v>12162273</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -8494,10 +8494,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>3683</v>
+        <v>3635</v>
       </c>
       <c r="D170" t="n">
-        <v>6581791</v>
+        <v>6206020</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -8542,10 +8542,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1846</v>
+        <v>1806</v>
       </c>
       <c r="D171" t="n">
-        <v>3387265</v>
+        <v>3155689</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -8686,10 +8686,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D174" t="n">
-        <v>319833</v>
+        <v>314229</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -8734,10 +8734,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>7055</v>
+        <v>6962</v>
       </c>
       <c r="D175" t="n">
-        <v>9522194</v>
+        <v>9177942</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -8926,10 +8926,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D179" t="n">
-        <v>114535</v>
+        <v>101055</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -8974,10 +8974,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>2601</v>
+        <v>2552</v>
       </c>
       <c r="D180" t="n">
-        <v>4858418</v>
+        <v>4490478</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -9070,10 +9070,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>868</v>
+        <v>850</v>
       </c>
       <c r="D182" t="n">
-        <v>1636377</v>
+        <v>1485895</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -9166,10 +9166,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D184" t="n">
-        <v>240620</v>
+        <v>234745</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -9214,10 +9214,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>20609</v>
+        <v>20337</v>
       </c>
       <c r="D185" t="n">
-        <v>28338085</v>
+        <v>27360355</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -9406,10 +9406,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D189" t="n">
-        <v>163241</v>
+        <v>135250</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -9454,10 +9454,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>8451</v>
+        <v>8291</v>
       </c>
       <c r="D190" t="n">
-        <v>16524540</v>
+        <v>15294025</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -9502,10 +9502,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D191" t="n">
-        <v>21970</v>
+        <v>12818</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -9550,10 +9550,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D192" t="n">
-        <v>37500</v>
+        <v>27500</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -9598,10 +9598,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>3032</v>
+        <v>2968</v>
       </c>
       <c r="D193" t="n">
-        <v>5962739</v>
+        <v>5522040</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -9694,10 +9694,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D195" t="n">
-        <v>892266</v>
+        <v>876103</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -9742,10 +9742,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="D196" t="n">
-        <v>1131516</v>
+        <v>1077008</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -9790,10 +9790,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>3823</v>
+        <v>3762</v>
       </c>
       <c r="D197" t="n">
-        <v>5078061</v>
+        <v>4895920</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -9886,10 +9886,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1920</v>
+        <v>1887</v>
       </c>
       <c r="D199" t="n">
-        <v>3664378</v>
+        <v>3412664</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -9982,10 +9982,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="D201" t="n">
-        <v>1315096</v>
+        <v>1220854</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -10126,10 +10126,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D204" t="n">
-        <v>151161</v>
+        <v>131161</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -10174,10 +10174,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>11540</v>
+        <v>11377</v>
       </c>
       <c r="D205" t="n">
-        <v>15586442</v>
+        <v>15005784</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -10318,10 +10318,10 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D208" t="n">
-        <v>100959</v>
+        <v>92360</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -10366,10 +10366,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>4384</v>
+        <v>4291</v>
       </c>
       <c r="D209" t="n">
-        <v>8350437</v>
+        <v>7669379</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -10462,10 +10462,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>2094</v>
+        <v>2063</v>
       </c>
       <c r="D211" t="n">
-        <v>3614008</v>
+        <v>3443152</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -10510,10 +10510,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D212" t="n">
-        <v>370097</v>
+        <v>368597</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -10606,10 +10606,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D214" t="n">
-        <v>554968</v>
+        <v>523468</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -10654,10 +10654,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>21071</v>
+        <v>20780</v>
       </c>
       <c r="D215" t="n">
-        <v>28321885</v>
+        <v>27247792</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -10798,10 +10798,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D218" t="n">
-        <v>485149</v>
+        <v>422570</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -10846,10 +10846,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>9978</v>
+        <v>9759</v>
       </c>
       <c r="D219" t="n">
-        <v>18879335</v>
+        <v>17201227</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -10942,10 +10942,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1655</v>
+        <v>1622</v>
       </c>
       <c r="D221" t="n">
-        <v>3019727</v>
+        <v>2807177</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -10990,10 +10990,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D222" t="n">
-        <v>466195</v>
+        <v>456195</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -11038,10 +11038,10 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D223" t="n">
-        <v>978989</v>
+        <v>975989</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -11086,10 +11086,10 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>31821</v>
+        <v>31408</v>
       </c>
       <c r="D224" t="n">
-        <v>43231107</v>
+        <v>41732656</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -11230,10 +11230,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D227" t="n">
-        <v>684672</v>
+        <v>617740</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -11278,10 +11278,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>13592</v>
+        <v>13269</v>
       </c>
       <c r="D228" t="n">
-        <v>25824889</v>
+        <v>23496421</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -11326,10 +11326,10 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D229" t="n">
-        <v>52202</v>
+        <v>42202</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -11374,10 +11374,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>3588</v>
+        <v>3482</v>
       </c>
       <c r="D230" t="n">
-        <v>7329644</v>
+        <v>6529923</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -11422,10 +11422,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D231" t="n">
-        <v>501178</v>
+        <v>496479</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="D233" t="n">
-        <v>1347494</v>
+        <v>1308463</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -11566,10 +11566,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>36396</v>
+        <v>35958</v>
       </c>
       <c r="D234" t="n">
-        <v>49670915</v>
+        <v>48229435</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -11662,10 +11662,10 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D236" t="n">
-        <v>15023</v>
+        <v>13523</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -11758,10 +11758,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D238" t="n">
-        <v>548469</v>
+        <v>503923</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -11806,10 +11806,10 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>19596</v>
+        <v>19176</v>
       </c>
       <c r="D239" t="n">
-        <v>38477897</v>
+        <v>35268918</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -11902,10 +11902,10 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>3618</v>
+        <v>3562</v>
       </c>
       <c r="D241" t="n">
-        <v>6719937</v>
+        <v>6346170</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -11998,10 +11998,10 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D243" t="n">
-        <v>602153</v>
+        <v>592986</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -12046,10 +12046,10 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>1162</v>
+        <v>1153</v>
       </c>
       <c r="D244" t="n">
-        <v>1944380</v>
+        <v>1901181</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -12094,10 +12094,10 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>29986</v>
+        <v>29621</v>
       </c>
       <c r="D245" t="n">
-        <v>40430383</v>
+        <v>39184528</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -12286,10 +12286,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D249" t="n">
-        <v>511342</v>
+        <v>486277</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -12382,10 +12382,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>14306</v>
+        <v>14027</v>
       </c>
       <c r="D251" t="n">
-        <v>26503880</v>
+        <v>24421705</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -12430,10 +12430,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D252" t="n">
-        <v>34500</v>
+        <v>24500</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -12478,10 +12478,10 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>3351</v>
+        <v>3293</v>
       </c>
       <c r="D253" t="n">
-        <v>6293694</v>
+        <v>5855308</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -12574,10 +12574,10 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D255" t="n">
-        <v>750356</v>
+        <v>742727</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -12622,10 +12622,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="D256" t="n">
-        <v>1119235</v>
+        <v>1073539</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -12670,10 +12670,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>9796</v>
+        <v>9652</v>
       </c>
       <c r="D257" t="n">
-        <v>13554832</v>
+        <v>13029827</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -12862,10 +12862,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>3511</v>
+        <v>3455</v>
       </c>
       <c r="D261" t="n">
-        <v>6456883</v>
+        <v>6047643</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -12910,10 +12910,10 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D262" t="n">
-        <v>41832</v>
+        <v>31832</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -13006,10 +13006,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>1288</v>
+        <v>1272</v>
       </c>
       <c r="D264" t="n">
-        <v>2336273</v>
+        <v>2227147</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -13102,10 +13102,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D266" t="n">
-        <v>319465</v>
+        <v>317965</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -13150,10 +13150,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>12427</v>
+        <v>12244</v>
       </c>
       <c r="D267" t="n">
-        <v>17511365</v>
+        <v>16813559</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -13294,10 +13294,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D270" t="n">
-        <v>168051</v>
+        <v>147385</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -13342,10 +13342,10 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>5396</v>
+        <v>5286</v>
       </c>
       <c r="D271" t="n">
-        <v>10220958</v>
+        <v>9415070</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -13438,10 +13438,10 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>2843</v>
+        <v>2802</v>
       </c>
       <c r="D273" t="n">
-        <v>5107610</v>
+        <v>4842413</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -13486,10 +13486,10 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D274" t="n">
-        <v>182582</v>
+        <v>179412</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -13630,10 +13630,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>7128</v>
+        <v>7020</v>
       </c>
       <c r="D277" t="n">
-        <v>9617858</v>
+        <v>9246303</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -13726,10 +13726,10 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D279" t="n">
-        <v>24500</v>
+        <v>14500</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -13822,10 +13822,10 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>2622</v>
+        <v>2569</v>
       </c>
       <c r="D281" t="n">
-        <v>4882473</v>
+        <v>4543999</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -13918,10 +13918,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>1004</v>
+        <v>977</v>
       </c>
       <c r="D283" t="n">
-        <v>1950399</v>
+        <v>1762356</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -14062,10 +14062,10 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D286" t="n">
-        <v>385663</v>
+        <v>373177</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -14110,10 +14110,10 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>24279</v>
+        <v>23961</v>
       </c>
       <c r="D287" t="n">
-        <v>33346677</v>
+        <v>32226989</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -14206,10 +14206,10 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D289" t="n">
-        <v>39126</v>
+        <v>29126</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -14254,10 +14254,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D290" t="n">
-        <v>204995</v>
+        <v>190285</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -14302,10 +14302,10 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>10624</v>
+        <v>10406</v>
       </c>
       <c r="D291" t="n">
-        <v>20921371</v>
+        <v>19321744</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -14350,10 +14350,10 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D292" t="n">
-        <v>48618</v>
+        <v>38618</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -14398,10 +14398,10 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>3434</v>
+        <v>3363</v>
       </c>
       <c r="D293" t="n">
-        <v>6722578</v>
+        <v>6217530</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -14446,10 +14446,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D294" t="n">
-        <v>1011487</v>
+        <v>993942</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -14542,10 +14542,10 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="D296" t="n">
-        <v>1217364</v>
+        <v>1179334</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -14638,10 +14638,10 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>20901</v>
+        <v>20654</v>
       </c>
       <c r="D298" t="n">
-        <v>28817415</v>
+        <v>27879778</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -14830,10 +14830,10 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D302" t="n">
-        <v>237008</v>
+        <v>215490</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -14926,10 +14926,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>9374</v>
+        <v>9214</v>
       </c>
       <c r="D304" t="n">
-        <v>18329014</v>
+        <v>17089924</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -14974,10 +14974,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>4472</v>
+        <v>4381</v>
       </c>
       <c r="D305" t="n">
-        <v>8632618</v>
+        <v>7983596</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -15118,10 +15118,10 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="D308" t="n">
-        <v>859450</v>
+        <v>823620</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -15166,10 +15166,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>11648</v>
+        <v>11502</v>
       </c>
       <c r="D309" t="n">
-        <v>16194221</v>
+        <v>15671622</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -15262,10 +15262,10 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D311" t="n">
-        <v>150610</v>
+        <v>142760</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -15358,10 +15358,10 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>4969</v>
+        <v>4873</v>
       </c>
       <c r="D313" t="n">
-        <v>9138139</v>
+        <v>8455869</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -15406,10 +15406,10 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D314" t="n">
-        <v>21998</v>
+        <v>11332</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -15454,10 +15454,10 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>1701</v>
+        <v>1663</v>
       </c>
       <c r="D315" t="n">
-        <v>3195841</v>
+        <v>2952463</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -15502,10 +15502,10 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D316" t="n">
-        <v>397604</v>
+        <v>390530</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -15646,10 +15646,10 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D319" t="n">
-        <v>511308</v>
+        <v>489808</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -15694,10 +15694,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>11654</v>
+        <v>11535</v>
       </c>
       <c r="D320" t="n">
-        <v>16619582</v>
+        <v>16140839</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -15886,10 +15886,10 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>4956</v>
+        <v>4861</v>
       </c>
       <c r="D324" t="n">
-        <v>10061757</v>
+        <v>9285971</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -15934,10 +15934,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>3203</v>
+        <v>3148</v>
       </c>
       <c r="D325" t="n">
-        <v>6209970</v>
+        <v>5830642</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -15982,10 +15982,10 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D326" t="n">
-        <v>491275</v>
+        <v>471275</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -16030,10 +16030,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D327" t="n">
-        <v>300149</v>
+        <v>291924</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -16078,10 +16078,10 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>14181</v>
+        <v>14037</v>
       </c>
       <c r="D328" t="n">
-        <v>20232639</v>
+        <v>19750370</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -16174,10 +16174,10 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D330" t="n">
-        <v>54891</v>
+        <v>44891</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -16222,10 +16222,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D331" t="n">
-        <v>87309</v>
+        <v>77309</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -16270,10 +16270,10 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>5138</v>
+        <v>5036</v>
       </c>
       <c r="D332" t="n">
-        <v>10218207</v>
+        <v>9533561</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -16366,10 +16366,10 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>3700</v>
+        <v>3632</v>
       </c>
       <c r="D334" t="n">
-        <v>7404325</v>
+        <v>6878925</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -16414,10 +16414,10 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D335" t="n">
-        <v>494681</v>
+        <v>490257</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -16462,10 +16462,10 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D336" t="n">
-        <v>430033</v>
+        <v>427350</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -16510,10 +16510,10 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>8629</v>
+        <v>8507</v>
       </c>
       <c r="D337" t="n">
-        <v>11631287</v>
+        <v>11234485</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -16606,10 +16606,10 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D339" t="n">
-        <v>18482</v>
+        <v>14638</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
@@ -16654,10 +16654,10 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D340" t="n">
-        <v>88403</v>
+        <v>78403</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -16750,10 +16750,10 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>2955</v>
+        <v>2902</v>
       </c>
       <c r="D342" t="n">
-        <v>5490248</v>
+        <v>5086220</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -16798,10 +16798,10 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D343" t="n">
-        <v>39666</v>
+        <v>29666</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -16846,10 +16846,10 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>1036</v>
+        <v>1021</v>
       </c>
       <c r="D344" t="n">
-        <v>1975731</v>
+        <v>1869515</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
@@ -16894,10 +16894,10 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D345" t="n">
-        <v>108517</v>
+        <v>107017</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -16942,10 +16942,10 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D346" t="n">
-        <v>303643</v>
+        <v>292143</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -16990,10 +16990,10 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>9716</v>
+        <v>9591</v>
       </c>
       <c r="D347" t="n">
-        <v>13495002</v>
+        <v>13081708</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -17086,10 +17086,10 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D349" t="n">
-        <v>29726</v>
+        <v>20026</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -17134,10 +17134,10 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D350" t="n">
-        <v>299137</v>
+        <v>271222</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -17230,10 +17230,10 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>4077</v>
+        <v>4015</v>
       </c>
       <c r="D352" t="n">
-        <v>7585841</v>
+        <v>7123384</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -17278,10 +17278,10 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>1764</v>
+        <v>1730</v>
       </c>
       <c r="D353" t="n">
-        <v>3312738</v>
+        <v>3085840</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -17326,10 +17326,10 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D354" t="n">
-        <v>1067588</v>
+        <v>986159</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
@@ -17422,10 +17422,10 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D356" t="n">
-        <v>291516</v>
+        <v>281516</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
@@ -17470,10 +17470,10 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>40951</v>
+        <v>40534</v>
       </c>
       <c r="D357" t="n">
-        <v>55289786</v>
+        <v>53918915</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -17758,10 +17758,10 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>21289</v>
+        <v>20990</v>
       </c>
       <c r="D363" t="n">
-        <v>39288709</v>
+        <v>37028373</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -17806,10 +17806,10 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D364" t="n">
-        <v>136740</v>
+        <v>116740</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -17902,10 +17902,10 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>10523</v>
+        <v>10359</v>
       </c>
       <c r="D366" t="n">
-        <v>19146356</v>
+        <v>17931712</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -17950,10 +17950,10 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="D367" t="n">
-        <v>1297920</v>
+        <v>1270280</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -17998,10 +17998,10 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="D368" t="n">
-        <v>2119624</v>
+        <v>2067804</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -18046,10 +18046,10 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>4880</v>
+        <v>4817</v>
       </c>
       <c r="D369" t="n">
-        <v>6472104</v>
+        <v>6286666</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -18142,10 +18142,10 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D371" t="n">
-        <v>37287</v>
+        <v>35787</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -18190,10 +18190,10 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>1873</v>
+        <v>1841</v>
       </c>
       <c r="D372" t="n">
-        <v>3318927</v>
+        <v>3098309</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -18238,10 +18238,10 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="D373" t="n">
-        <v>1300264</v>
+        <v>1243077</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -18382,10 +18382,10 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D376" t="n">
-        <v>182380</v>
+        <v>172380</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -18430,10 +18430,10 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>23836</v>
+        <v>23558</v>
       </c>
       <c r="D377" t="n">
-        <v>31708425</v>
+        <v>30805617</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -18622,10 +18622,10 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>12563</v>
+        <v>12369</v>
       </c>
       <c r="D381" t="n">
-        <v>23109319</v>
+        <v>21642384</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
@@ -18718,10 +18718,10 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>6138</v>
+        <v>6016</v>
       </c>
       <c r="D383" t="n">
-        <v>11525991</v>
+        <v>10566177</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -18766,10 +18766,10 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D384" t="n">
-        <v>1045323</v>
+        <v>1029734</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
@@ -18814,10 +18814,10 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D385" t="n">
-        <v>801132</v>
+        <v>778966</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
@@ -18862,10 +18862,10 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>18494</v>
+        <v>18227</v>
       </c>
       <c r="D386" t="n">
-        <v>27209172</v>
+        <v>26260612</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -18910,10 +18910,10 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D387" t="n">
-        <v>106138</v>
+        <v>90557</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -19006,10 +19006,10 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D389" t="n">
-        <v>253457</v>
+        <v>224581</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
@@ -19054,10 +19054,10 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>8630</v>
+        <v>8438</v>
       </c>
       <c r="D390" t="n">
-        <v>17023590</v>
+        <v>15680099</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -19102,10 +19102,10 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D391" t="n">
-        <v>75688</v>
+        <v>65971</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
@@ -19150,10 +19150,10 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>3483</v>
+        <v>3428</v>
       </c>
       <c r="D392" t="n">
-        <v>6675986</v>
+        <v>6310234</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
@@ -19198,10 +19198,10 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>1255</v>
+        <v>1222</v>
       </c>
       <c r="D393" t="n">
-        <v>4254491</v>
+        <v>4007547</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -19246,10 +19246,10 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D394" t="n">
-        <v>592298</v>
+        <v>581065</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
@@ -19294,10 +19294,10 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>22729</v>
+        <v>22505</v>
       </c>
       <c r="D395" t="n">
-        <v>30562383</v>
+        <v>29796516</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -19390,10 +19390,10 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D397" t="n">
-        <v>42971</v>
+        <v>32971</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
@@ -19486,10 +19486,10 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>9196</v>
+        <v>9039</v>
       </c>
       <c r="D399" t="n">
-        <v>17273014</v>
+        <v>16138444</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
@@ -19582,10 +19582,10 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>3702</v>
+        <v>3648</v>
       </c>
       <c r="D401" t="n">
-        <v>6981611</v>
+        <v>6547680</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
@@ -19678,10 +19678,10 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D403" t="n">
-        <v>255558</v>
+        <v>252806</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -19726,10 +19726,10 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D404" t="n">
-        <v>958022</v>
+        <v>933249</v>
       </c>
       <c r="E404" t="inlineStr">
         <is>
@@ -19774,10 +19774,10 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>5118</v>
+        <v>5056</v>
       </c>
       <c r="D405" t="n">
-        <v>6966324</v>
+        <v>6707940</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
@@ -19918,10 +19918,10 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>1734</v>
+        <v>1709</v>
       </c>
       <c r="D408" t="n">
-        <v>3127563</v>
+        <v>2920559</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
@@ -19966,10 +19966,10 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>721</v>
+        <v>706</v>
       </c>
       <c r="D409" t="n">
-        <v>1265709</v>
+        <v>1178804</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
@@ -20110,10 +20110,10 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>27498</v>
+        <v>27169</v>
       </c>
       <c r="D412" t="n">
-        <v>36574076</v>
+        <v>35487648</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
@@ -20254,10 +20254,10 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>11628</v>
+        <v>11427</v>
       </c>
       <c r="D415" t="n">
-        <v>21427012</v>
+        <v>19864520</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
@@ -20350,10 +20350,10 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>7814</v>
+        <v>7669</v>
       </c>
       <c r="D417" t="n">
-        <v>14169606</v>
+        <v>13123308</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -20446,10 +20446,10 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D419" t="n">
-        <v>781794</v>
+        <v>770294</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
@@ -20494,10 +20494,10 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>13966</v>
+        <v>13757</v>
       </c>
       <c r="D420" t="n">
-        <v>18684628</v>
+        <v>17906612</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
@@ -20590,10 +20590,10 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D422" t="n">
-        <v>51589</v>
+        <v>41589</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
@@ -20638,10 +20638,10 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D423" t="n">
-        <v>108645</v>
+        <v>98645</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
@@ -20734,10 +20734,10 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>6704</v>
+        <v>6590</v>
       </c>
       <c r="D425" t="n">
-        <v>12148158</v>
+        <v>11385896</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
@@ -20830,10 +20830,10 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>2416</v>
+        <v>2369</v>
       </c>
       <c r="D427" t="n">
-        <v>4442584</v>
+        <v>4130601</v>
       </c>
       <c r="E427" t="inlineStr">
         <is>
@@ -20926,10 +20926,10 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D429" t="n">
-        <v>410656</v>
+        <v>400656</v>
       </c>
       <c r="E429" t="inlineStr">
         <is>
@@ -20974,10 +20974,10 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>41704</v>
+        <v>41510</v>
       </c>
       <c r="D430" t="n">
-        <v>59697247</v>
+        <v>58965133</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
@@ -21166,10 +21166,10 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>10401</v>
+        <v>10339</v>
       </c>
       <c r="D434" t="n">
-        <v>17090943</v>
+        <v>16730430</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
@@ -21262,10 +21262,10 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>9687</v>
+        <v>9644</v>
       </c>
       <c r="D436" t="n">
-        <v>15386046</v>
+        <v>15197282</v>
       </c>
       <c r="E436" t="inlineStr">
         <is>
@@ -21358,10 +21358,10 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D438" t="n">
-        <v>944682</v>
+        <v>934682</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
@@ -21406,10 +21406,10 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D439" t="n">
-        <v>983952</v>
+        <v>982452</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -21454,10 +21454,10 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>17836</v>
+        <v>17775</v>
       </c>
       <c r="D440" t="n">
-        <v>35867577</v>
+        <v>35467766</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
@@ -21598,10 +21598,10 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>4067</v>
+        <v>4060</v>
       </c>
       <c r="D443" t="n">
-        <v>8743566</v>
+        <v>8688326</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
@@ -21694,10 +21694,10 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>5856</v>
+        <v>5841</v>
       </c>
       <c r="D445" t="n">
-        <v>12866808</v>
+        <v>12744979</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
@@ -21838,10 +21838,10 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D448" t="n">
-        <v>733125</v>
+        <v>723125</v>
       </c>
       <c r="E448" t="inlineStr">
         <is>
@@ -21934,10 +21934,10 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>13992</v>
+        <v>13780</v>
       </c>
       <c r="D450" t="n">
-        <v>19084994</v>
+        <v>18357913</v>
       </c>
       <c r="E450" t="inlineStr">
         <is>
@@ -22030,10 +22030,10 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D452" t="n">
-        <v>144690</v>
+        <v>141815</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
@@ -22078,10 +22078,10 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>4938</v>
+        <v>4835</v>
       </c>
       <c r="D453" t="n">
-        <v>9502165</v>
+        <v>8700412</v>
       </c>
       <c r="E453" t="inlineStr">
         <is>
@@ -22174,10 +22174,10 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>2483</v>
+        <v>2440</v>
       </c>
       <c r="D455" t="n">
-        <v>4465437</v>
+        <v>4184330</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
@@ -22222,10 +22222,10 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D456" t="n">
-        <v>395072</v>
+        <v>375072</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
@@ -22270,10 +22270,10 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D457" t="n">
-        <v>381707</v>
+        <v>368993</v>
       </c>
       <c r="E457" t="inlineStr">
         <is>
@@ -22318,10 +22318,10 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>82187</v>
+        <v>81149</v>
       </c>
       <c r="D458" t="n">
-        <v>112552760</v>
+        <v>109049720</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
@@ -22366,10 +22366,10 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D459" t="n">
-        <v>21182</v>
+        <v>19582</v>
       </c>
       <c r="E459" t="inlineStr">
         <is>
@@ -22462,10 +22462,10 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D461" t="n">
-        <v>1073406</v>
+        <v>966330</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
@@ -22510,10 +22510,10 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>33308</v>
+        <v>32724</v>
       </c>
       <c r="D462" t="n">
-        <v>65749683</v>
+        <v>61285260</v>
       </c>
       <c r="E462" t="inlineStr">
         <is>
@@ -22558,10 +22558,10 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D463" t="n">
-        <v>217302</v>
+        <v>195802</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
@@ -22654,10 +22654,10 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>18400</v>
+        <v>18103</v>
       </c>
       <c r="D465" t="n">
-        <v>35993117</v>
+        <v>33854276</v>
       </c>
       <c r="E465" t="inlineStr">
         <is>
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D466" t="n">
-        <v>838381</v>
+        <v>815349</v>
       </c>
       <c r="E466" t="inlineStr">
         <is>
@@ -22894,10 +22894,10 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>1715</v>
+        <v>1698</v>
       </c>
       <c r="D470" t="n">
-        <v>3020817</v>
+        <v>2929105</v>
       </c>
       <c r="E470" t="inlineStr">
         <is>
@@ -22990,10 +22990,10 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>24680</v>
+        <v>24365</v>
       </c>
       <c r="D472" t="n">
-        <v>34620343</v>
+        <v>33530775</v>
       </c>
       <c r="E472" t="inlineStr">
         <is>
@@ -23134,10 +23134,10 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D475" t="n">
-        <v>438082</v>
+        <v>415400</v>
       </c>
       <c r="E475" t="inlineStr">
         <is>
@@ -23182,10 +23182,10 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>9958</v>
+        <v>9801</v>
       </c>
       <c r="D476" t="n">
-        <v>18653422</v>
+        <v>17560284</v>
       </c>
       <c r="E476" t="inlineStr">
         <is>
@@ -23230,10 +23230,10 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D477" t="n">
-        <v>81288</v>
+        <v>65590</v>
       </c>
       <c r="E477" t="inlineStr">
         <is>
@@ -23278,10 +23278,10 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>6994</v>
+        <v>6878</v>
       </c>
       <c r="D478" t="n">
-        <v>13305501</v>
+        <v>12560672</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
@@ -23326,10 +23326,10 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D479" t="n">
-        <v>321520</v>
+        <v>303090</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
@@ -23374,10 +23374,10 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D480" t="n">
-        <v>754314</v>
+        <v>738412</v>
       </c>
       <c r="E480" t="inlineStr">
         <is>
@@ -23422,10 +23422,10 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>41183</v>
+        <v>40568</v>
       </c>
       <c r="D481" t="n">
-        <v>55536547</v>
+        <v>53390889</v>
       </c>
       <c r="E481" t="inlineStr">
         <is>
@@ -23614,10 +23614,10 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="D485" t="n">
-        <v>865650</v>
+        <v>778107</v>
       </c>
       <c r="E485" t="inlineStr">
         <is>
@@ -23662,10 +23662,10 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>14897</v>
+        <v>14618</v>
       </c>
       <c r="D486" t="n">
-        <v>28435247</v>
+        <v>26401874</v>
       </c>
       <c r="E486" t="inlineStr">
         <is>
@@ -23710,10 +23710,10 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D487" t="n">
-        <v>39496</v>
+        <v>37996</v>
       </c>
       <c r="E487" t="inlineStr">
         <is>
@@ -23758,10 +23758,10 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>6569</v>
+        <v>6435</v>
       </c>
       <c r="D488" t="n">
-        <v>12904835</v>
+        <v>11899988</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
@@ -23806,10 +23806,10 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D489" t="n">
-        <v>598406</v>
+        <v>596806</v>
       </c>
       <c r="E489" t="inlineStr">
         <is>
@@ -23854,10 +23854,10 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D490" t="n">
-        <v>916643</v>
+        <v>902091</v>
       </c>
       <c r="E490" t="inlineStr">
         <is>
@@ -23902,10 +23902,10 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>17693</v>
+        <v>17476</v>
       </c>
       <c r="D491" t="n">
-        <v>23350405</v>
+        <v>22595845</v>
       </c>
       <c r="E491" t="inlineStr">
         <is>
@@ -23998,10 +23998,10 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D493" t="n">
-        <v>34318</v>
+        <v>24318</v>
       </c>
       <c r="E493" t="inlineStr">
         <is>
@@ -24046,10 +24046,10 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D494" t="n">
-        <v>239592</v>
+        <v>213637</v>
       </c>
       <c r="E494" t="inlineStr">
         <is>
@@ -24142,10 +24142,10 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>5588</v>
+        <v>5480</v>
       </c>
       <c r="D496" t="n">
-        <v>10391990</v>
+        <v>9598593</v>
       </c>
       <c r="E496" t="inlineStr">
         <is>
@@ -24190,10 +24190,10 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D497" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="E497" t="inlineStr">
         <is>
@@ -24238,10 +24238,10 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>2732</v>
+        <v>2687</v>
       </c>
       <c r="D498" t="n">
-        <v>5012595</v>
+        <v>4672462</v>
       </c>
       <c r="E498" t="inlineStr">
         <is>
@@ -24286,10 +24286,10 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D499" t="n">
-        <v>273415</v>
+        <v>268712</v>
       </c>
       <c r="E499" t="inlineStr">
         <is>
@@ -24334,10 +24334,10 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D500" t="n">
-        <v>684471</v>
+        <v>669971</v>
       </c>
       <c r="E500" t="inlineStr">
         <is>
@@ -24382,10 +24382,10 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>51184</v>
+        <v>50573</v>
       </c>
       <c r="D501" t="n">
-        <v>77404243</v>
+        <v>74989419</v>
       </c>
       <c r="E501" t="inlineStr">
         <is>
@@ -24526,10 +24526,10 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D504" t="n">
-        <v>284975</v>
+        <v>274975</v>
       </c>
       <c r="E504" t="inlineStr">
         <is>
@@ -24574,10 +24574,10 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>17626</v>
+        <v>17408</v>
       </c>
       <c r="D505" t="n">
-        <v>32689003</v>
+        <v>31113122</v>
       </c>
       <c r="E505" t="inlineStr">
         <is>
@@ -24670,10 +24670,10 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>17527</v>
+        <v>17309</v>
       </c>
       <c r="D507" t="n">
-        <v>32307240</v>
+        <v>30970005</v>
       </c>
       <c r="E507" t="inlineStr">
         <is>
@@ -24718,10 +24718,10 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D508" t="n">
-        <v>361671</v>
+        <v>351671</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
@@ -24766,10 +24766,10 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D509" t="n">
-        <v>881453</v>
+        <v>832728</v>
       </c>
       <c r="E509" t="inlineStr">
         <is>
@@ -24814,10 +24814,10 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>94109</v>
+        <v>92943</v>
       </c>
       <c r="D510" t="n">
-        <v>146263097</v>
+        <v>141485424</v>
       </c>
       <c r="E510" t="inlineStr">
         <is>
@@ -25006,10 +25006,10 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D514" t="n">
-        <v>639247</v>
+        <v>558624</v>
       </c>
       <c r="E514" t="inlineStr">
         <is>
@@ -25102,10 +25102,10 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>32874</v>
+        <v>32405</v>
       </c>
       <c r="D516" t="n">
-        <v>64332938</v>
+        <v>60936276</v>
       </c>
       <c r="E516" t="inlineStr">
         <is>
@@ -25198,10 +25198,10 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>34731</v>
+        <v>34251</v>
       </c>
       <c r="D518" t="n">
-        <v>66998259</v>
+        <v>63830746</v>
       </c>
       <c r="E518" t="inlineStr">
         <is>
@@ -25294,10 +25294,10 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D520" t="n">
-        <v>483489</v>
+        <v>470997</v>
       </c>
       <c r="E520" t="inlineStr">
         <is>
@@ -25342,10 +25342,10 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>1059</v>
+        <v>1045</v>
       </c>
       <c r="D521" t="n">
-        <v>1852359</v>
+        <v>1788392</v>
       </c>
       <c r="E521" t="inlineStr">
         <is>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>224531</v>
+        <v>222018</v>
       </c>
       <c r="D522" t="n">
-        <v>330908661</v>
+        <v>322047891</v>
       </c>
       <c r="E522" t="inlineStr">
         <is>
@@ -25486,10 +25486,10 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D524" t="n">
-        <v>379816</v>
+        <v>358576</v>
       </c>
       <c r="E524" t="inlineStr">
         <is>
@@ -25582,10 +25582,10 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D526" t="n">
-        <v>39500</v>
+        <v>29500</v>
       </c>
       <c r="E526" t="inlineStr">
         <is>
@@ -25630,10 +25630,10 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>854</v>
+        <v>834</v>
       </c>
       <c r="D527" t="n">
-        <v>2515593</v>
+        <v>2354484</v>
       </c>
       <c r="E527" t="inlineStr">
         <is>
@@ -25678,10 +25678,10 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D528" t="n">
-        <v>150681</v>
+        <v>140681</v>
       </c>
       <c r="E528" t="inlineStr">
         <is>
@@ -25726,10 +25726,10 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>120545</v>
+        <v>118624</v>
       </c>
       <c r="D529" t="n">
-        <v>253351734</v>
+        <v>238875077</v>
       </c>
       <c r="E529" t="inlineStr">
         <is>
@@ -25774,10 +25774,10 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="D530" t="n">
-        <v>1957525</v>
+        <v>1773305</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
@@ -25822,10 +25822,10 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D531" t="n">
-        <v>174140</v>
+        <v>154140</v>
       </c>
       <c r="E531" t="inlineStr">
         <is>
@@ -25870,10 +25870,10 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>93494</v>
+        <v>92086</v>
       </c>
       <c r="D532" t="n">
-        <v>197799603</v>
+        <v>187402226</v>
       </c>
       <c r="E532" t="inlineStr">
         <is>
@@ -25918,10 +25918,10 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D533" t="n">
-        <v>99402</v>
+        <v>89402</v>
       </c>
       <c r="E533" t="inlineStr">
         <is>
@@ -25966,10 +25966,10 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>1342</v>
+        <v>1332</v>
       </c>
       <c r="D534" t="n">
-        <v>2227013</v>
+        <v>2173119</v>
       </c>
       <c r="E534" t="inlineStr">
         <is>
@@ -26062,10 +26062,10 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>4801</v>
+        <v>4758</v>
       </c>
       <c r="D536" t="n">
-        <v>8501105</v>
+        <v>8246612</v>
       </c>
       <c r="E536" t="inlineStr">
         <is>
@@ -26206,10 +26206,10 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>58189</v>
+        <v>57506</v>
       </c>
       <c r="D539" t="n">
-        <v>85535963</v>
+        <v>83324519</v>
       </c>
       <c r="E539" t="inlineStr">
         <is>
@@ -26398,10 +26398,10 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D543" t="n">
-        <v>432560</v>
+        <v>401696</v>
       </c>
       <c r="E543" t="inlineStr">
         <is>
@@ -26446,10 +26446,10 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>19964</v>
+        <v>19688</v>
       </c>
       <c r="D544" t="n">
-        <v>37820003</v>
+        <v>35822102</v>
       </c>
       <c r="E544" t="inlineStr">
         <is>
@@ -26542,10 +26542,10 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D546" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="E546" t="inlineStr">
         <is>
@@ -26590,10 +26590,10 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>18695</v>
+        <v>18427</v>
       </c>
       <c r="D547" t="n">
-        <v>35418982</v>
+        <v>33618233</v>
       </c>
       <c r="E547" t="inlineStr">
         <is>
@@ -26686,10 +26686,10 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D549" t="n">
-        <v>633872</v>
+        <v>614973</v>
       </c>
       <c r="E549" t="inlineStr">
         <is>
@@ -26734,10 +26734,10 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="D550" t="n">
-        <v>997650</v>
+        <v>940825</v>
       </c>
       <c r="E550" t="inlineStr">
         <is>
@@ -26830,10 +26830,10 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>105855</v>
+        <v>104548</v>
       </c>
       <c r="D552" t="n">
-        <v>171899644</v>
+        <v>166126532</v>
       </c>
       <c r="E552" t="inlineStr">
         <is>
@@ -26878,10 +26878,10 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D553" t="n">
-        <v>48431</v>
+        <v>38431</v>
       </c>
       <c r="E553" t="inlineStr">
         <is>
@@ -26926,10 +26926,10 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D554" t="n">
-        <v>81107</v>
+        <v>71107</v>
       </c>
       <c r="E554" t="inlineStr">
         <is>
@@ -26974,10 +26974,10 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D555" t="n">
-        <v>392558</v>
+        <v>385480</v>
       </c>
       <c r="E555" t="inlineStr">
         <is>
@@ -27022,10 +27022,10 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>31317</v>
+        <v>31001</v>
       </c>
       <c r="D556" t="n">
-        <v>58431062</v>
+        <v>56203132</v>
       </c>
       <c r="E556" t="inlineStr">
         <is>
@@ -27118,10 +27118,10 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>37814</v>
+        <v>37409</v>
       </c>
       <c r="D558" t="n">
-        <v>70214353</v>
+        <v>67765394</v>
       </c>
       <c r="E558" t="inlineStr">
         <is>
@@ -27262,10 +27262,10 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D561" t="n">
-        <v>24133</v>
+        <v>14133</v>
       </c>
       <c r="E561" t="inlineStr">
         <is>
@@ -27310,10 +27310,10 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="D562" t="n">
-        <v>2279650</v>
+        <v>2247936</v>
       </c>
       <c r="E562" t="inlineStr">
         <is>
@@ -27358,10 +27358,10 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>81303</v>
+        <v>80398</v>
       </c>
       <c r="D563" t="n">
-        <v>123968560</v>
+        <v>120501120</v>
       </c>
       <c r="E563" t="inlineStr">
         <is>
@@ -27550,10 +27550,10 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D567" t="n">
-        <v>442078</v>
+        <v>403055</v>
       </c>
       <c r="E567" t="inlineStr">
         <is>
@@ -27598,10 +27598,10 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>23931</v>
+        <v>23638</v>
       </c>
       <c r="D568" t="n">
-        <v>45191807</v>
+        <v>43148486</v>
       </c>
       <c r="E568" t="inlineStr">
         <is>
@@ -27646,10 +27646,10 @@
         </is>
       </c>
       <c r="C569" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D569" t="n">
-        <v>64443</v>
+        <v>54443</v>
       </c>
       <c r="E569" t="inlineStr">
         <is>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>27758</v>
+        <v>27429</v>
       </c>
       <c r="D570" t="n">
-        <v>51277371</v>
+        <v>49149598</v>
       </c>
       <c r="E570" t="inlineStr">
         <is>
@@ -27742,10 +27742,10 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D571" t="n">
-        <v>448123</v>
+        <v>436021</v>
       </c>
       <c r="E571" t="inlineStr">
         <is>
@@ -27790,10 +27790,10 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="D572" t="n">
-        <v>1783320</v>
+        <v>1732372</v>
       </c>
       <c r="E572" t="inlineStr">
         <is>
@@ -27838,10 +27838,10 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>62169</v>
+        <v>61408</v>
       </c>
       <c r="D573" t="n">
-        <v>97366168</v>
+        <v>94356432</v>
       </c>
       <c r="E573" t="inlineStr">
         <is>
@@ -27982,10 +27982,10 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D576" t="n">
-        <v>418868</v>
+        <v>384951</v>
       </c>
       <c r="E576" t="inlineStr">
         <is>
@@ -28030,10 +28030,10 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>18306</v>
+        <v>18087</v>
       </c>
       <c r="D577" t="n">
-        <v>34038041</v>
+        <v>32485606</v>
       </c>
       <c r="E577" t="inlineStr">
         <is>
@@ -28078,10 +28078,10 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D578" t="n">
-        <v>92987</v>
+        <v>82987</v>
       </c>
       <c r="E578" t="inlineStr">
         <is>
@@ -28126,10 +28126,10 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>21626</v>
+        <v>21346</v>
       </c>
       <c r="D579" t="n">
-        <v>39585580</v>
+        <v>37868607</v>
       </c>
       <c r="E579" t="inlineStr">
         <is>
@@ -28174,10 +28174,10 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D580" t="n">
-        <v>294438</v>
+        <v>292938</v>
       </c>
       <c r="E580" t="inlineStr">
         <is>
@@ -28222,10 +28222,10 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="D581" t="n">
-        <v>810759</v>
+        <v>784565</v>
       </c>
       <c r="E581" t="inlineStr">
         <is>
@@ -28270,10 +28270,10 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>57153</v>
+        <v>56504</v>
       </c>
       <c r="D582" t="n">
-        <v>84170137</v>
+        <v>81916354</v>
       </c>
       <c r="E582" t="inlineStr">
         <is>
@@ -28414,10 +28414,10 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D585" t="n">
-        <v>370789</v>
+        <v>331349</v>
       </c>
       <c r="E585" t="inlineStr">
         <is>
@@ -28462,10 +28462,10 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>21130</v>
+        <v>20874</v>
       </c>
       <c r="D586" t="n">
-        <v>40100771</v>
+        <v>38252155</v>
       </c>
       <c r="E586" t="inlineStr">
         <is>
@@ -28558,10 +28558,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>18643</v>
+        <v>18372</v>
       </c>
       <c r="D588" t="n">
-        <v>35075532</v>
+        <v>33255953</v>
       </c>
       <c r="E588" t="inlineStr">
         <is>
@@ -28654,10 +28654,10 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D590" t="n">
-        <v>450641</v>
+        <v>443011</v>
       </c>
       <c r="E590" t="inlineStr">
         <is>
@@ -28702,10 +28702,10 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D591" t="n">
-        <v>920887</v>
+        <v>903962</v>
       </c>
       <c r="E591" t="inlineStr">
         <is>
@@ -28750,10 +28750,10 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>52919</v>
+        <v>52757</v>
       </c>
       <c r="D592" t="n">
-        <v>72594051</v>
+        <v>72119232</v>
       </c>
       <c r="E592" t="inlineStr">
         <is>
@@ -28846,10 +28846,10 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D594" t="n">
-        <v>72619</v>
+        <v>62619</v>
       </c>
       <c r="E594" t="inlineStr">
         <is>
@@ -29038,10 +29038,10 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>16090</v>
+        <v>16060</v>
       </c>
       <c r="D598" t="n">
-        <v>24954548</v>
+        <v>24793760</v>
       </c>
       <c r="E598" t="inlineStr">
         <is>
@@ -29134,10 +29134,10 @@
         </is>
       </c>
       <c r="C600" t="n">
-        <v>4426</v>
+        <v>4416</v>
       </c>
       <c r="D600" t="n">
-        <v>6747281</v>
+        <v>6693402</v>
       </c>
       <c r="E600" t="inlineStr">
         <is>
@@ -29422,10 +29422,10 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>22343</v>
+        <v>22179</v>
       </c>
       <c r="D606" t="n">
-        <v>31731512</v>
+        <v>31191988</v>
       </c>
       <c r="E606" t="inlineStr">
         <is>
@@ -29614,10 +29614,10 @@
         </is>
       </c>
       <c r="C610" t="n">
-        <v>9438</v>
+        <v>9324</v>
       </c>
       <c r="D610" t="n">
-        <v>16594695</v>
+        <v>15847758</v>
       </c>
       <c r="E610" t="inlineStr">
         <is>
@@ -29710,10 +29710,10 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>6738</v>
+        <v>6671</v>
       </c>
       <c r="D612" t="n">
-        <v>11575198</v>
+        <v>11181777</v>
       </c>
       <c r="E612" t="inlineStr">
         <is>
@@ -29806,10 +29806,10 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D614" t="n">
-        <v>481434</v>
+        <v>471434</v>
       </c>
       <c r="E614" t="inlineStr">
         <is>
@@ -29854,10 +29854,10 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D615" t="n">
-        <v>656442</v>
+        <v>638175</v>
       </c>
       <c r="E615" t="inlineStr">
         <is>
@@ -29950,10 +29950,10 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>31357</v>
+        <v>31246</v>
       </c>
       <c r="D617" t="n">
-        <v>70497431</v>
+        <v>69637134</v>
       </c>
       <c r="E617" t="inlineStr">
         <is>
@@ -30046,10 +30046,10 @@
         </is>
       </c>
       <c r="C619" t="n">
-        <v>3133</v>
+        <v>3124</v>
       </c>
       <c r="D619" t="n">
-        <v>7015840</v>
+        <v>6944881</v>
       </c>
       <c r="E619" t="inlineStr">
         <is>
@@ -30094,10 +30094,10 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D620" t="n">
-        <v>920679</v>
+        <v>910679</v>
       </c>
       <c r="E620" t="inlineStr">
         <is>
@@ -30238,10 +30238,10 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D623" t="n">
-        <v>451087</v>
+        <v>441087</v>
       </c>
       <c r="E623" t="inlineStr">
         <is>
@@ -30286,10 +30286,10 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>27932</v>
+        <v>27538</v>
       </c>
       <c r="D624" t="n">
-        <v>38474768</v>
+        <v>37061320</v>
       </c>
       <c r="E624" t="inlineStr">
         <is>
@@ -30430,10 +30430,10 @@
         </is>
       </c>
       <c r="C627" t="n">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D627" t="n">
-        <v>516729</v>
+        <v>485229</v>
       </c>
       <c r="E627" t="inlineStr">
         <is>
@@ -30526,10 +30526,10 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>12062</v>
+        <v>11789</v>
       </c>
       <c r="D629" t="n">
-        <v>24554149</v>
+        <v>22428913</v>
       </c>
       <c r="E629" t="inlineStr">
         <is>
@@ -30622,10 +30622,10 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>4633</v>
+        <v>4532</v>
       </c>
       <c r="D631" t="n">
-        <v>9234854</v>
+        <v>8512583</v>
       </c>
       <c r="E631" t="inlineStr">
         <is>
@@ -30670,10 +30670,10 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D632" t="n">
-        <v>4725</v>
+        <v>3322</v>
       </c>
       <c r="E632" t="inlineStr">
         <is>
@@ -30718,10 +30718,10 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D633" t="n">
-        <v>638469</v>
+        <v>614034</v>
       </c>
       <c r="E633" t="inlineStr">
         <is>
@@ -30766,10 +30766,10 @@
         </is>
       </c>
       <c r="C634" t="n">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="D634" t="n">
-        <v>1156512</v>
+        <v>1104470</v>
       </c>
       <c r="E634" t="inlineStr">
         <is>
@@ -30862,10 +30862,10 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>18641</v>
+        <v>18358</v>
       </c>
       <c r="D636" t="n">
-        <v>25970912</v>
+        <v>24933656</v>
       </c>
       <c r="E636" t="inlineStr">
         <is>
@@ -31006,10 +31006,10 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D639" t="n">
-        <v>207587</v>
+        <v>197254</v>
       </c>
       <c r="E639" t="inlineStr">
         <is>
@@ -31054,10 +31054,10 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>7471</v>
+        <v>7311</v>
       </c>
       <c r="D640" t="n">
-        <v>14332323</v>
+        <v>13170544</v>
       </c>
       <c r="E640" t="inlineStr">
         <is>
@@ -31150,10 +31150,10 @@
         </is>
       </c>
       <c r="C642" t="n">
-        <v>3637</v>
+        <v>3568</v>
       </c>
       <c r="D642" t="n">
-        <v>6785609</v>
+        <v>6358567</v>
       </c>
       <c r="E642" t="inlineStr">
         <is>
@@ -31198,10 +31198,10 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D643" t="n">
-        <v>295500</v>
+        <v>292563</v>
       </c>
       <c r="E643" t="inlineStr">
         <is>
@@ -31246,10 +31246,10 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D644" t="n">
-        <v>479609</v>
+        <v>443198</v>
       </c>
       <c r="E644" t="inlineStr">
         <is>
@@ -31294,10 +31294,10 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>17352</v>
+        <v>17068</v>
       </c>
       <c r="D645" t="n">
-        <v>24342466</v>
+        <v>23129224</v>
       </c>
       <c r="E645" t="inlineStr">
         <is>
@@ -31390,10 +31390,10 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D647" t="n">
-        <v>84474</v>
+        <v>69330</v>
       </c>
       <c r="E647" t="inlineStr">
         <is>
@@ -31438,10 +31438,10 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D648" t="n">
-        <v>395817</v>
+        <v>365249</v>
       </c>
       <c r="E648" t="inlineStr">
         <is>
@@ -31486,10 +31486,10 @@
         </is>
       </c>
       <c r="C649" t="n">
-        <v>7000</v>
+        <v>6799</v>
       </c>
       <c r="D649" t="n">
-        <v>13885415</v>
+        <v>12316047</v>
       </c>
       <c r="E649" t="inlineStr">
         <is>
@@ -31582,10 +31582,10 @@
         </is>
       </c>
       <c r="C651" t="n">
-        <v>1644</v>
+        <v>1597</v>
       </c>
       <c r="D651" t="n">
-        <v>3223215</v>
+        <v>2891492</v>
       </c>
       <c r="E651" t="inlineStr">
         <is>
@@ -31678,10 +31678,10 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D653" t="n">
-        <v>522220</v>
+        <v>502660</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
@@ -31726,10 +31726,10 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D654" t="n">
-        <v>610707</v>
+        <v>584963</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
@@ -31774,10 +31774,10 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>9433</v>
+        <v>9305</v>
       </c>
       <c r="D655" t="n">
-        <v>12971879</v>
+        <v>12521753</v>
       </c>
       <c r="E655" t="inlineStr">
         <is>
@@ -31822,10 +31822,10 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D656" t="n">
-        <v>21878</v>
+        <v>13484</v>
       </c>
       <c r="E656" t="inlineStr">
         <is>
@@ -32014,10 +32014,10 @@
         </is>
       </c>
       <c r="C660" t="n">
-        <v>3298</v>
+        <v>3233</v>
       </c>
       <c r="D660" t="n">
-        <v>6175722</v>
+        <v>5674129</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
@@ -32110,10 +32110,10 @@
         </is>
       </c>
       <c r="C662" t="n">
-        <v>1131</v>
+        <v>1105</v>
       </c>
       <c r="D662" t="n">
-        <v>2193814</v>
+        <v>1985192</v>
       </c>
       <c r="E662" t="inlineStr">
         <is>
@@ -32206,10 +32206,10 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D664" t="n">
-        <v>283102</v>
+        <v>279498</v>
       </c>
       <c r="E664" t="inlineStr">
         <is>
@@ -32254,10 +32254,10 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>36630</v>
+        <v>36143</v>
       </c>
       <c r="D665" t="n">
-        <v>49418778</v>
+        <v>47734677</v>
       </c>
       <c r="E665" t="inlineStr">
         <is>
@@ -32446,10 +32446,10 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D669" t="n">
-        <v>423948</v>
+        <v>392448</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
@@ -32494,10 +32494,10 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>14626</v>
+        <v>14355</v>
       </c>
       <c r="D670" t="n">
-        <v>28668704</v>
+        <v>26589703</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -32590,10 +32590,10 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>6717</v>
+        <v>6573</v>
       </c>
       <c r="D672" t="n">
-        <v>13255553</v>
+        <v>12261410</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
@@ -32686,10 +32686,10 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D674" t="n">
-        <v>407120</v>
+        <v>393355</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
@@ -32734,10 +32734,10 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="D675" t="n">
-        <v>1427484</v>
+        <v>1389759</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
@@ -32782,10 +32782,10 @@
         </is>
       </c>
       <c r="C676" t="n">
-        <v>14198</v>
+        <v>13999</v>
       </c>
       <c r="D676" t="n">
-        <v>18554775</v>
+        <v>17871135</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -32926,10 +32926,10 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D679" t="n">
-        <v>98142</v>
+        <v>89217</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
@@ -33022,10 +33022,10 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>4661</v>
+        <v>4570</v>
       </c>
       <c r="D681" t="n">
-        <v>8661546</v>
+        <v>7964975</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
@@ -33070,10 +33070,10 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D682" t="n">
-        <v>33666</v>
+        <v>23666</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -33118,10 +33118,10 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>1450</v>
+        <v>1422</v>
       </c>
       <c r="D683" t="n">
-        <v>2845679</v>
+        <v>2629184</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
@@ -33214,10 +33214,10 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D685" t="n">
-        <v>151680</v>
+        <v>141680</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -33262,10 +33262,10 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D686" t="n">
-        <v>550286</v>
+        <v>545750</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
@@ -33310,10 +33310,10 @@
         </is>
       </c>
       <c r="C687" t="n">
-        <v>34303</v>
+        <v>33851</v>
       </c>
       <c r="D687" t="n">
-        <v>45626700</v>
+        <v>44208569</v>
       </c>
       <c r="E687" t="inlineStr">
         <is>
@@ -33502,10 +33502,10 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>13625</v>
+        <v>13293</v>
       </c>
       <c r="D691" t="n">
-        <v>26541310</v>
+        <v>24131518</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
@@ -33598,10 +33598,10 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>3972</v>
+        <v>3874</v>
       </c>
       <c r="D693" t="n">
-        <v>7746616</v>
+        <v>7028747</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
@@ -33694,10 +33694,10 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D695" t="n">
-        <v>870738</v>
+        <v>850394</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
@@ -33742,10 +33742,10 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="D696" t="n">
-        <v>1015919</v>
+        <v>977550</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -33790,10 +33790,10 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>9332</v>
+        <v>9212</v>
       </c>
       <c r="D697" t="n">
-        <v>12690432</v>
+        <v>12229475</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -33838,10 +33838,10 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D698" t="n">
-        <v>155768</v>
+        <v>134268</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -33886,10 +33886,10 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>3319</v>
+        <v>3261</v>
       </c>
       <c r="D699" t="n">
-        <v>6125972</v>
+        <v>5682355</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
@@ -33934,10 +33934,10 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D700" t="n">
-        <v>13863</v>
+        <v>12363</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -33982,10 +33982,10 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>1697</v>
+        <v>1668</v>
       </c>
       <c r="D701" t="n">
-        <v>3051581</v>
+        <v>2860184</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
@@ -34030,10 +34030,10 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D702" t="n">
-        <v>437601</v>
+        <v>436401</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
@@ -34126,10 +34126,10 @@
         </is>
       </c>
       <c r="C704" t="n">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D704" t="n">
-        <v>420392</v>
+        <v>390195</v>
       </c>
       <c r="E704" t="inlineStr">
         <is>
@@ -34174,10 +34174,10 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>4740</v>
+        <v>4671</v>
       </c>
       <c r="D705" t="n">
-        <v>6076948</v>
+        <v>5867929</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
@@ -34318,10 +34318,10 @@
         </is>
       </c>
       <c r="C708" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D708" t="n">
-        <v>79242</v>
+        <v>58576</v>
       </c>
       <c r="E708" t="inlineStr">
         <is>
@@ -34366,10 +34366,10 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>997</v>
+        <v>977</v>
       </c>
       <c r="D709" t="n">
-        <v>1793663</v>
+        <v>1673140</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
@@ -34462,10 +34462,10 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="D711" t="n">
-        <v>927953</v>
+        <v>870089</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
@@ -34510,10 +34510,10 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D712" t="n">
-        <v>210435</v>
+        <v>206545</v>
       </c>
       <c r="E712" t="inlineStr">
         <is>
@@ -34558,10 +34558,10 @@
         </is>
       </c>
       <c r="C713" t="n">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D713" t="n">
-        <v>314019</v>
+        <v>297280</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
@@ -34606,10 +34606,10 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>11596</v>
+        <v>11435</v>
       </c>
       <c r="D714" t="n">
-        <v>15933272</v>
+        <v>15376374</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
@@ -34750,10 +34750,10 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D717" t="n">
-        <v>82359</v>
+        <v>80859</v>
       </c>
       <c r="E717" t="inlineStr">
         <is>
@@ -34798,10 +34798,10 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>4493</v>
+        <v>4388</v>
       </c>
       <c r="D718" t="n">
-        <v>8700193</v>
+        <v>7891854</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
@@ -34846,10 +34846,10 @@
         </is>
       </c>
       <c r="C719" t="n">
-        <v>1023</v>
+        <v>998</v>
       </c>
       <c r="D719" t="n">
-        <v>2013555</v>
+        <v>1818098</v>
       </c>
       <c r="E719" t="inlineStr">
         <is>
@@ -34990,10 +34990,10 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D722" t="n">
-        <v>606041</v>
+        <v>595132</v>
       </c>
       <c r="E722" t="inlineStr">
         <is>
@@ -35038,10 +35038,10 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>23927</v>
+        <v>23612</v>
       </c>
       <c r="D723" t="n">
-        <v>31660735</v>
+        <v>30628552</v>
       </c>
       <c r="E723" t="inlineStr">
         <is>
@@ -35134,10 +35134,10 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D725" t="n">
-        <v>89652</v>
+        <v>81956</v>
       </c>
       <c r="E725" t="inlineStr">
         <is>
@@ -35182,10 +35182,10 @@
         </is>
       </c>
       <c r="C726" t="n">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D726" t="n">
-        <v>286906</v>
+        <v>267701</v>
       </c>
       <c r="E726" t="inlineStr">
         <is>
@@ -35230,10 +35230,10 @@
         </is>
       </c>
       <c r="C727" t="n">
-        <v>7328</v>
+        <v>7170</v>
       </c>
       <c r="D727" t="n">
-        <v>13832404</v>
+        <v>12720638</v>
       </c>
       <c r="E727" t="inlineStr">
         <is>
@@ -35326,10 +35326,10 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>3034</v>
+        <v>2954</v>
       </c>
       <c r="D729" t="n">
-        <v>5887954</v>
+        <v>5297288</v>
       </c>
       <c r="E729" t="inlineStr">
         <is>
@@ -35422,10 +35422,10 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D731" t="n">
-        <v>613109</v>
+        <v>603109</v>
       </c>
       <c r="E731" t="inlineStr">
         <is>
@@ -35518,10 +35518,10 @@
         </is>
       </c>
       <c r="C733" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D733" t="n">
-        <v>663566</v>
+        <v>642057</v>
       </c>
       <c r="E733" t="inlineStr">
         <is>
@@ -35614,10 +35614,10 @@
         </is>
       </c>
       <c r="C735" t="n">
-        <v>94054</v>
+        <v>92990</v>
       </c>
       <c r="D735" t="n">
-        <v>129407142</v>
+        <v>126059215</v>
       </c>
       <c r="E735" t="inlineStr">
         <is>
@@ -35806,10 +35806,10 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D739" t="n">
-        <v>350142</v>
+        <v>332043</v>
       </c>
       <c r="E739" t="inlineStr">
         <is>
@@ -35854,10 +35854,10 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>34485</v>
+        <v>33840</v>
       </c>
       <c r="D740" t="n">
-        <v>66339626</v>
+        <v>61537909</v>
       </c>
       <c r="E740" t="inlineStr">
         <is>
@@ -35998,10 +35998,10 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>17802</v>
+        <v>17498</v>
       </c>
       <c r="D743" t="n">
-        <v>33199646</v>
+        <v>31132949</v>
       </c>
       <c r="E743" t="inlineStr">
         <is>
@@ -36094,10 +36094,10 @@
         </is>
       </c>
       <c r="C745" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D745" t="n">
-        <v>9288</v>
+        <v>8948</v>
       </c>
       <c r="E745" t="inlineStr">
         <is>
@@ -36142,10 +36142,10 @@
         </is>
       </c>
       <c r="C746" t="n">
-        <v>2435</v>
+        <v>2415</v>
       </c>
       <c r="D746" t="n">
-        <v>4283860</v>
+        <v>4162684</v>
       </c>
       <c r="E746" t="inlineStr">
         <is>
@@ -36238,10 +36238,10 @@
         </is>
       </c>
       <c r="C748" t="n">
-        <v>1918</v>
+        <v>1906</v>
       </c>
       <c r="D748" t="n">
-        <v>3127400</v>
+        <v>3062073</v>
       </c>
       <c r="E748" t="inlineStr">
         <is>
@@ -36286,10 +36286,10 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>14206</v>
+        <v>14016</v>
       </c>
       <c r="D749" t="n">
-        <v>19196803</v>
+        <v>18560166</v>
       </c>
       <c r="E749" t="inlineStr">
         <is>
@@ -36334,10 +36334,10 @@
         </is>
       </c>
       <c r="C750" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D750" t="n">
-        <v>50181</v>
+        <v>40993</v>
       </c>
       <c r="E750" t="inlineStr">
         <is>
@@ -36382,10 +36382,10 @@
         </is>
       </c>
       <c r="C751" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D751" t="n">
-        <v>217867</v>
+        <v>204825</v>
       </c>
       <c r="E751" t="inlineStr">
         <is>
@@ -36430,10 +36430,10 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>5394</v>
+        <v>5293</v>
       </c>
       <c r="D752" t="n">
-        <v>10203664</v>
+        <v>9409038</v>
       </c>
       <c r="E752" t="inlineStr">
         <is>
@@ -36526,10 +36526,10 @@
         </is>
       </c>
       <c r="C754" t="n">
-        <v>2024</v>
+        <v>1983</v>
       </c>
       <c r="D754" t="n">
-        <v>3839763</v>
+        <v>3560534</v>
       </c>
       <c r="E754" t="inlineStr">
         <is>
@@ -36622,10 +36622,10 @@
         </is>
       </c>
       <c r="C756" t="n">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D756" t="n">
-        <v>654695</v>
+        <v>629105</v>
       </c>
       <c r="E756" t="inlineStr">
         <is>
@@ -36670,10 +36670,10 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>21689</v>
+        <v>21420</v>
       </c>
       <c r="D757" t="n">
-        <v>28340271</v>
+        <v>27627775</v>
       </c>
       <c r="E757" t="inlineStr">
         <is>
@@ -36718,10 +36718,10 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D758" t="n">
-        <v>36897</v>
+        <v>35619</v>
       </c>
       <c r="E758" t="inlineStr">
         <is>
@@ -36814,10 +36814,10 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D760" t="n">
-        <v>140230</v>
+        <v>120230</v>
       </c>
       <c r="E760" t="inlineStr">
         <is>
@@ -36862,10 +36862,10 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>8736</v>
+        <v>8554</v>
       </c>
       <c r="D761" t="n">
-        <v>16593039</v>
+        <v>15252773</v>
       </c>
       <c r="E761" t="inlineStr">
         <is>
@@ -36958,10 +36958,10 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>2864</v>
+        <v>2813</v>
       </c>
       <c r="D763" t="n">
-        <v>5238691</v>
+        <v>4864498</v>
       </c>
       <c r="E763" t="inlineStr">
         <is>
@@ -37054,10 +37054,10 @@
         </is>
       </c>
       <c r="C765" t="n">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D765" t="n">
-        <v>516063</v>
+        <v>506502</v>
       </c>
       <c r="E765" t="inlineStr">
         <is>
@@ -37102,10 +37102,10 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D766" t="n">
-        <v>783617</v>
+        <v>753037</v>
       </c>
       <c r="E766" t="inlineStr">
         <is>
@@ -37198,10 +37198,10 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>14263</v>
+        <v>14063</v>
       </c>
       <c r="D768" t="n">
-        <v>19296825</v>
+        <v>18596145</v>
       </c>
       <c r="E768" t="inlineStr">
         <is>
@@ -37390,10 +37390,10 @@
         </is>
       </c>
       <c r="C772" t="n">
-        <v>5444</v>
+        <v>5343</v>
       </c>
       <c r="D772" t="n">
-        <v>10020071</v>
+        <v>9303414</v>
       </c>
       <c r="E772" t="inlineStr">
         <is>
@@ -37486,10 +37486,10 @@
         </is>
       </c>
       <c r="C774" t="n">
-        <v>2079</v>
+        <v>2038</v>
       </c>
       <c r="D774" t="n">
-        <v>3836254</v>
+        <v>3568344</v>
       </c>
       <c r="E774" t="inlineStr">
         <is>
@@ -37534,10 +37534,10 @@
         </is>
       </c>
       <c r="C775" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D775" t="n">
-        <v>351582</v>
+        <v>348697</v>
       </c>
       <c r="E775" t="inlineStr">
         <is>
@@ -37582,10 +37582,10 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D776" t="n">
-        <v>732523</v>
+        <v>716368</v>
       </c>
       <c r="E776" t="inlineStr">
         <is>
@@ -37630,10 +37630,10 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>36402</v>
+        <v>35997</v>
       </c>
       <c r="D777" t="n">
-        <v>47644752</v>
+        <v>46575034</v>
       </c>
       <c r="E777" t="inlineStr">
         <is>
@@ -37726,10 +37726,10 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D779" t="n">
-        <v>63849</v>
+        <v>60610</v>
       </c>
       <c r="E779" t="inlineStr">
         <is>
@@ -37870,10 +37870,10 @@
         </is>
       </c>
       <c r="C782" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D782" t="n">
-        <v>307372</v>
+        <v>267060</v>
       </c>
       <c r="E782" t="inlineStr">
         <is>
@@ -37918,10 +37918,10 @@
         </is>
       </c>
       <c r="C783" t="n">
-        <v>16456</v>
+        <v>16159</v>
       </c>
       <c r="D783" t="n">
-        <v>30855644</v>
+        <v>28728971</v>
       </c>
       <c r="E783" t="inlineStr">
         <is>
@@ -37966,10 +37966,10 @@
         </is>
       </c>
       <c r="C784" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D784" t="n">
-        <v>76139</v>
+        <v>56064</v>
       </c>
       <c r="E784" t="inlineStr">
         <is>
@@ -38014,10 +38014,10 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>5621</v>
+        <v>5506</v>
       </c>
       <c r="D785" t="n">
-        <v>10811922</v>
+        <v>10009937</v>
       </c>
       <c r="E785" t="inlineStr">
         <is>
@@ -38110,10 +38110,10 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D787" t="n">
-        <v>1252423</v>
+        <v>1229237</v>
       </c>
       <c r="E787" t="inlineStr">
         <is>
@@ -38158,10 +38158,10 @@
         </is>
       </c>
       <c r="C788" t="n">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="D788" t="n">
-        <v>1575548</v>
+        <v>1510022</v>
       </c>
       <c r="E788" t="inlineStr">
         <is>
@@ -38254,10 +38254,10 @@
         </is>
       </c>
       <c r="C790" t="n">
-        <v>15341</v>
+        <v>15141</v>
       </c>
       <c r="D790" t="n">
-        <v>21592468</v>
+        <v>20890719</v>
       </c>
       <c r="E790" t="inlineStr">
         <is>
@@ -38302,10 +38302,10 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D791" t="n">
-        <v>28166</v>
+        <v>18166</v>
       </c>
       <c r="E791" t="inlineStr">
         <is>
@@ -38350,10 +38350,10 @@
         </is>
       </c>
       <c r="C792" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D792" t="n">
-        <v>203585</v>
+        <v>183585</v>
       </c>
       <c r="E792" t="inlineStr">
         <is>
@@ -38398,10 +38398,10 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>5889</v>
+        <v>5774</v>
       </c>
       <c r="D793" t="n">
-        <v>10870104</v>
+        <v>9993254</v>
       </c>
       <c r="E793" t="inlineStr">
         <is>
@@ -38446,10 +38446,10 @@
         </is>
       </c>
       <c r="C794" t="n">
-        <v>1528</v>
+        <v>1501</v>
       </c>
       <c r="D794" t="n">
-        <v>2721981</v>
+        <v>2534513</v>
       </c>
       <c r="E794" t="inlineStr">
         <is>
@@ -38542,10 +38542,10 @@
         </is>
       </c>
       <c r="C796" t="n">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D796" t="n">
-        <v>871067</v>
+        <v>847048</v>
       </c>
       <c r="E796" t="inlineStr">
         <is>
@@ -38590,10 +38590,10 @@
         </is>
       </c>
       <c r="C797" t="n">
-        <v>8474</v>
+        <v>8375</v>
       </c>
       <c r="D797" t="n">
-        <v>10523612</v>
+        <v>10261154</v>
       </c>
       <c r="E797" t="inlineStr">
         <is>
@@ -38734,10 +38734,10 @@
         </is>
       </c>
       <c r="C800" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D800" t="n">
-        <v>70636</v>
+        <v>60636</v>
       </c>
       <c r="E800" t="inlineStr">
         <is>
@@ -38782,10 +38782,10 @@
         </is>
       </c>
       <c r="C801" t="n">
-        <v>2269</v>
+        <v>2227</v>
       </c>
       <c r="D801" t="n">
-        <v>4265774</v>
+        <v>3979369</v>
       </c>
       <c r="E801" t="inlineStr">
         <is>
@@ -38830,10 +38830,10 @@
         </is>
       </c>
       <c r="C802" t="n">
-        <v>1378</v>
+        <v>1354</v>
       </c>
       <c r="D802" t="n">
-        <v>2652050</v>
+        <v>2473397</v>
       </c>
       <c r="E802" t="inlineStr">
         <is>
@@ -38926,10 +38926,10 @@
         </is>
       </c>
       <c r="C804" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D804" t="n">
-        <v>341888</v>
+        <v>341158</v>
       </c>
       <c r="E804" t="inlineStr">
         <is>
@@ -38974,10 +38974,10 @@
         </is>
       </c>
       <c r="C805" t="n">
-        <v>20784</v>
+        <v>20552</v>
       </c>
       <c r="D805" t="n">
-        <v>27269847</v>
+        <v>26528952</v>
       </c>
       <c r="E805" t="inlineStr">
         <is>
@@ -39118,10 +39118,10 @@
         </is>
       </c>
       <c r="C808" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D808" t="n">
-        <v>117533</v>
+        <v>97190</v>
       </c>
       <c r="E808" t="inlineStr">
         <is>
@@ -39214,10 +39214,10 @@
         </is>
       </c>
       <c r="C810" t="n">
-        <v>7141</v>
+        <v>7001</v>
       </c>
       <c r="D810" t="n">
-        <v>13472073</v>
+        <v>12417145</v>
       </c>
       <c r="E810" t="inlineStr">
         <is>
@@ -39262,10 +39262,10 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D811" t="n">
-        <v>26000</v>
+        <v>16000</v>
       </c>
       <c r="E811" t="inlineStr">
         <is>
@@ -39310,10 +39310,10 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>4472</v>
+        <v>4386</v>
       </c>
       <c r="D812" t="n">
-        <v>8413921</v>
+        <v>7766465</v>
       </c>
       <c r="E812" t="inlineStr">
         <is>
@@ -39502,10 +39502,10 @@
         </is>
       </c>
       <c r="C816" t="n">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D816" t="n">
-        <v>663673</v>
+        <v>654437</v>
       </c>
       <c r="E816" t="inlineStr">
         <is>
@@ -39550,10 +39550,10 @@
         </is>
       </c>
       <c r="C817" t="n">
-        <v>14319</v>
+        <v>14148</v>
       </c>
       <c r="D817" t="n">
-        <v>19362539</v>
+        <v>18784723</v>
       </c>
       <c r="E817" t="inlineStr">
         <is>
@@ -39742,10 +39742,10 @@
         </is>
       </c>
       <c r="C821" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D821" t="n">
-        <v>194575</v>
+        <v>189315</v>
       </c>
       <c r="E821" t="inlineStr">
         <is>
@@ -39790,10 +39790,10 @@
         </is>
       </c>
       <c r="C822" t="n">
-        <v>5081</v>
+        <v>5001</v>
       </c>
       <c r="D822" t="n">
-        <v>9520817</v>
+        <v>8918911</v>
       </c>
       <c r="E822" t="inlineStr">
         <is>
@@ -39886,10 +39886,10 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>1687</v>
+        <v>1655</v>
       </c>
       <c r="D824" t="n">
-        <v>3279530</v>
+        <v>3066481</v>
       </c>
       <c r="E824" t="inlineStr">
         <is>
@@ -39982,10 +39982,10 @@
         </is>
       </c>
       <c r="C826" t="n">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D826" t="n">
-        <v>830560</v>
+        <v>827278</v>
       </c>
       <c r="E826" t="inlineStr">
         <is>
@@ -40030,10 +40030,10 @@
         </is>
       </c>
       <c r="C827" t="n">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D827" t="n">
-        <v>539518</v>
+        <v>535354</v>
       </c>
       <c r="E827" t="inlineStr">
         <is>
@@ -40078,10 +40078,10 @@
         </is>
       </c>
       <c r="C828" t="n">
-        <v>41334</v>
+        <v>40818</v>
       </c>
       <c r="D828" t="n">
-        <v>54962634</v>
+        <v>53449669</v>
       </c>
       <c r="E828" t="inlineStr">
         <is>
@@ -40222,10 +40222,10 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D831" t="n">
-        <v>183412</v>
+        <v>164685</v>
       </c>
       <c r="E831" t="inlineStr">
         <is>
@@ -40270,10 +40270,10 @@
         </is>
       </c>
       <c r="C832" t="n">
-        <v>17115</v>
+        <v>16806</v>
       </c>
       <c r="D832" t="n">
-        <v>32687826</v>
+        <v>30418200</v>
       </c>
       <c r="E832" t="inlineStr">
         <is>
@@ -40318,10 +40318,10 @@
         </is>
       </c>
       <c r="C833" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D833" t="n">
-        <v>67753</v>
+        <v>57753</v>
       </c>
       <c r="E833" t="inlineStr">
         <is>
@@ -40366,10 +40366,10 @@
         </is>
       </c>
       <c r="C834" t="n">
-        <v>8009</v>
+        <v>7869</v>
       </c>
       <c r="D834" t="n">
-        <v>15031146</v>
+        <v>14031565</v>
       </c>
       <c r="E834" t="inlineStr">
         <is>
@@ -40414,10 +40414,10 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="D835" t="n">
-        <v>1020946</v>
+        <v>981480</v>
       </c>
       <c r="E835" t="inlineStr">
         <is>
@@ -40510,10 +40510,10 @@
         </is>
       </c>
       <c r="C837" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D837" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="E837" t="inlineStr">
         <is>
@@ -40558,10 +40558,10 @@
         </is>
       </c>
       <c r="C838" t="n">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="D838" t="n">
-        <v>1691073</v>
+        <v>1660597</v>
       </c>
       <c r="E838" t="inlineStr">
         <is>
@@ -40606,10 +40606,10 @@
         </is>
       </c>
       <c r="C839" t="n">
-        <v>9658</v>
+        <v>9519</v>
       </c>
       <c r="D839" t="n">
-        <v>12880710</v>
+        <v>12421301</v>
       </c>
       <c r="E839" t="inlineStr">
         <is>
@@ -40894,10 +40894,10 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>3401</v>
+        <v>3341</v>
       </c>
       <c r="D845" t="n">
-        <v>6197524</v>
+        <v>5757741</v>
       </c>
       <c r="E845" t="inlineStr">
         <is>
@@ -40942,10 +40942,10 @@
         </is>
       </c>
       <c r="C846" t="n">
-        <v>1549</v>
+        <v>1515</v>
       </c>
       <c r="D846" t="n">
-        <v>2864586</v>
+        <v>2627407</v>
       </c>
       <c r="E846" t="inlineStr">
         <is>
@@ -40990,10 +40990,10 @@
         </is>
       </c>
       <c r="C847" t="n">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D847" t="n">
-        <v>695021</v>
+        <v>675612</v>
       </c>
       <c r="E847" t="inlineStr">
         <is>
@@ -41038,10 +41038,10 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D848" t="n">
-        <v>609485</v>
+        <v>576749</v>
       </c>
       <c r="E848" t="inlineStr">
         <is>
@@ -41086,10 +41086,10 @@
         </is>
       </c>
       <c r="C849" t="n">
-        <v>76813</v>
+        <v>75947</v>
       </c>
       <c r="D849" t="n">
-        <v>105752435</v>
+        <v>102918566</v>
       </c>
       <c r="E849" t="inlineStr">
         <is>
@@ -41182,10 +41182,10 @@
         </is>
       </c>
       <c r="C851" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D851" t="n">
-        <v>37661</v>
+        <v>36161</v>
       </c>
       <c r="E851" t="inlineStr">
         <is>
@@ -41374,10 +41374,10 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>28162</v>
+        <v>27684</v>
       </c>
       <c r="D855" t="n">
-        <v>55394050</v>
+        <v>51869213</v>
       </c>
       <c r="E855" t="inlineStr">
         <is>
@@ -41422,10 +41422,10 @@
         </is>
       </c>
       <c r="C856" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D856" t="n">
-        <v>70998</v>
+        <v>60998</v>
       </c>
       <c r="E856" t="inlineStr">
         <is>
@@ -41518,10 +41518,10 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>17245</v>
+        <v>17015</v>
       </c>
       <c r="D858" t="n">
-        <v>32741833</v>
+        <v>31119292</v>
       </c>
       <c r="E858" t="inlineStr">
         <is>
@@ -41614,10 +41614,10 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D860" t="n">
-        <v>746109</v>
+        <v>736109</v>
       </c>
       <c r="E860" t="inlineStr">
         <is>
@@ -41758,10 +41758,10 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>2195</v>
+        <v>2170</v>
       </c>
       <c r="D863" t="n">
-        <v>3708613</v>
+        <v>3554132</v>
       </c>
       <c r="E863" t="inlineStr">
         <is>
@@ -41806,10 +41806,10 @@
         </is>
       </c>
       <c r="C864" t="n">
-        <v>14434</v>
+        <v>14276</v>
       </c>
       <c r="D864" t="n">
-        <v>20071008</v>
+        <v>19501684</v>
       </c>
       <c r="E864" t="inlineStr">
         <is>
@@ -41902,10 +41902,10 @@
         </is>
       </c>
       <c r="C866" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D866" t="n">
-        <v>81873</v>
+        <v>73743</v>
       </c>
       <c r="E866" t="inlineStr">
         <is>
@@ -41950,10 +41950,10 @@
         </is>
       </c>
       <c r="C867" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D867" t="n">
-        <v>156298</v>
+        <v>146298</v>
       </c>
       <c r="E867" t="inlineStr">
         <is>
@@ -41998,10 +41998,10 @@
         </is>
       </c>
       <c r="C868" t="n">
-        <v>5655</v>
+        <v>5567</v>
       </c>
       <c r="D868" t="n">
-        <v>11768597</v>
+        <v>11096848</v>
       </c>
       <c r="E868" t="inlineStr">
         <is>
@@ -42094,10 +42094,10 @@
         </is>
       </c>
       <c r="C870" t="n">
-        <v>1771</v>
+        <v>1737</v>
       </c>
       <c r="D870" t="n">
-        <v>3782801</v>
+        <v>3509446</v>
       </c>
       <c r="E870" t="inlineStr">
         <is>
@@ -42142,10 +42142,10 @@
         </is>
       </c>
       <c r="C871" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D871" t="n">
-        <v>66257</v>
+        <v>63929</v>
       </c>
       <c r="E871" t="inlineStr">
         <is>
@@ -42190,10 +42190,10 @@
         </is>
       </c>
       <c r="C872" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D872" t="n">
-        <v>247168</v>
+        <v>241774</v>
       </c>
       <c r="E872" t="inlineStr">
         <is>
@@ -42286,10 +42286,10 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D874" t="n">
-        <v>673129</v>
+        <v>653692</v>
       </c>
       <c r="E874" t="inlineStr">
         <is>
@@ -42334,10 +42334,10 @@
         </is>
       </c>
       <c r="C875" t="n">
-        <v>74170</v>
+        <v>73328</v>
       </c>
       <c r="D875" t="n">
-        <v>98314692</v>
+        <v>95836554</v>
       </c>
       <c r="E875" t="inlineStr">
         <is>
@@ -42382,10 +42382,10 @@
         </is>
       </c>
       <c r="C876" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D876" t="n">
-        <v>80930</v>
+        <v>80763</v>
       </c>
       <c r="E876" t="inlineStr">
         <is>
@@ -42574,10 +42574,10 @@
         </is>
       </c>
       <c r="C880" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D880" t="n">
-        <v>219135</v>
+        <v>216760</v>
       </c>
       <c r="E880" t="inlineStr">
         <is>
@@ -42622,10 +42622,10 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>28915</v>
+        <v>28457</v>
       </c>
       <c r="D881" t="n">
-        <v>56266875</v>
+        <v>53011324</v>
       </c>
       <c r="E881" t="inlineStr">
         <is>
@@ -42670,10 +42670,10 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D882" t="n">
-        <v>83666</v>
+        <v>73666</v>
       </c>
       <c r="E882" t="inlineStr">
         <is>
@@ -42718,10 +42718,10 @@
         </is>
       </c>
       <c r="C883" t="n">
-        <v>19175</v>
+        <v>18858</v>
       </c>
       <c r="D883" t="n">
-        <v>36777485</v>
+        <v>34519180</v>
       </c>
       <c r="E883" t="inlineStr">
         <is>
@@ -42814,10 +42814,10 @@
         </is>
       </c>
       <c r="C885" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D885" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="E885" t="inlineStr">
         <is>
@@ -42862,10 +42862,10 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>1057</v>
+        <v>1047</v>
       </c>
       <c r="D886" t="n">
-        <v>1736502</v>
+        <v>1678472</v>
       </c>
       <c r="E886" t="inlineStr">
         <is>
@@ -42910,10 +42910,10 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>2096</v>
+        <v>2085</v>
       </c>
       <c r="D887" t="n">
-        <v>3478474</v>
+        <v>3438536</v>
       </c>
       <c r="E887" t="inlineStr">
         <is>
@@ -43006,10 +43006,10 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>9667</v>
+        <v>9524</v>
       </c>
       <c r="D889" t="n">
-        <v>12614438</v>
+        <v>12178899</v>
       </c>
       <c r="E889" t="inlineStr">
         <is>
@@ -43054,10 +43054,10 @@
         </is>
       </c>
       <c r="C890" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D890" t="n">
-        <v>109185</v>
+        <v>102670</v>
       </c>
       <c r="E890" t="inlineStr">
         <is>
@@ -43102,10 +43102,10 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>3310</v>
+        <v>3239</v>
       </c>
       <c r="D891" t="n">
-        <v>6091947</v>
+        <v>5614684</v>
       </c>
       <c r="E891" t="inlineStr">
         <is>
@@ -43150,10 +43150,10 @@
         </is>
       </c>
       <c r="C892" t="n">
-        <v>1452</v>
+        <v>1399</v>
       </c>
       <c r="D892" t="n">
-        <v>2883242</v>
+        <v>2551531</v>
       </c>
       <c r="E892" t="inlineStr">
         <is>
@@ -43198,10 +43198,10 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D893" t="n">
-        <v>513417</v>
+        <v>494552</v>
       </c>
       <c r="E893" t="inlineStr">
         <is>
@@ -43246,10 +43246,10 @@
         </is>
       </c>
       <c r="C894" t="n">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D894" t="n">
-        <v>390548</v>
+        <v>377591</v>
       </c>
       <c r="E894" t="inlineStr">
         <is>
@@ -43294,10 +43294,10 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>4347</v>
+        <v>4306</v>
       </c>
       <c r="D895" t="n">
-        <v>6010612</v>
+        <v>5853595</v>
       </c>
       <c r="E895" t="inlineStr">
         <is>
@@ -43438,10 +43438,10 @@
         </is>
       </c>
       <c r="C898" t="n">
-        <v>1440</v>
+        <v>1415</v>
       </c>
       <c r="D898" t="n">
-        <v>2694418</v>
+        <v>2492524</v>
       </c>
       <c r="E898" t="inlineStr">
         <is>
@@ -43534,10 +43534,10 @@
         </is>
       </c>
       <c r="C900" t="n">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="D900" t="n">
-        <v>929862</v>
+        <v>851574</v>
       </c>
       <c r="E900" t="inlineStr">
         <is>
@@ -43678,10 +43678,10 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>27646</v>
+        <v>27364</v>
       </c>
       <c r="D903" t="n">
-        <v>36742742</v>
+        <v>35931423</v>
       </c>
       <c r="E903" t="inlineStr">
         <is>
@@ -43726,10 +43726,10 @@
         </is>
       </c>
       <c r="C904" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D904" t="n">
-        <v>53349</v>
+        <v>51517</v>
       </c>
       <c r="E904" t="inlineStr">
         <is>
@@ -43870,10 +43870,10 @@
         </is>
       </c>
       <c r="C907" t="n">
-        <v>9865</v>
+        <v>9696</v>
       </c>
       <c r="D907" t="n">
-        <v>18143297</v>
+        <v>17043913</v>
       </c>
       <c r="E907" t="inlineStr">
         <is>
@@ -43918,10 +43918,10 @@
         </is>
       </c>
       <c r="C908" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D908" t="n">
-        <v>40499</v>
+        <v>30499</v>
       </c>
       <c r="E908" t="inlineStr">
         <is>
@@ -43966,10 +43966,10 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>6231</v>
+        <v>6122</v>
       </c>
       <c r="D909" t="n">
-        <v>12058945</v>
+        <v>11323962</v>
       </c>
       <c r="E909" t="inlineStr">
         <is>
@@ -44062,10 +44062,10 @@
         </is>
       </c>
       <c r="C911" t="n">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D911" t="n">
-        <v>702050</v>
+        <v>689850</v>
       </c>
       <c r="E911" t="inlineStr">
         <is>
@@ -44110,10 +44110,10 @@
         </is>
       </c>
       <c r="C912" t="n">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="D912" t="n">
-        <v>1157719</v>
+        <v>1122318</v>
       </c>
       <c r="E912" t="inlineStr">
         <is>
@@ -44206,10 +44206,10 @@
         </is>
       </c>
       <c r="C914" t="n">
-        <v>18219</v>
+        <v>17978</v>
       </c>
       <c r="D914" t="n">
-        <v>23599637</v>
+        <v>22840383</v>
       </c>
       <c r="E914" t="inlineStr">
         <is>
@@ -44350,10 +44350,10 @@
         </is>
       </c>
       <c r="C917" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D917" t="n">
-        <v>126473</v>
+        <v>116473</v>
       </c>
       <c r="E917" t="inlineStr">
         <is>
@@ -44398,10 +44398,10 @@
         </is>
       </c>
       <c r="C918" t="n">
-        <v>6665</v>
+        <v>6560</v>
       </c>
       <c r="D918" t="n">
-        <v>12071950</v>
+        <v>11311306</v>
       </c>
       <c r="E918" t="inlineStr">
         <is>
@@ -44494,10 +44494,10 @@
         </is>
       </c>
       <c r="C920" t="n">
-        <v>3125</v>
+        <v>3077</v>
       </c>
       <c r="D920" t="n">
-        <v>5697806</v>
+        <v>5372277</v>
       </c>
       <c r="E920" t="inlineStr">
         <is>
@@ -44590,10 +44590,10 @@
         </is>
       </c>
       <c r="C922" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D922" t="n">
-        <v>389677</v>
+        <v>379677</v>
       </c>
       <c r="E922" t="inlineStr">
         <is>
@@ -44638,10 +44638,10 @@
         </is>
       </c>
       <c r="C923" t="n">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D923" t="n">
-        <v>747308</v>
+        <v>723403</v>
       </c>
       <c r="E923" t="inlineStr">
         <is>
@@ -44686,10 +44686,10 @@
         </is>
       </c>
       <c r="C924" t="n">
-        <v>12230</v>
+        <v>12083</v>
       </c>
       <c r="D924" t="n">
-        <v>16352566</v>
+        <v>15877533</v>
       </c>
       <c r="E924" t="inlineStr">
         <is>
@@ -44830,10 +44830,10 @@
         </is>
       </c>
       <c r="C927" t="n">
-        <v>4281</v>
+        <v>4208</v>
       </c>
       <c r="D927" t="n">
-        <v>7967664</v>
+        <v>7423169</v>
       </c>
       <c r="E927" t="inlineStr">
         <is>
@@ -44878,10 +44878,10 @@
         </is>
       </c>
       <c r="C928" t="n">
-        <v>1989</v>
+        <v>1955</v>
       </c>
       <c r="D928" t="n">
-        <v>3705275</v>
+        <v>3505364</v>
       </c>
       <c r="E928" t="inlineStr">
         <is>
@@ -44926,10 +44926,10 @@
         </is>
       </c>
       <c r="C929" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D929" t="n">
-        <v>238013</v>
+        <v>229380</v>
       </c>
       <c r="E929" t="inlineStr">
         <is>
@@ -44974,10 +44974,10 @@
         </is>
       </c>
       <c r="C930" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D930" t="n">
-        <v>455816</v>
+        <v>436455</v>
       </c>
       <c r="E930" t="inlineStr">
         <is>
@@ -45022,10 +45022,10 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>56363</v>
+        <v>55700</v>
       </c>
       <c r="D931" t="n">
-        <v>77196613</v>
+        <v>74980067</v>
       </c>
       <c r="E931" t="inlineStr">
         <is>
@@ -45166,10 +45166,10 @@
         </is>
       </c>
       <c r="C934" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D934" t="n">
-        <v>433865</v>
+        <v>392365</v>
       </c>
       <c r="E934" t="inlineStr">
         <is>
@@ -45262,10 +45262,10 @@
         </is>
       </c>
       <c r="C936" t="n">
-        <v>27437</v>
+        <v>26873</v>
       </c>
       <c r="D936" t="n">
-        <v>52807605</v>
+        <v>48568602</v>
       </c>
       <c r="E936" t="inlineStr">
         <is>
@@ -45358,10 +45358,10 @@
         </is>
       </c>
       <c r="C938" t="n">
-        <v>8181</v>
+        <v>8012</v>
       </c>
       <c r="D938" t="n">
-        <v>15572920</v>
+        <v>14391461</v>
       </c>
       <c r="E938" t="inlineStr">
         <is>
@@ -45406,10 +45406,10 @@
         </is>
       </c>
       <c r="C939" t="n">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="D939" t="n">
-        <v>1079708</v>
+        <v>1042883</v>
       </c>
       <c r="E939" t="inlineStr">
         <is>
@@ -45502,10 +45502,10 @@
         </is>
       </c>
       <c r="C941" t="n">
-        <v>1373</v>
+        <v>1361</v>
       </c>
       <c r="D941" t="n">
-        <v>2219178</v>
+        <v>2160692</v>
       </c>
       <c r="E941" t="inlineStr">
         <is>
@@ -45550,10 +45550,10 @@
         </is>
       </c>
       <c r="C942" t="n">
-        <v>26905</v>
+        <v>26577</v>
       </c>
       <c r="D942" t="n">
-        <v>36890010</v>
+        <v>35750805</v>
       </c>
       <c r="E942" t="inlineStr">
         <is>
@@ -45742,10 +45742,10 @@
         </is>
       </c>
       <c r="C946" t="n">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D946" t="n">
-        <v>338624</v>
+        <v>307105</v>
       </c>
       <c r="E946" t="inlineStr">
         <is>
@@ -45790,10 +45790,10 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>12767</v>
+        <v>12521</v>
       </c>
       <c r="D947" t="n">
-        <v>24465686</v>
+        <v>22568257</v>
       </c>
       <c r="E947" t="inlineStr">
         <is>
@@ -45886,10 +45886,10 @@
         </is>
       </c>
       <c r="C949" t="n">
-        <v>3128</v>
+        <v>3063</v>
       </c>
       <c r="D949" t="n">
-        <v>6061299</v>
+        <v>5611284</v>
       </c>
       <c r="E949" t="inlineStr">
         <is>
@@ -45982,10 +45982,10 @@
         </is>
       </c>
       <c r="C951" t="n">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D951" t="n">
-        <v>1100452</v>
+        <v>1088952</v>
       </c>
       <c r="E951" t="inlineStr">
         <is>
@@ -46030,10 +46030,10 @@
         </is>
       </c>
       <c r="C952" t="n">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="D952" t="n">
-        <v>1401639</v>
+        <v>1378627</v>
       </c>
       <c r="E952" t="inlineStr">
         <is>
@@ -46078,10 +46078,10 @@
         </is>
       </c>
       <c r="C953" t="n">
-        <v>8839</v>
+        <v>8730</v>
       </c>
       <c r="D953" t="n">
-        <v>12022824</v>
+        <v>11632760</v>
       </c>
       <c r="E953" t="inlineStr">
         <is>
@@ -46270,10 +46270,10 @@
         </is>
       </c>
       <c r="C957" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D957" t="n">
-        <v>159338</v>
+        <v>147939</v>
       </c>
       <c r="E957" t="inlineStr">
         <is>
@@ -46318,10 +46318,10 @@
         </is>
       </c>
       <c r="C958" t="n">
-        <v>3929</v>
+        <v>3853</v>
       </c>
       <c r="D958" t="n">
-        <v>7376824</v>
+        <v>6785660</v>
       </c>
       <c r="E958" t="inlineStr">
         <is>
@@ -46366,10 +46366,10 @@
         </is>
       </c>
       <c r="C959" t="n">
-        <v>878</v>
+        <v>862</v>
       </c>
       <c r="D959" t="n">
-        <v>1647811</v>
+        <v>1507283</v>
       </c>
       <c r="E959" t="inlineStr">
         <is>
@@ -46462,10 +46462,10 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D961" t="n">
-        <v>392096</v>
+        <v>389951</v>
       </c>
       <c r="E961" t="inlineStr">
         <is>
@@ -46510,10 +46510,10 @@
         </is>
       </c>
       <c r="C962" t="n">
-        <v>16302</v>
+        <v>16078</v>
       </c>
       <c r="D962" t="n">
-        <v>22112347</v>
+        <v>21310522</v>
       </c>
       <c r="E962" t="inlineStr">
         <is>
@@ -46654,10 +46654,10 @@
         </is>
       </c>
       <c r="C965" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D965" t="n">
-        <v>153610</v>
+        <v>146709</v>
       </c>
       <c r="E965" t="inlineStr">
         <is>
@@ -46702,10 +46702,10 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>6842</v>
+        <v>6699</v>
       </c>
       <c r="D966" t="n">
-        <v>12951113</v>
+        <v>11921165</v>
       </c>
       <c r="E966" t="inlineStr">
         <is>
@@ -46798,10 +46798,10 @@
         </is>
       </c>
       <c r="C968" t="n">
-        <v>1898</v>
+        <v>1859</v>
       </c>
       <c r="D968" t="n">
-        <v>3381840</v>
+        <v>3150090</v>
       </c>
       <c r="E968" t="inlineStr">
         <is>
@@ -46846,10 +46846,10 @@
         </is>
       </c>
       <c r="C969" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D969" t="n">
-        <v>9932</v>
+        <v>6738</v>
       </c>
       <c r="E969" t="inlineStr">
         <is>
@@ -46894,10 +46894,10 @@
         </is>
       </c>
       <c r="C970" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D970" t="n">
-        <v>246064</v>
+        <v>227071</v>
       </c>
       <c r="E970" t="inlineStr">
         <is>
@@ -46990,10 +46990,10 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D972" t="n">
-        <v>606330</v>
+        <v>592043</v>
       </c>
       <c r="E972" t="inlineStr">
         <is>
@@ -47038,10 +47038,10 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>23847</v>
+        <v>23512</v>
       </c>
       <c r="D973" t="n">
-        <v>31815342</v>
+        <v>30742725</v>
       </c>
       <c r="E973" t="inlineStr">
         <is>
@@ -47134,10 +47134,10 @@
         </is>
       </c>
       <c r="C975" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D975" t="n">
-        <v>44204</v>
+        <v>38461</v>
       </c>
       <c r="E975" t="inlineStr">
         <is>
@@ -47230,10 +47230,10 @@
         </is>
       </c>
       <c r="C977" t="n">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D977" t="n">
-        <v>417603</v>
+        <v>344104</v>
       </c>
       <c r="E977" t="inlineStr">
         <is>
@@ -47278,10 +47278,10 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>12875</v>
+        <v>12605</v>
       </c>
       <c r="D978" t="n">
-        <v>24539836</v>
+        <v>22513644</v>
       </c>
       <c r="E978" t="inlineStr">
         <is>
@@ -47374,10 +47374,10 @@
         </is>
       </c>
       <c r="C980" t="n">
-        <v>2780</v>
+        <v>2733</v>
       </c>
       <c r="D980" t="n">
-        <v>5233003</v>
+        <v>4880766</v>
       </c>
       <c r="E980" t="inlineStr">
         <is>
@@ -47422,10 +47422,10 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D981" t="n">
-        <v>566809</v>
+        <v>557231</v>
       </c>
       <c r="E981" t="inlineStr">
         <is>
@@ -47470,10 +47470,10 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="D982" t="n">
-        <v>1018594</v>
+        <v>984207</v>
       </c>
       <c r="E982" t="inlineStr">
         <is>
@@ -47518,10 +47518,10 @@
         </is>
       </c>
       <c r="C983" t="n">
-        <v>10608</v>
+        <v>10496</v>
       </c>
       <c r="D983" t="n">
-        <v>14341030</v>
+        <v>13905990</v>
       </c>
       <c r="E983" t="inlineStr">
         <is>
@@ -47758,10 +47758,10 @@
         </is>
       </c>
       <c r="C988" t="n">
-        <v>4052</v>
+        <v>3969</v>
       </c>
       <c r="D988" t="n">
-        <v>7777060</v>
+        <v>7141919</v>
       </c>
       <c r="E988" t="inlineStr">
         <is>
@@ -47806,10 +47806,10 @@
         </is>
       </c>
       <c r="C989" t="n">
-        <v>1922</v>
+        <v>1887</v>
       </c>
       <c r="D989" t="n">
-        <v>3577060</v>
+        <v>3347385</v>
       </c>
       <c r="E989" t="inlineStr">
         <is>
@@ -47902,10 +47902,10 @@
         </is>
       </c>
       <c r="C991" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D991" t="n">
-        <v>245029</v>
+        <v>244379</v>
       </c>
       <c r="E991" t="inlineStr">
         <is>
@@ -47950,10 +47950,10 @@
         </is>
       </c>
       <c r="C992" t="n">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D992" t="n">
-        <v>473050</v>
+        <v>452954</v>
       </c>
       <c r="E992" t="inlineStr">
         <is>
@@ -47998,10 +47998,10 @@
         </is>
       </c>
       <c r="C993" t="n">
-        <v>90310</v>
+        <v>89160</v>
       </c>
       <c r="D993" t="n">
-        <v>128239662</v>
+        <v>124693892</v>
       </c>
       <c r="E993" t="inlineStr">
         <is>
@@ -48094,10 +48094,10 @@
         </is>
       </c>
       <c r="C995" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D995" t="n">
-        <v>164834</v>
+        <v>161277</v>
       </c>
       <c r="E995" t="inlineStr">
         <is>
@@ -48142,10 +48142,10 @@
         </is>
       </c>
       <c r="C996" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D996" t="n">
-        <v>32500</v>
+        <v>23750</v>
       </c>
       <c r="E996" t="inlineStr">
         <is>
@@ -48238,10 +48238,10 @@
         </is>
       </c>
       <c r="C998" t="n">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D998" t="n">
-        <v>743030</v>
+        <v>668920</v>
       </c>
       <c r="E998" t="inlineStr">
         <is>
@@ -48334,10 +48334,10 @@
         </is>
       </c>
       <c r="C1000" t="n">
-        <v>35345</v>
+        <v>34651</v>
       </c>
       <c r="D1000" t="n">
-        <v>73044914</v>
+        <v>67902843</v>
       </c>
       <c r="E1000" t="inlineStr">
         <is>
@@ -48382,10 +48382,10 @@
         </is>
       </c>
       <c r="C1001" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D1001" t="n">
-        <v>175901</v>
+        <v>155553</v>
       </c>
       <c r="E1001" t="inlineStr">
         <is>
@@ -48430,10 +48430,10 @@
         </is>
       </c>
       <c r="C1002" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1002" t="n">
-        <v>44500</v>
+        <v>34500</v>
       </c>
       <c r="E1002" t="inlineStr">
         <is>
@@ -48478,10 +48478,10 @@
         </is>
       </c>
       <c r="C1003" t="n">
-        <v>25670</v>
+        <v>25185</v>
       </c>
       <c r="D1003" t="n">
-        <v>51439740</v>
+        <v>48324591</v>
       </c>
       <c r="E1003" t="inlineStr">
         <is>
@@ -48574,10 +48574,10 @@
         </is>
       </c>
       <c r="C1005" t="n">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D1005" t="n">
-        <v>923092</v>
+        <v>899960</v>
       </c>
       <c r="E1005" t="inlineStr">
         <is>
@@ -48622,10 +48622,10 @@
         </is>
       </c>
       <c r="C1006" t="n">
-        <v>1436</v>
+        <v>1417</v>
       </c>
       <c r="D1006" t="n">
-        <v>2550598</v>
+        <v>2453596</v>
       </c>
       <c r="E1006" t="inlineStr">
         <is>
@@ -48670,10 +48670,10 @@
         </is>
       </c>
       <c r="C1007" t="n">
-        <v>110955</v>
+        <v>109574</v>
       </c>
       <c r="D1007" t="n">
-        <v>153994850</v>
+        <v>149509558</v>
       </c>
       <c r="E1007" t="inlineStr">
         <is>
@@ -49006,10 +49006,10 @@
         </is>
       </c>
       <c r="C1014" t="n">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="D1014" t="n">
-        <v>1181649</v>
+        <v>1101649</v>
       </c>
       <c r="E1014" t="inlineStr">
         <is>
@@ -49054,10 +49054,10 @@
         </is>
       </c>
       <c r="C1015" t="n">
-        <v>46354</v>
+        <v>45585</v>
       </c>
       <c r="D1015" t="n">
-        <v>93141874</v>
+        <v>87529595</v>
       </c>
       <c r="E1015" t="inlineStr">
         <is>
@@ -49102,10 +49102,10 @@
         </is>
       </c>
       <c r="C1016" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1016" t="n">
-        <v>92867</v>
+        <v>76097</v>
       </c>
       <c r="E1016" t="inlineStr">
         <is>
@@ -49198,10 +49198,10 @@
         </is>
       </c>
       <c r="C1018" t="n">
-        <v>36476</v>
+        <v>35936</v>
       </c>
       <c r="D1018" t="n">
-        <v>72633606</v>
+        <v>68758130</v>
       </c>
       <c r="E1018" t="inlineStr">
         <is>
@@ -49246,10 +49246,10 @@
         </is>
       </c>
       <c r="C1019" t="n">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="D1019" t="n">
-        <v>1302715</v>
+        <v>1235998</v>
       </c>
       <c r="E1019" t="inlineStr">
         <is>
@@ -49342,10 +49342,10 @@
         </is>
       </c>
       <c r="C1021" t="n">
-        <v>3268</v>
+        <v>3239</v>
       </c>
       <c r="D1021" t="n">
-        <v>5694022</v>
+        <v>5533838</v>
       </c>
       <c r="E1021" t="inlineStr">
         <is>
@@ -49390,10 +49390,10 @@
         </is>
       </c>
       <c r="C1022" t="n">
-        <v>13738</v>
+        <v>13604</v>
       </c>
       <c r="D1022" t="n">
-        <v>19067087</v>
+        <v>18631614</v>
       </c>
       <c r="E1022" t="inlineStr">
         <is>
@@ -49486,10 +49486,10 @@
         </is>
       </c>
       <c r="C1024" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1024" t="n">
-        <v>71211</v>
+        <v>61211</v>
       </c>
       <c r="E1024" t="inlineStr">
         <is>
@@ -49582,10 +49582,10 @@
         </is>
       </c>
       <c r="C1026" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1026" t="n">
-        <v>134114</v>
+        <v>124114</v>
       </c>
       <c r="E1026" t="inlineStr">
         <is>
@@ -49630,10 +49630,10 @@
         </is>
       </c>
       <c r="C1027" t="n">
-        <v>4671</v>
+        <v>4601</v>
       </c>
       <c r="D1027" t="n">
-        <v>9735258</v>
+        <v>9156297</v>
       </c>
       <c r="E1027" t="inlineStr">
         <is>
@@ -49678,10 +49678,10 @@
         </is>
       </c>
       <c r="C1028" t="n">
-        <v>1651</v>
+        <v>1601</v>
       </c>
       <c r="D1028" t="n">
-        <v>3682462</v>
+        <v>3320840</v>
       </c>
       <c r="E1028" t="inlineStr">
         <is>
@@ -49822,10 +49822,10 @@
         </is>
       </c>
       <c r="C1031" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1031" t="n">
-        <v>34508</v>
+        <v>26004</v>
       </c>
       <c r="E1031" t="inlineStr">
         <is>
@@ -49870,10 +49870,10 @@
         </is>
       </c>
       <c r="C1032" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D1032" t="n">
-        <v>408146</v>
+        <v>395805</v>
       </c>
       <c r="E1032" t="inlineStr">
         <is>
@@ -49918,10 +49918,10 @@
         </is>
       </c>
       <c r="C1033" t="n">
-        <v>70616</v>
+        <v>69682</v>
       </c>
       <c r="D1033" t="n">
-        <v>95599253</v>
+        <v>92811812</v>
       </c>
       <c r="E1033" t="inlineStr">
         <is>
@@ -50014,10 +50014,10 @@
         </is>
       </c>
       <c r="C1035" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1035" t="n">
-        <v>97193</v>
+        <v>87305</v>
       </c>
       <c r="E1035" t="inlineStr">
         <is>
@@ -50110,10 +50110,10 @@
         </is>
       </c>
       <c r="C1037" t="n">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D1037" t="n">
-        <v>596114</v>
+        <v>542417</v>
       </c>
       <c r="E1037" t="inlineStr">
         <is>
@@ -50158,10 +50158,10 @@
         </is>
       </c>
       <c r="C1038" t="n">
-        <v>24038</v>
+        <v>23573</v>
       </c>
       <c r="D1038" t="n">
-        <v>46760575</v>
+        <v>43293750</v>
       </c>
       <c r="E1038" t="inlineStr">
         <is>
@@ -50206,10 +50206,10 @@
         </is>
       </c>
       <c r="C1039" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1039" t="n">
-        <v>114500</v>
+        <v>94500</v>
       </c>
       <c r="E1039" t="inlineStr">
         <is>
@@ -50254,10 +50254,10 @@
         </is>
       </c>
       <c r="C1040" t="n">
-        <v>17079</v>
+        <v>16753</v>
       </c>
       <c r="D1040" t="n">
-        <v>33003840</v>
+        <v>30894179</v>
       </c>
       <c r="E1040" t="inlineStr">
         <is>
@@ -50302,10 +50302,10 @@
         </is>
       </c>
       <c r="C1041" t="n">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="D1041" t="n">
-        <v>880737</v>
+        <v>871383</v>
       </c>
       <c r="E1041" t="inlineStr">
         <is>
@@ -50398,10 +50398,10 @@
         </is>
       </c>
       <c r="C1043" t="n">
-        <v>1128</v>
+        <v>1119</v>
       </c>
       <c r="D1043" t="n">
-        <v>1791047</v>
+        <v>1753527</v>
       </c>
       <c r="E1043" t="inlineStr">
         <is>
@@ -50494,10 +50494,10 @@
         </is>
       </c>
       <c r="C1045" t="n">
-        <v>36120</v>
+        <v>35646</v>
       </c>
       <c r="D1045" t="n">
-        <v>49150974</v>
+        <v>47556566</v>
       </c>
       <c r="E1045" t="inlineStr">
         <is>
@@ -50686,10 +50686,10 @@
         </is>
       </c>
       <c r="C1049" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D1049" t="n">
-        <v>234258</v>
+        <v>214258</v>
       </c>
       <c r="E1049" t="inlineStr">
         <is>
@@ -50734,10 +50734,10 @@
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>13931</v>
+        <v>13652</v>
       </c>
       <c r="D1050" t="n">
-        <v>27494704</v>
+        <v>25476052</v>
       </c>
       <c r="E1050" t="inlineStr">
         <is>
@@ -50830,10 +50830,10 @@
         </is>
       </c>
       <c r="C1052" t="n">
-        <v>8629</v>
+        <v>8448</v>
       </c>
       <c r="D1052" t="n">
-        <v>17236091</v>
+        <v>15978107</v>
       </c>
       <c r="E1052" t="inlineStr">
         <is>
@@ -50878,10 +50878,10 @@
         </is>
       </c>
       <c r="C1053" t="n">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="D1053" t="n">
-        <v>977070</v>
+        <v>969220</v>
       </c>
       <c r="E1053" t="inlineStr">
         <is>
@@ -50926,10 +50926,10 @@
         </is>
       </c>
       <c r="C1054" t="n">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="D1054" t="n">
-        <v>1553715</v>
+        <v>1488673</v>
       </c>
       <c r="E1054" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2020-12-06/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-06/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -430,10 +430,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20712</v>
+        <v>21095</v>
       </c>
       <c r="D2" t="n">
-        <v>27663020</v>
+        <v>28851565</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D5" t="n">
-        <v>148409</v>
+        <v>167120</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7934</v>
+        <v>8101</v>
       </c>
       <c r="D6" t="n">
-        <v>14355947</v>
+        <v>15584074</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -670,10 +670,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>36500</v>
+        <v>56500</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4391</v>
+        <v>4471</v>
       </c>
       <c r="D8" t="n">
-        <v>7794603</v>
+        <v>8291787</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D9" t="n">
-        <v>377039</v>
+        <v>387832</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D11" t="n">
-        <v>931199</v>
+        <v>935611</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>13710</v>
+        <v>13992</v>
       </c>
       <c r="D12" t="n">
-        <v>18371710</v>
+        <v>19292781</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1054,10 +1054,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D15" t="n">
-        <v>113042</v>
+        <v>120208</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4123</v>
+        <v>4213</v>
       </c>
       <c r="D16" t="n">
-        <v>7055461</v>
+        <v>7703536</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1923</v>
+        <v>1953</v>
       </c>
       <c r="D18" t="n">
-        <v>3413373</v>
+        <v>3619224</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1246,10 +1246,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D19" t="n">
-        <v>630422</v>
+        <v>640422</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D21" t="n">
-        <v>511142</v>
+        <v>533274</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>17929</v>
+        <v>18215</v>
       </c>
       <c r="D22" t="n">
-        <v>23346232</v>
+        <v>24188428</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1534,10 +1534,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D25" t="n">
-        <v>78565</v>
+        <v>86879</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1582,10 +1582,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6143</v>
+        <v>6279</v>
       </c>
       <c r="D26" t="n">
-        <v>10887162</v>
+        <v>11831420</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>13191</v>
+        <v>14691</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1678,10 +1678,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2253</v>
+        <v>2299</v>
       </c>
       <c r="D28" t="n">
-        <v>4022391</v>
+        <v>4329808</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1726,10 +1726,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D29" t="n">
-        <v>445629</v>
+        <v>459676</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="D31" t="n">
-        <v>818283</v>
+        <v>845314</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1870,10 +1870,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>7699</v>
+        <v>7776</v>
       </c>
       <c r="D32" t="n">
-        <v>10498216</v>
+        <v>10742785</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2014,10 +2014,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2044</v>
+        <v>2078</v>
       </c>
       <c r="D35" t="n">
-        <v>3341196</v>
+        <v>3548235</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>720</v>
+        <v>733</v>
       </c>
       <c r="D37" t="n">
-        <v>1174110</v>
+        <v>1245210</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2254,10 +2254,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D40" t="n">
-        <v>277502</v>
+        <v>279002</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2302,10 +2302,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>27250</v>
+        <v>27740</v>
       </c>
       <c r="D41" t="n">
-        <v>35542863</v>
+        <v>36913771</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2494,10 +2494,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D45" t="n">
-        <v>115693</v>
+        <v>135693</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>9775</v>
+        <v>9968</v>
       </c>
       <c r="D47" t="n">
-        <v>17504407</v>
+        <v>18890321</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2686,10 +2686,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4981</v>
+        <v>5081</v>
       </c>
       <c r="D49" t="n">
-        <v>8833911</v>
+        <v>9419033</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>941</v>
+        <v>951</v>
       </c>
       <c r="D52" t="n">
-        <v>1483537</v>
+        <v>1524941</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>10097</v>
+        <v>10250</v>
       </c>
       <c r="D53" t="n">
-        <v>13550063</v>
+        <v>13965004</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -3022,10 +3022,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D56" t="n">
-        <v>143096</v>
+        <v>144133</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3070,10 +3070,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3455</v>
+        <v>3514</v>
       </c>
       <c r="D57" t="n">
-        <v>6077077</v>
+        <v>6469595</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3166,10 +3166,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1303</v>
+        <v>1319</v>
       </c>
       <c r="D59" t="n">
-        <v>2227850</v>
+        <v>2319118</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3310,10 +3310,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>45879</v>
+        <v>46558</v>
       </c>
       <c r="D62" t="n">
-        <v>62683753</v>
+        <v>64742384</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3358,10 +3358,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D63" t="n">
-        <v>69806</v>
+        <v>76590</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3406,10 +3406,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D64" t="n">
-        <v>288796</v>
+        <v>298796</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D66" t="n">
-        <v>183524</v>
+        <v>205522</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>17263</v>
+        <v>17614</v>
       </c>
       <c r="D67" t="n">
-        <v>33004642</v>
+        <v>35562476</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3646,10 +3646,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>7115</v>
+        <v>7233</v>
       </c>
       <c r="D69" t="n">
-        <v>13668112</v>
+        <v>14533162</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3742,10 +3742,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D71" t="n">
-        <v>463067</v>
+        <v>471375</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3886,10 +3886,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="D74" t="n">
-        <v>845147</v>
+        <v>858655</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3982,10 +3982,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>57494</v>
+        <v>58366</v>
       </c>
       <c r="D76" t="n">
-        <v>77882750</v>
+        <v>80484409</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4126,10 +4126,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D79" t="n">
-        <v>195576</v>
+        <v>215186</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4174,10 +4174,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>23107</v>
+        <v>23536</v>
       </c>
       <c r="D80" t="n">
-        <v>42903288</v>
+        <v>45932442</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4270,10 +4270,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>12370</v>
+        <v>12605</v>
       </c>
       <c r="D82" t="n">
-        <v>22884039</v>
+        <v>24488269</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4366,10 +4366,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D84" t="n">
-        <v>573785</v>
+        <v>575285</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1285</v>
+        <v>1297</v>
       </c>
       <c r="D86" t="n">
-        <v>2246155</v>
+        <v>2320467</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -4510,10 +4510,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>31131</v>
+        <v>31655</v>
       </c>
       <c r="D87" t="n">
-        <v>41920432</v>
+        <v>43487773</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -4606,10 +4606,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D89" t="n">
-        <v>343608</v>
+        <v>367839</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4702,10 +4702,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>11196</v>
+        <v>11400</v>
       </c>
       <c r="D91" t="n">
-        <v>20662351</v>
+        <v>22139433</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4798,10 +4798,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>6521</v>
+        <v>6655</v>
       </c>
       <c r="D93" t="n">
-        <v>12132132</v>
+        <v>13055487</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4942,10 +4942,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1124</v>
+        <v>1132</v>
       </c>
       <c r="D96" t="n">
-        <v>1812993</v>
+        <v>1842124</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4990,10 +4990,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>27486</v>
+        <v>27935</v>
       </c>
       <c r="D97" t="n">
-        <v>36442472</v>
+        <v>37795735</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -5182,10 +5182,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D101" t="n">
-        <v>158423</v>
+        <v>185381</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -5230,10 +5230,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>11869</v>
+        <v>12137</v>
       </c>
       <c r="D102" t="n">
-        <v>21565805</v>
+        <v>23499348</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>4307</v>
+        <v>4375</v>
       </c>
       <c r="D104" t="n">
-        <v>7722722</v>
+        <v>8246656</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5422,10 +5422,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D106" t="n">
-        <v>19503</v>
+        <v>20739</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -5470,10 +5470,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D107" t="n">
-        <v>373637</v>
+        <v>383754</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -5518,10 +5518,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D108" t="n">
-        <v>1126411</v>
+        <v>1132911</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -5566,10 +5566,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>107429</v>
+        <v>109144</v>
       </c>
       <c r="D109" t="n">
-        <v>151228243</v>
+        <v>157040408</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -5614,10 +5614,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D110" t="n">
-        <v>48499</v>
+        <v>51384</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -5662,10 +5662,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D111" t="n">
-        <v>92094</v>
+        <v>115372</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -5806,10 +5806,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D114" t="n">
-        <v>417185</v>
+        <v>427185</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -5902,10 +5902,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>39615</v>
+        <v>40431</v>
       </c>
       <c r="D116" t="n">
-        <v>74749218</v>
+        <v>80476121</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -5998,10 +5998,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>28509</v>
+        <v>29037</v>
       </c>
       <c r="D118" t="n">
-        <v>53342504</v>
+        <v>56855297</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -6142,10 +6142,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="D121" t="n">
-        <v>1199837</v>
+        <v>1219459</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -6334,10 +6334,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>3135</v>
+        <v>3172</v>
       </c>
       <c r="D125" t="n">
-        <v>5326948</v>
+        <v>5533319</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>35098</v>
+        <v>35580</v>
       </c>
       <c r="D126" t="n">
-        <v>49241208</v>
+        <v>50646900</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -6526,10 +6526,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D129" t="n">
-        <v>259784</v>
+        <v>269784</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -6574,10 +6574,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D130" t="n">
-        <v>33000</v>
+        <v>53000</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -6622,10 +6622,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>13447</v>
+        <v>13706</v>
       </c>
       <c r="D131" t="n">
-        <v>27543013</v>
+        <v>29574490</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -6718,10 +6718,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>4582</v>
+        <v>4683</v>
       </c>
       <c r="D133" t="n">
-        <v>9558429</v>
+        <v>10295484</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -6766,10 +6766,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D134" t="n">
-        <v>437236</v>
+        <v>457236</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -6814,10 +6814,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D135" t="n">
-        <v>60225</v>
+        <v>80225</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -6862,10 +6862,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="D136" t="n">
-        <v>917922</v>
+        <v>950771</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -6910,10 +6910,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>19700</v>
+        <v>20059</v>
       </c>
       <c r="D137" t="n">
-        <v>25942409</v>
+        <v>26972641</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -7054,10 +7054,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D140" t="n">
-        <v>96653</v>
+        <v>98115</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -7102,10 +7102,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>9938</v>
+        <v>10138</v>
       </c>
       <c r="D141" t="n">
-        <v>18255263</v>
+        <v>19738268</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -7198,10 +7198,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>2995</v>
+        <v>3062</v>
       </c>
       <c r="D143" t="n">
-        <v>5493291</v>
+        <v>5956079</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -7294,10 +7294,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D145" t="n">
-        <v>533586</v>
+        <v>536009</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -7390,10 +7390,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="D147" t="n">
-        <v>900768</v>
+        <v>925262</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -7438,10 +7438,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>16726</v>
+        <v>17022</v>
       </c>
       <c r="D148" t="n">
-        <v>21964553</v>
+        <v>22884829</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -7630,10 +7630,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>7708</v>
+        <v>7863</v>
       </c>
       <c r="D152" t="n">
-        <v>13176223</v>
+        <v>14282745</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -7678,10 +7678,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D153" t="n">
-        <v>32000</v>
+        <v>52000</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -7726,10 +7726,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>2561</v>
+        <v>2619</v>
       </c>
       <c r="D154" t="n">
-        <v>4509389</v>
+        <v>4912526</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D156" t="n">
-        <v>183296</v>
+        <v>192463</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -7870,10 +7870,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D157" t="n">
-        <v>814638</v>
+        <v>843244</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -7918,10 +7918,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>7261</v>
+        <v>7409</v>
       </c>
       <c r="D158" t="n">
-        <v>9404760</v>
+        <v>9922011</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -8014,10 +8014,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D160" t="n">
-        <v>28877</v>
+        <v>30814</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -8062,10 +8062,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>2476</v>
+        <v>2509</v>
       </c>
       <c r="D161" t="n">
-        <v>4244043</v>
+        <v>4444169</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -8158,10 +8158,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>847</v>
+        <v>861</v>
       </c>
       <c r="D163" t="n">
-        <v>1561152</v>
+        <v>1667964</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -8206,10 +8206,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D164" t="n">
-        <v>147049</v>
+        <v>149931</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -8350,10 +8350,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>9362</v>
+        <v>9540</v>
       </c>
       <c r="D167" t="n">
-        <v>12162273</v>
+        <v>12688238</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -8446,10 +8446,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D169" t="n">
-        <v>58099</v>
+        <v>68099</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -8494,10 +8494,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>3635</v>
+        <v>3685</v>
       </c>
       <c r="D170" t="n">
-        <v>6206020</v>
+        <v>6557898</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -8542,10 +8542,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1806</v>
+        <v>1841</v>
       </c>
       <c r="D171" t="n">
-        <v>3155689</v>
+        <v>3414849</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -8590,10 +8590,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D172" t="n">
-        <v>256532</v>
+        <v>266310</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -8734,10 +8734,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>6962</v>
+        <v>7082</v>
       </c>
       <c r="D175" t="n">
-        <v>9177942</v>
+        <v>9553559</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -8926,10 +8926,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D179" t="n">
-        <v>101055</v>
+        <v>111055</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -8974,10 +8974,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>2552</v>
+        <v>2625</v>
       </c>
       <c r="D180" t="n">
-        <v>4490478</v>
+        <v>4941319</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -9070,10 +9070,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>850</v>
+        <v>862</v>
       </c>
       <c r="D182" t="n">
-        <v>1485895</v>
+        <v>1575040</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -9118,10 +9118,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D183" t="n">
-        <v>241289</v>
+        <v>242789</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -9166,10 +9166,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D184" t="n">
-        <v>234745</v>
+        <v>237745</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -9214,10 +9214,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>20337</v>
+        <v>20730</v>
       </c>
       <c r="D185" t="n">
-        <v>27360355</v>
+        <v>28573592</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -9454,10 +9454,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>8291</v>
+        <v>8444</v>
       </c>
       <c r="D190" t="n">
-        <v>15294025</v>
+        <v>16341135</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -9598,10 +9598,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>2968</v>
+        <v>3031</v>
       </c>
       <c r="D193" t="n">
-        <v>5522040</v>
+        <v>5917362</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -9694,10 +9694,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="D195" t="n">
-        <v>876103</v>
+        <v>911031</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -9742,10 +9742,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="D196" t="n">
-        <v>1077008</v>
+        <v>1101551</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -9790,10 +9790,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>3762</v>
+        <v>3826</v>
       </c>
       <c r="D197" t="n">
-        <v>4895920</v>
+        <v>5061670</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -9838,10 +9838,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="n">
-        <v>10499</v>
+        <v>11999</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -9886,10 +9886,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1887</v>
+        <v>1936</v>
       </c>
       <c r="D199" t="n">
-        <v>3412664</v>
+        <v>3819707</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -9982,10 +9982,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>724</v>
+        <v>737</v>
       </c>
       <c r="D201" t="n">
-        <v>1220854</v>
+        <v>1329211</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -10078,10 +10078,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D203" t="n">
-        <v>48909</v>
+        <v>58156</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -10126,10 +10126,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D204" t="n">
-        <v>131161</v>
+        <v>135929</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -10174,10 +10174,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>11377</v>
+        <v>11561</v>
       </c>
       <c r="D205" t="n">
-        <v>15005784</v>
+        <v>15548201</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -10318,10 +10318,10 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D208" t="n">
-        <v>92360</v>
+        <v>94732</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -10366,10 +10366,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>4291</v>
+        <v>4380</v>
       </c>
       <c r="D209" t="n">
-        <v>7669379</v>
+        <v>8329452</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -10462,10 +10462,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>2063</v>
+        <v>2109</v>
       </c>
       <c r="D211" t="n">
-        <v>3443152</v>
+        <v>3709275</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -10510,10 +10510,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D212" t="n">
-        <v>368597</v>
+        <v>382597</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -10606,10 +10606,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D214" t="n">
-        <v>523468</v>
+        <v>529518</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -10654,10 +10654,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>20780</v>
+        <v>21135</v>
       </c>
       <c r="D215" t="n">
-        <v>27247792</v>
+        <v>28360842</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -10798,10 +10798,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D218" t="n">
-        <v>422570</v>
+        <v>462613</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -10846,10 +10846,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>9759</v>
+        <v>9982</v>
       </c>
       <c r="D219" t="n">
-        <v>17201227</v>
+        <v>18764793</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -10894,10 +10894,10 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D220" t="n">
-        <v>4970</v>
+        <v>6470</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -10942,10 +10942,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1622</v>
+        <v>1664</v>
       </c>
       <c r="D221" t="n">
-        <v>2807177</v>
+        <v>3091801</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -10990,10 +10990,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D222" t="n">
-        <v>456195</v>
+        <v>458793</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -11038,10 +11038,10 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="D223" t="n">
-        <v>975989</v>
+        <v>1002020</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -11086,10 +11086,10 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>31408</v>
+        <v>31989</v>
       </c>
       <c r="D224" t="n">
-        <v>41732656</v>
+        <v>43701758</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -11134,10 +11134,10 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D225" t="n">
-        <v>39086</v>
+        <v>40533</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -11230,10 +11230,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="D227" t="n">
-        <v>617740</v>
+        <v>648756</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -11278,10 +11278,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>13269</v>
+        <v>13576</v>
       </c>
       <c r="D228" t="n">
-        <v>23496421</v>
+        <v>25706254</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -11374,10 +11374,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>3482</v>
+        <v>3575</v>
       </c>
       <c r="D230" t="n">
-        <v>6529923</v>
+        <v>7171786</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -11422,10 +11422,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D231" t="n">
-        <v>496479</v>
+        <v>503450</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -11470,10 +11470,10 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D232" t="n">
-        <v>8125</v>
+        <v>11750</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>849</v>
+        <v>858</v>
       </c>
       <c r="D233" t="n">
-        <v>1308463</v>
+        <v>1347620</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -11566,10 +11566,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>35958</v>
+        <v>36529</v>
       </c>
       <c r="D234" t="n">
-        <v>48229435</v>
+        <v>50002640</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -11758,10 +11758,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D238" t="n">
-        <v>503923</v>
+        <v>534589</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -11806,10 +11806,10 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>19176</v>
+        <v>19576</v>
       </c>
       <c r="D239" t="n">
-        <v>35268918</v>
+        <v>38152183</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -11902,10 +11902,10 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>3562</v>
+        <v>3623</v>
       </c>
       <c r="D241" t="n">
-        <v>6346170</v>
+        <v>6739779</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -11998,10 +11998,10 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D243" t="n">
-        <v>592986</v>
+        <v>614405</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -12046,10 +12046,10 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>1153</v>
+        <v>1169</v>
       </c>
       <c r="D244" t="n">
-        <v>1901181</v>
+        <v>1999852</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -12094,10 +12094,10 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>29621</v>
+        <v>30147</v>
       </c>
       <c r="D245" t="n">
-        <v>39184528</v>
+        <v>40810078</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -12190,10 +12190,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D247" t="n">
-        <v>76209</v>
+        <v>86875</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -12286,10 +12286,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D249" t="n">
-        <v>486277</v>
+        <v>522130</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -12382,10 +12382,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>14027</v>
+        <v>14340</v>
       </c>
       <c r="D251" t="n">
-        <v>24421705</v>
+        <v>26645211</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -12478,10 +12478,10 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>3293</v>
+        <v>3362</v>
       </c>
       <c r="D253" t="n">
-        <v>5855308</v>
+        <v>6352184</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -12574,10 +12574,10 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D255" t="n">
-        <v>742727</v>
+        <v>749239</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -12622,10 +12622,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="D256" t="n">
-        <v>1073539</v>
+        <v>1092747</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -12670,10 +12670,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>9652</v>
+        <v>9842</v>
       </c>
       <c r="D257" t="n">
-        <v>13029827</v>
+        <v>13623455</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -12814,10 +12814,10 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D260" t="n">
-        <v>102496</v>
+        <v>128899</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -12862,10 +12862,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>3455</v>
+        <v>3518</v>
       </c>
       <c r="D261" t="n">
-        <v>6047643</v>
+        <v>6517384</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -13006,10 +13006,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>1272</v>
+        <v>1293</v>
       </c>
       <c r="D264" t="n">
-        <v>2227147</v>
+        <v>2396229</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -13102,10 +13102,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D266" t="n">
-        <v>317965</v>
+        <v>327302</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -13150,10 +13150,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>12244</v>
+        <v>12482</v>
       </c>
       <c r="D267" t="n">
-        <v>16813559</v>
+        <v>17540334</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -13342,10 +13342,10 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>5286</v>
+        <v>5418</v>
       </c>
       <c r="D271" t="n">
-        <v>9415070</v>
+        <v>10336548</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -13438,10 +13438,10 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>2802</v>
+        <v>2865</v>
       </c>
       <c r="D273" t="n">
-        <v>4842413</v>
+        <v>5214853</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -13582,10 +13582,10 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D276" t="n">
-        <v>302366</v>
+        <v>320304</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -13630,10 +13630,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>7020</v>
+        <v>7150</v>
       </c>
       <c r="D277" t="n">
-        <v>9246303</v>
+        <v>9661110</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -13822,10 +13822,10 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>2569</v>
+        <v>2638</v>
       </c>
       <c r="D281" t="n">
-        <v>4543999</v>
+        <v>5042105</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -13918,10 +13918,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>977</v>
+        <v>993</v>
       </c>
       <c r="D283" t="n">
-        <v>1762356</v>
+        <v>1881140</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -14110,10 +14110,10 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>23961</v>
+        <v>24343</v>
       </c>
       <c r="D287" t="n">
-        <v>32226989</v>
+        <v>33323344</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -14254,10 +14254,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D290" t="n">
-        <v>190285</v>
+        <v>200285</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -14302,10 +14302,10 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>10406</v>
+        <v>10613</v>
       </c>
       <c r="D291" t="n">
-        <v>19321744</v>
+        <v>20865183</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -14398,10 +14398,10 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>3363</v>
+        <v>3441</v>
       </c>
       <c r="D293" t="n">
-        <v>6217530</v>
+        <v>6735846</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -14446,10 +14446,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="D294" t="n">
-        <v>993942</v>
+        <v>1045605</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -14542,10 +14542,10 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="D296" t="n">
-        <v>1179334</v>
+        <v>1198513</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -14638,10 +14638,10 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>20654</v>
+        <v>21023</v>
       </c>
       <c r="D298" t="n">
-        <v>27879778</v>
+        <v>29119677</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -14830,10 +14830,10 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D302" t="n">
-        <v>215490</v>
+        <v>225490</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -14926,10 +14926,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>9214</v>
+        <v>9471</v>
       </c>
       <c r="D304" t="n">
-        <v>17089924</v>
+        <v>18927045</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -14974,10 +14974,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>4381</v>
+        <v>4460</v>
       </c>
       <c r="D305" t="n">
-        <v>7983596</v>
+        <v>8514995</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -15070,10 +15070,10 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D307" t="n">
-        <v>258239</v>
+        <v>269739</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -15118,10 +15118,10 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="D308" t="n">
-        <v>823620</v>
+        <v>861728</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -15166,10 +15166,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>11502</v>
+        <v>11719</v>
       </c>
       <c r="D309" t="n">
-        <v>15671622</v>
+        <v>16427074</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -15262,10 +15262,10 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D311" t="n">
-        <v>142760</v>
+        <v>159612</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -15358,10 +15358,10 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>4873</v>
+        <v>4965</v>
       </c>
       <c r="D313" t="n">
-        <v>8455869</v>
+        <v>9125456</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -15454,10 +15454,10 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>1663</v>
+        <v>1700</v>
       </c>
       <c r="D315" t="n">
-        <v>2952463</v>
+        <v>3201541</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -15502,10 +15502,10 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D316" t="n">
-        <v>390530</v>
+        <v>409469</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -15646,10 +15646,10 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D319" t="n">
-        <v>489808</v>
+        <v>517525</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -15694,10 +15694,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>11535</v>
+        <v>11698</v>
       </c>
       <c r="D320" t="n">
-        <v>16140839</v>
+        <v>16616312</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -15742,10 +15742,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D321" t="n">
-        <v>37610</v>
+        <v>38429</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -15886,10 +15886,10 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>4861</v>
+        <v>4957</v>
       </c>
       <c r="D324" t="n">
-        <v>9285971</v>
+        <v>9992067</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -15934,10 +15934,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>3148</v>
+        <v>3219</v>
       </c>
       <c r="D325" t="n">
-        <v>5830642</v>
+        <v>6296846</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -15982,10 +15982,10 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D326" t="n">
-        <v>471275</v>
+        <v>483580</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -16030,10 +16030,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D327" t="n">
-        <v>291924</v>
+        <v>299424</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -16078,10 +16078,10 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>14037</v>
+        <v>14250</v>
       </c>
       <c r="D328" t="n">
-        <v>19750370</v>
+        <v>20428093</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -16270,10 +16270,10 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>5036</v>
+        <v>5123</v>
       </c>
       <c r="D332" t="n">
-        <v>9533561</v>
+        <v>10173292</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -16318,10 +16318,10 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D333" t="n">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -16366,10 +16366,10 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>3632</v>
+        <v>3728</v>
       </c>
       <c r="D334" t="n">
-        <v>6878925</v>
+        <v>7490106</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -16414,10 +16414,10 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D335" t="n">
-        <v>490257</v>
+        <v>491577</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -16462,10 +16462,10 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="D336" t="n">
-        <v>427350</v>
+        <v>462281</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -16510,10 +16510,10 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>8507</v>
+        <v>8661</v>
       </c>
       <c r="D337" t="n">
-        <v>11234485</v>
+        <v>11688746</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -16654,10 +16654,10 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D340" t="n">
-        <v>78403</v>
+        <v>87526</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -16750,10 +16750,10 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>2902</v>
+        <v>2947</v>
       </c>
       <c r="D342" t="n">
-        <v>5086220</v>
+        <v>5377365</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -16846,10 +16846,10 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>1021</v>
+        <v>1040</v>
       </c>
       <c r="D344" t="n">
-        <v>1869515</v>
+        <v>2007032</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
@@ -16942,10 +16942,10 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D346" t="n">
-        <v>292143</v>
+        <v>310143</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -16990,10 +16990,10 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>9591</v>
+        <v>9761</v>
       </c>
       <c r="D347" t="n">
-        <v>13081708</v>
+        <v>13590409</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -17038,10 +17038,10 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D348" t="n">
-        <v>24496</v>
+        <v>31771</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
@@ -17134,10 +17134,10 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D350" t="n">
-        <v>271222</v>
+        <v>317966</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -17230,10 +17230,10 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>4015</v>
+        <v>4098</v>
       </c>
       <c r="D352" t="n">
-        <v>7123384</v>
+        <v>7687640</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -17278,10 +17278,10 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>1730</v>
+        <v>1770</v>
       </c>
       <c r="D353" t="n">
-        <v>3085840</v>
+        <v>3315468</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -17326,10 +17326,10 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D354" t="n">
-        <v>986159</v>
+        <v>1025984</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
@@ -17470,10 +17470,10 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>40534</v>
+        <v>41116</v>
       </c>
       <c r="D357" t="n">
-        <v>53918915</v>
+        <v>55681491</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -17614,10 +17614,10 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D360" t="n">
-        <v>38806</v>
+        <v>40656</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
@@ -17662,10 +17662,10 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D361" t="n">
-        <v>103264</v>
+        <v>113264</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -17710,10 +17710,10 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D362" t="n">
-        <v>4249</v>
+        <v>4332</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
@@ -17758,10 +17758,10 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>20990</v>
+        <v>21368</v>
       </c>
       <c r="D363" t="n">
-        <v>37028373</v>
+        <v>39736276</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -17902,10 +17902,10 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>10359</v>
+        <v>10521</v>
       </c>
       <c r="D366" t="n">
-        <v>17931712</v>
+        <v>18966357</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -17950,10 +17950,10 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="D367" t="n">
-        <v>1270280</v>
+        <v>1317348</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -17998,10 +17998,10 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>1243</v>
+        <v>1254</v>
       </c>
       <c r="D368" t="n">
-        <v>2067804</v>
+        <v>2134312</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -18046,10 +18046,10 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>4817</v>
+        <v>4912</v>
       </c>
       <c r="D369" t="n">
-        <v>6286666</v>
+        <v>6630044</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -18190,10 +18190,10 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>1841</v>
+        <v>1864</v>
       </c>
       <c r="D372" t="n">
-        <v>3098309</v>
+        <v>3244112</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -18238,10 +18238,10 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>761</v>
+        <v>772</v>
       </c>
       <c r="D373" t="n">
-        <v>1243077</v>
+        <v>1324604</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -18382,10 +18382,10 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D376" t="n">
-        <v>172380</v>
+        <v>173880</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -18430,10 +18430,10 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>23558</v>
+        <v>23977</v>
       </c>
       <c r="D377" t="n">
-        <v>30805617</v>
+        <v>32000509</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -18622,10 +18622,10 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>12369</v>
+        <v>12604</v>
       </c>
       <c r="D381" t="n">
-        <v>21642384</v>
+        <v>23356571</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
@@ -18718,10 +18718,10 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>6016</v>
+        <v>6116</v>
       </c>
       <c r="D383" t="n">
-        <v>10566177</v>
+        <v>11291437</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -18766,10 +18766,10 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="D384" t="n">
-        <v>1029734</v>
+        <v>1032134</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
@@ -18814,10 +18814,10 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="D385" t="n">
-        <v>778966</v>
+        <v>820796</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
@@ -18862,10 +18862,10 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>18227</v>
+        <v>18600</v>
       </c>
       <c r="D386" t="n">
-        <v>26260612</v>
+        <v>27491478</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -18910,10 +18910,10 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D387" t="n">
-        <v>90557</v>
+        <v>92057</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -19006,10 +19006,10 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D389" t="n">
-        <v>224581</v>
+        <v>234581</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
@@ -19054,10 +19054,10 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>8438</v>
+        <v>8590</v>
       </c>
       <c r="D390" t="n">
-        <v>15680099</v>
+        <v>16685466</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -19150,10 +19150,10 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>3428</v>
+        <v>3516</v>
       </c>
       <c r="D392" t="n">
-        <v>6310234</v>
+        <v>6920605</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
@@ -19198,10 +19198,10 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>1222</v>
+        <v>1263</v>
       </c>
       <c r="D393" t="n">
-        <v>4007547</v>
+        <v>4340349</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -19246,10 +19246,10 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D394" t="n">
-        <v>581065</v>
+        <v>592630</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
@@ -19294,10 +19294,10 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>22505</v>
+        <v>22893</v>
       </c>
       <c r="D395" t="n">
-        <v>29796516</v>
+        <v>30899366</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -19438,10 +19438,10 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D398" t="n">
-        <v>135639</v>
+        <v>161988</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -19486,10 +19486,10 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>9039</v>
+        <v>9240</v>
       </c>
       <c r="D399" t="n">
-        <v>16138444</v>
+        <v>17554285</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
@@ -19534,10 +19534,10 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D400" t="n">
-        <v>37166</v>
+        <v>47166</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
@@ -19582,10 +19582,10 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>3648</v>
+        <v>3718</v>
       </c>
       <c r="D401" t="n">
-        <v>6547680</v>
+        <v>7011090</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
@@ -19678,10 +19678,10 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D403" t="n">
-        <v>252806</v>
+        <v>258441</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -19726,10 +19726,10 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="D404" t="n">
-        <v>933249</v>
+        <v>969228</v>
       </c>
       <c r="E404" t="inlineStr">
         <is>
@@ -19774,10 +19774,10 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>5056</v>
+        <v>5157</v>
       </c>
       <c r="D405" t="n">
-        <v>6707940</v>
+        <v>7043027</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
@@ -19918,10 +19918,10 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>1709</v>
+        <v>1746</v>
       </c>
       <c r="D408" t="n">
-        <v>2920559</v>
+        <v>3173512</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
@@ -19966,10 +19966,10 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>706</v>
+        <v>719</v>
       </c>
       <c r="D409" t="n">
-        <v>1178804</v>
+        <v>1263524</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
@@ -20014,10 +20014,10 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D410" t="n">
-        <v>122586</v>
+        <v>140452</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
@@ -20062,10 +20062,10 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D411" t="n">
-        <v>223812</v>
+        <v>230811</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
@@ -20110,10 +20110,10 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>27169</v>
+        <v>27687</v>
       </c>
       <c r="D412" t="n">
-        <v>35487648</v>
+        <v>36947811</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
@@ -20158,10 +20158,10 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D413" t="n">
-        <v>31248</v>
+        <v>41248</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
@@ -20206,10 +20206,10 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D414" t="n">
-        <v>62928</v>
+        <v>72928</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
@@ -20254,10 +20254,10 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>11427</v>
+        <v>11615</v>
       </c>
       <c r="D415" t="n">
-        <v>19864520</v>
+        <v>21372323</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
@@ -20350,10 +20350,10 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>7669</v>
+        <v>7783</v>
       </c>
       <c r="D417" t="n">
-        <v>13123308</v>
+        <v>13905360</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -20446,10 +20446,10 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D419" t="n">
-        <v>770294</v>
+        <v>789025</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
@@ -20494,10 +20494,10 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>13757</v>
+        <v>13981</v>
       </c>
       <c r="D420" t="n">
-        <v>17906612</v>
+        <v>18504752</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
@@ -20590,10 +20590,10 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D422" t="n">
-        <v>41589</v>
+        <v>44667</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
@@ -20638,10 +20638,10 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D423" t="n">
-        <v>98645</v>
+        <v>108645</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
@@ -20734,10 +20734,10 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>6590</v>
+        <v>6717</v>
       </c>
       <c r="D425" t="n">
-        <v>11385896</v>
+        <v>12290068</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
@@ -20830,10 +20830,10 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>2369</v>
+        <v>2421</v>
       </c>
       <c r="D427" t="n">
-        <v>4130601</v>
+        <v>4470117</v>
       </c>
       <c r="E427" t="inlineStr">
         <is>
@@ -20878,10 +20878,10 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D428" t="n">
-        <v>228168</v>
+        <v>229452</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
@@ -20974,10 +20974,10 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>41510</v>
+        <v>41855</v>
       </c>
       <c r="D430" t="n">
-        <v>58965133</v>
+        <v>59956265</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
@@ -21118,10 +21118,10 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D433" t="n">
-        <v>67182</v>
+        <v>71404</v>
       </c>
       <c r="E433" t="inlineStr">
         <is>
@@ -21166,10 +21166,10 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>10339</v>
+        <v>10414</v>
       </c>
       <c r="D434" t="n">
-        <v>16730430</v>
+        <v>17138244</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
@@ -21214,10 +21214,10 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D435" t="n">
-        <v>19000</v>
+        <v>20500</v>
       </c>
       <c r="E435" t="inlineStr">
         <is>
@@ -21262,10 +21262,10 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>9644</v>
+        <v>9710</v>
       </c>
       <c r="D436" t="n">
-        <v>15197282</v>
+        <v>15493398</v>
       </c>
       <c r="E436" t="inlineStr">
         <is>
@@ -21358,10 +21358,10 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D438" t="n">
-        <v>934682</v>
+        <v>935392</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
@@ -21406,10 +21406,10 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="D439" t="n">
-        <v>982452</v>
+        <v>1032424</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -21454,10 +21454,10 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>17775</v>
+        <v>17856</v>
       </c>
       <c r="D440" t="n">
-        <v>35467766</v>
+        <v>35853463</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
@@ -21598,10 +21598,10 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>4060</v>
+        <v>4068</v>
       </c>
       <c r="D443" t="n">
-        <v>8688326</v>
+        <v>8741676</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
@@ -21694,10 +21694,10 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>5841</v>
+        <v>5864</v>
       </c>
       <c r="D445" t="n">
-        <v>12744979</v>
+        <v>12871460</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
@@ -21934,10 +21934,10 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>13780</v>
+        <v>14047</v>
       </c>
       <c r="D450" t="n">
-        <v>18357913</v>
+        <v>19140478</v>
       </c>
       <c r="E450" t="inlineStr">
         <is>
@@ -22030,10 +22030,10 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D452" t="n">
-        <v>141815</v>
+        <v>150260</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
@@ -22078,10 +22078,10 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>4835</v>
+        <v>4934</v>
       </c>
       <c r="D453" t="n">
-        <v>8700412</v>
+        <v>9403260</v>
       </c>
       <c r="E453" t="inlineStr">
         <is>
@@ -22126,10 +22126,10 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D454" t="n">
-        <v>20991</v>
+        <v>30991</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
@@ -22174,10 +22174,10 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>2440</v>
+        <v>2482</v>
       </c>
       <c r="D455" t="n">
-        <v>4184330</v>
+        <v>4452345</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
@@ -22222,10 +22222,10 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D456" t="n">
-        <v>375072</v>
+        <v>385072</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
@@ -22270,10 +22270,10 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D457" t="n">
-        <v>368993</v>
+        <v>377707</v>
       </c>
       <c r="E457" t="inlineStr">
         <is>
@@ -22318,10 +22318,10 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>81149</v>
+        <v>82549</v>
       </c>
       <c r="D458" t="n">
-        <v>109049720</v>
+        <v>113174541</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
@@ -22462,10 +22462,10 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="D461" t="n">
-        <v>966330</v>
+        <v>1066826</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
@@ -22510,10 +22510,10 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>32724</v>
+        <v>33359</v>
       </c>
       <c r="D462" t="n">
-        <v>61285260</v>
+        <v>65851794</v>
       </c>
       <c r="E462" t="inlineStr">
         <is>
@@ -22558,10 +22558,10 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D463" t="n">
-        <v>195802</v>
+        <v>205802</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
@@ -22654,10 +22654,10 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>18103</v>
+        <v>18488</v>
       </c>
       <c r="D465" t="n">
-        <v>33854276</v>
+        <v>36542517</v>
       </c>
       <c r="E465" t="inlineStr">
         <is>
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="D466" t="n">
-        <v>815349</v>
+        <v>826224</v>
       </c>
       <c r="E466" t="inlineStr">
         <is>
@@ -22798,10 +22798,10 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D468" t="n">
-        <v>27500</v>
+        <v>37500</v>
       </c>
       <c r="E468" t="inlineStr">
         <is>
@@ -22894,10 +22894,10 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>1698</v>
+        <v>1718</v>
       </c>
       <c r="D470" t="n">
-        <v>2929105</v>
+        <v>3007092</v>
       </c>
       <c r="E470" t="inlineStr">
         <is>
@@ -22942,10 +22942,10 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D471" t="n">
-        <v>25695</v>
+        <v>28121</v>
       </c>
       <c r="E471" t="inlineStr">
         <is>
@@ -22990,10 +22990,10 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>24365</v>
+        <v>24834</v>
       </c>
       <c r="D472" t="n">
-        <v>33530775</v>
+        <v>35032257</v>
       </c>
       <c r="E472" t="inlineStr">
         <is>
@@ -23134,10 +23134,10 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D475" t="n">
-        <v>415400</v>
+        <v>455400</v>
       </c>
       <c r="E475" t="inlineStr">
         <is>
@@ -23182,10 +23182,10 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>9801</v>
+        <v>10018</v>
       </c>
       <c r="D476" t="n">
-        <v>17560284</v>
+        <v>19007010</v>
       </c>
       <c r="E476" t="inlineStr">
         <is>
@@ -23278,10 +23278,10 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>6878</v>
+        <v>7043</v>
       </c>
       <c r="D478" t="n">
-        <v>12560672</v>
+        <v>13627524</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
@@ -23326,10 +23326,10 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D479" t="n">
-        <v>303090</v>
+        <v>313090</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
@@ -23374,10 +23374,10 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="D480" t="n">
-        <v>738412</v>
+        <v>807049</v>
       </c>
       <c r="E480" t="inlineStr">
         <is>
@@ -23422,10 +23422,10 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>40568</v>
+        <v>41349</v>
       </c>
       <c r="D481" t="n">
-        <v>53390889</v>
+        <v>55538924</v>
       </c>
       <c r="E481" t="inlineStr">
         <is>
@@ -23614,10 +23614,10 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D485" t="n">
-        <v>778107</v>
+        <v>811933</v>
       </c>
       <c r="E485" t="inlineStr">
         <is>
@@ -23662,10 +23662,10 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>14618</v>
+        <v>14894</v>
       </c>
       <c r="D486" t="n">
-        <v>26401874</v>
+        <v>28261235</v>
       </c>
       <c r="E486" t="inlineStr">
         <is>
@@ -23710,10 +23710,10 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D487" t="n">
-        <v>37996</v>
+        <v>47996</v>
       </c>
       <c r="E487" t="inlineStr">
         <is>
@@ -23758,10 +23758,10 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>6435</v>
+        <v>6575</v>
       </c>
       <c r="D488" t="n">
-        <v>11899988</v>
+        <v>12909339</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
@@ -23806,10 +23806,10 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="D489" t="n">
-        <v>596806</v>
+        <v>614489</v>
       </c>
       <c r="E489" t="inlineStr">
         <is>
@@ -23854,10 +23854,10 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="D490" t="n">
-        <v>902091</v>
+        <v>947920</v>
       </c>
       <c r="E490" t="inlineStr">
         <is>
@@ -23902,10 +23902,10 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>17476</v>
+        <v>17810</v>
       </c>
       <c r="D491" t="n">
-        <v>22595845</v>
+        <v>23649573</v>
       </c>
       <c r="E491" t="inlineStr">
         <is>
@@ -23950,10 +23950,10 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D492" t="n">
-        <v>18967</v>
+        <v>24883</v>
       </c>
       <c r="E492" t="inlineStr">
         <is>
@@ -24046,10 +24046,10 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D494" t="n">
-        <v>213637</v>
+        <v>223637</v>
       </c>
       <c r="E494" t="inlineStr">
         <is>
@@ -24142,10 +24142,10 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>5480</v>
+        <v>5575</v>
       </c>
       <c r="D496" t="n">
-        <v>9598593</v>
+        <v>10270992</v>
       </c>
       <c r="E496" t="inlineStr">
         <is>
@@ -24238,10 +24238,10 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>2687</v>
+        <v>2734</v>
       </c>
       <c r="D498" t="n">
-        <v>4672462</v>
+        <v>5026647</v>
       </c>
       <c r="E498" t="inlineStr">
         <is>
@@ -24286,10 +24286,10 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D499" t="n">
-        <v>268712</v>
+        <v>298606</v>
       </c>
       <c r="E499" t="inlineStr">
         <is>
@@ -24334,10 +24334,10 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D500" t="n">
-        <v>669971</v>
+        <v>690875</v>
       </c>
       <c r="E500" t="inlineStr">
         <is>
@@ -24382,10 +24382,10 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>50573</v>
+        <v>51460</v>
       </c>
       <c r="D501" t="n">
-        <v>74989419</v>
+        <v>78015494</v>
       </c>
       <c r="E501" t="inlineStr">
         <is>
@@ -24526,10 +24526,10 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D504" t="n">
-        <v>274975</v>
+        <v>315421</v>
       </c>
       <c r="E504" t="inlineStr">
         <is>
@@ -24574,10 +24574,10 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>17408</v>
+        <v>17704</v>
       </c>
       <c r="D505" t="n">
-        <v>31113122</v>
+        <v>33192294</v>
       </c>
       <c r="E505" t="inlineStr">
         <is>
@@ -24622,10 +24622,10 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D506" t="n">
-        <v>48471</v>
+        <v>60453</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
@@ -24670,10 +24670,10 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>17309</v>
+        <v>17612</v>
       </c>
       <c r="D507" t="n">
-        <v>30970005</v>
+        <v>32730924</v>
       </c>
       <c r="E507" t="inlineStr">
         <is>
@@ -24718,10 +24718,10 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D508" t="n">
-        <v>351671</v>
+        <v>363171</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
@@ -24766,10 +24766,10 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="D509" t="n">
-        <v>832728</v>
+        <v>881014</v>
       </c>
       <c r="E509" t="inlineStr">
         <is>
@@ -24814,10 +24814,10 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>92943</v>
+        <v>94441</v>
       </c>
       <c r="D510" t="n">
-        <v>141485424</v>
+        <v>147078400</v>
       </c>
       <c r="E510" t="inlineStr">
         <is>
@@ -24910,10 +24910,10 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D512" t="n">
-        <v>73249</v>
+        <v>83689</v>
       </c>
       <c r="E512" t="inlineStr">
         <is>
@@ -25006,10 +25006,10 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D514" t="n">
-        <v>558624</v>
+        <v>584880</v>
       </c>
       <c r="E514" t="inlineStr">
         <is>
@@ -25102,10 +25102,10 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>32405</v>
+        <v>32924</v>
       </c>
       <c r="D516" t="n">
-        <v>60936276</v>
+        <v>64635047</v>
       </c>
       <c r="E516" t="inlineStr">
         <is>
@@ -25150,10 +25150,10 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D517" t="n">
-        <v>205063</v>
+        <v>215063</v>
       </c>
       <c r="E517" t="inlineStr">
         <is>
@@ -25198,10 +25198,10 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>34251</v>
+        <v>34854</v>
       </c>
       <c r="D518" t="n">
-        <v>63830746</v>
+        <v>67505186</v>
       </c>
       <c r="E518" t="inlineStr">
         <is>
@@ -25294,10 +25294,10 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D520" t="n">
-        <v>470997</v>
+        <v>477312</v>
       </c>
       <c r="E520" t="inlineStr">
         <is>
@@ -25342,10 +25342,10 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>1045</v>
+        <v>1057</v>
       </c>
       <c r="D521" t="n">
-        <v>1788392</v>
+        <v>1847169</v>
       </c>
       <c r="E521" t="inlineStr">
         <is>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>222018</v>
+        <v>224994</v>
       </c>
       <c r="D522" t="n">
-        <v>322047891</v>
+        <v>331875777</v>
       </c>
       <c r="E522" t="inlineStr">
         <is>
@@ -25486,10 +25486,10 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D524" t="n">
-        <v>358576</v>
+        <v>371102</v>
       </c>
       <c r="E524" t="inlineStr">
         <is>
@@ -25630,10 +25630,10 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>834</v>
+        <v>854</v>
       </c>
       <c r="D527" t="n">
-        <v>2354484</v>
+        <v>2520321</v>
       </c>
       <c r="E527" t="inlineStr">
         <is>
@@ -25678,10 +25678,10 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D528" t="n">
-        <v>140681</v>
+        <v>170681</v>
       </c>
       <c r="E528" t="inlineStr">
         <is>
@@ -25726,10 +25726,10 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>118624</v>
+        <v>120705</v>
       </c>
       <c r="D529" t="n">
-        <v>238875077</v>
+        <v>253978377</v>
       </c>
       <c r="E529" t="inlineStr">
         <is>
@@ -25774,10 +25774,10 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="D530" t="n">
-        <v>1773305</v>
+        <v>1884765</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
@@ -25822,10 +25822,10 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D531" t="n">
-        <v>154140</v>
+        <v>164806</v>
       </c>
       <c r="E531" t="inlineStr">
         <is>
@@ -25870,10 +25870,10 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>92086</v>
+        <v>93698</v>
       </c>
       <c r="D532" t="n">
-        <v>187402226</v>
+        <v>198559748</v>
       </c>
       <c r="E532" t="inlineStr">
         <is>
@@ -25918,10 +25918,10 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D533" t="n">
-        <v>89402</v>
+        <v>113144</v>
       </c>
       <c r="E533" t="inlineStr">
         <is>
@@ -25966,10 +25966,10 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>1332</v>
+        <v>1335</v>
       </c>
       <c r="D534" t="n">
-        <v>2173119</v>
+        <v>2191852</v>
       </c>
       <c r="E534" t="inlineStr">
         <is>
@@ -26062,10 +26062,10 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>4758</v>
+        <v>4808</v>
       </c>
       <c r="D536" t="n">
-        <v>8246612</v>
+        <v>8553236</v>
       </c>
       <c r="E536" t="inlineStr">
         <is>
@@ -26206,10 +26206,10 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>57506</v>
+        <v>58555</v>
       </c>
       <c r="D539" t="n">
-        <v>83324519</v>
+        <v>86836680</v>
       </c>
       <c r="E539" t="inlineStr">
         <is>
@@ -26302,10 +26302,10 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D541" t="n">
-        <v>21335</v>
+        <v>23170</v>
       </c>
       <c r="E541" t="inlineStr">
         <is>
@@ -26398,10 +26398,10 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D543" t="n">
-        <v>401696</v>
+        <v>427577</v>
       </c>
       <c r="E543" t="inlineStr">
         <is>
@@ -26446,10 +26446,10 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>19688</v>
+        <v>20049</v>
       </c>
       <c r="D544" t="n">
-        <v>35822102</v>
+        <v>38357374</v>
       </c>
       <c r="E544" t="inlineStr">
         <is>
@@ -26590,10 +26590,10 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>18427</v>
+        <v>18807</v>
       </c>
       <c r="D547" t="n">
-        <v>33618233</v>
+        <v>35988270</v>
       </c>
       <c r="E547" t="inlineStr">
         <is>
@@ -26686,10 +26686,10 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D549" t="n">
-        <v>614973</v>
+        <v>627937</v>
       </c>
       <c r="E549" t="inlineStr">
         <is>
@@ -26734,10 +26734,10 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="D550" t="n">
-        <v>940825</v>
+        <v>970848</v>
       </c>
       <c r="E550" t="inlineStr">
         <is>
@@ -26830,10 +26830,10 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>104548</v>
+        <v>106530</v>
       </c>
       <c r="D552" t="n">
-        <v>166126532</v>
+        <v>174228017</v>
       </c>
       <c r="E552" t="inlineStr">
         <is>
@@ -26974,10 +26974,10 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D555" t="n">
-        <v>385480</v>
+        <v>395480</v>
       </c>
       <c r="E555" t="inlineStr">
         <is>
@@ -27022,10 +27022,10 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>31001</v>
+        <v>31443</v>
       </c>
       <c r="D556" t="n">
-        <v>56203132</v>
+        <v>59244359</v>
       </c>
       <c r="E556" t="inlineStr">
         <is>
@@ -27070,10 +27070,10 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D557" t="n">
-        <v>116035</v>
+        <v>126035</v>
       </c>
       <c r="E557" t="inlineStr">
         <is>
@@ -27118,10 +27118,10 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>37409</v>
+        <v>38048</v>
       </c>
       <c r="D558" t="n">
-        <v>67765394</v>
+        <v>71513192</v>
       </c>
       <c r="E558" t="inlineStr">
         <is>
@@ -27166,10 +27166,10 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D559" t="n">
-        <v>27823</v>
+        <v>37823</v>
       </c>
       <c r="E559" t="inlineStr">
         <is>
@@ -27214,10 +27214,10 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D560" t="n">
-        <v>409743</v>
+        <v>411243</v>
       </c>
       <c r="E560" t="inlineStr">
         <is>
@@ -27310,10 +27310,10 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>1400</v>
+        <v>1412</v>
       </c>
       <c r="D562" t="n">
-        <v>2247936</v>
+        <v>2307072</v>
       </c>
       <c r="E562" t="inlineStr">
         <is>
@@ -27358,10 +27358,10 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>80398</v>
+        <v>81725</v>
       </c>
       <c r="D563" t="n">
-        <v>120501120</v>
+        <v>125228660</v>
       </c>
       <c r="E563" t="inlineStr">
         <is>
@@ -27550,10 +27550,10 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D567" t="n">
-        <v>403055</v>
+        <v>413055</v>
       </c>
       <c r="E567" t="inlineStr">
         <is>
@@ -27598,10 +27598,10 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>23638</v>
+        <v>23982</v>
       </c>
       <c r="D568" t="n">
-        <v>43148486</v>
+        <v>45562985</v>
       </c>
       <c r="E568" t="inlineStr">
         <is>
@@ -27646,10 +27646,10 @@
         </is>
       </c>
       <c r="C569" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D569" t="n">
-        <v>54443</v>
+        <v>63826</v>
       </c>
       <c r="E569" t="inlineStr">
         <is>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>27429</v>
+        <v>27881</v>
       </c>
       <c r="D570" t="n">
-        <v>49149598</v>
+        <v>51566869</v>
       </c>
       <c r="E570" t="inlineStr">
         <is>
@@ -27742,10 +27742,10 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D571" t="n">
-        <v>436021</v>
+        <v>464371</v>
       </c>
       <c r="E571" t="inlineStr">
         <is>
@@ -27790,10 +27790,10 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>1017</v>
+        <v>1029</v>
       </c>
       <c r="D572" t="n">
-        <v>1732372</v>
+        <v>1788129</v>
       </c>
       <c r="E572" t="inlineStr">
         <is>
@@ -27838,10 +27838,10 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>61408</v>
+        <v>62628</v>
       </c>
       <c r="D573" t="n">
-        <v>94356432</v>
+        <v>98850234</v>
       </c>
       <c r="E573" t="inlineStr">
         <is>
@@ -27982,10 +27982,10 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D576" t="n">
-        <v>384951</v>
+        <v>394951</v>
       </c>
       <c r="E576" t="inlineStr">
         <is>
@@ -28030,10 +28030,10 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>18087</v>
+        <v>18402</v>
       </c>
       <c r="D577" t="n">
-        <v>32485606</v>
+        <v>34652782</v>
       </c>
       <c r="E577" t="inlineStr">
         <is>
@@ -28126,10 +28126,10 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>21346</v>
+        <v>21722</v>
       </c>
       <c r="D579" t="n">
-        <v>37868607</v>
+        <v>39952368</v>
       </c>
       <c r="E579" t="inlineStr">
         <is>
@@ -28174,10 +28174,10 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D580" t="n">
-        <v>292938</v>
+        <v>293588</v>
       </c>
       <c r="E580" t="inlineStr">
         <is>
@@ -28222,10 +28222,10 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="D581" t="n">
-        <v>784565</v>
+        <v>840198</v>
       </c>
       <c r="E581" t="inlineStr">
         <is>
@@ -28270,10 +28270,10 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>56504</v>
+        <v>57466</v>
       </c>
       <c r="D582" t="n">
-        <v>81916354</v>
+        <v>85065504</v>
       </c>
       <c r="E582" t="inlineStr">
         <is>
@@ -28462,10 +28462,10 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>20874</v>
+        <v>21281</v>
       </c>
       <c r="D586" t="n">
-        <v>38252155</v>
+        <v>41290414</v>
       </c>
       <c r="E586" t="inlineStr">
         <is>
@@ -28510,10 +28510,10 @@
         </is>
       </c>
       <c r="C587" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D587" t="n">
-        <v>110223</v>
+        <v>120223</v>
       </c>
       <c r="E587" t="inlineStr">
         <is>
@@ -28558,10 +28558,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>18372</v>
+        <v>18702</v>
       </c>
       <c r="D588" t="n">
-        <v>33255953</v>
+        <v>35345207</v>
       </c>
       <c r="E588" t="inlineStr">
         <is>
@@ -28654,10 +28654,10 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D590" t="n">
-        <v>443011</v>
+        <v>449001</v>
       </c>
       <c r="E590" t="inlineStr">
         <is>
@@ -28702,10 +28702,10 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="D591" t="n">
-        <v>903962</v>
+        <v>947262</v>
       </c>
       <c r="E591" t="inlineStr">
         <is>
@@ -28750,10 +28750,10 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>52757</v>
+        <v>52995</v>
       </c>
       <c r="D592" t="n">
-        <v>72119232</v>
+        <v>72804738</v>
       </c>
       <c r="E592" t="inlineStr">
         <is>
@@ -28846,10 +28846,10 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D594" t="n">
-        <v>62619</v>
+        <v>63687</v>
       </c>
       <c r="E594" t="inlineStr">
         <is>
@@ -29038,10 +29038,10 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>16060</v>
+        <v>16096</v>
       </c>
       <c r="D598" t="n">
-        <v>24793760</v>
+        <v>24989114</v>
       </c>
       <c r="E598" t="inlineStr">
         <is>
@@ -29086,10 +29086,10 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D599" t="n">
-        <v>41823</v>
+        <v>51823</v>
       </c>
       <c r="E599" t="inlineStr">
         <is>
@@ -29134,10 +29134,10 @@
         </is>
       </c>
       <c r="C600" t="n">
-        <v>4416</v>
+        <v>4432</v>
       </c>
       <c r="D600" t="n">
-        <v>6693402</v>
+        <v>6776244</v>
       </c>
       <c r="E600" t="inlineStr">
         <is>
@@ -29278,10 +29278,10 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D603" t="n">
-        <v>643507</v>
+        <v>648087</v>
       </c>
       <c r="E603" t="inlineStr">
         <is>
@@ -29374,10 +29374,10 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="D605" t="n">
-        <v>840680</v>
+        <v>847080</v>
       </c>
       <c r="E605" t="inlineStr">
         <is>
@@ -29422,10 +29422,10 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>22179</v>
+        <v>22620</v>
       </c>
       <c r="D606" t="n">
-        <v>31191988</v>
+        <v>32728715</v>
       </c>
       <c r="E606" t="inlineStr">
         <is>
@@ -29614,10 +29614,10 @@
         </is>
       </c>
       <c r="C610" t="n">
-        <v>9324</v>
+        <v>9502</v>
       </c>
       <c r="D610" t="n">
-        <v>15847758</v>
+        <v>16990019</v>
       </c>
       <c r="E610" t="inlineStr">
         <is>
@@ -29710,10 +29710,10 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>6671</v>
+        <v>6771</v>
       </c>
       <c r="D612" t="n">
-        <v>11181777</v>
+        <v>11795221</v>
       </c>
       <c r="E612" t="inlineStr">
         <is>
@@ -29758,10 +29758,10 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D613" t="n">
-        <v>15310</v>
+        <v>25310</v>
       </c>
       <c r="E613" t="inlineStr">
         <is>
@@ -29806,10 +29806,10 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D614" t="n">
-        <v>471434</v>
+        <v>473422</v>
       </c>
       <c r="E614" t="inlineStr">
         <is>
@@ -29854,10 +29854,10 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D615" t="n">
-        <v>638175</v>
+        <v>655660</v>
       </c>
       <c r="E615" t="inlineStr">
         <is>
@@ -29950,10 +29950,10 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>31246</v>
+        <v>31445</v>
       </c>
       <c r="D617" t="n">
-        <v>69637134</v>
+        <v>71012347</v>
       </c>
       <c r="E617" t="inlineStr">
         <is>
@@ -30046,10 +30046,10 @@
         </is>
       </c>
       <c r="C619" t="n">
-        <v>3124</v>
+        <v>3140</v>
       </c>
       <c r="D619" t="n">
-        <v>6944881</v>
+        <v>7064481</v>
       </c>
       <c r="E619" t="inlineStr">
         <is>
@@ -30094,10 +30094,10 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D620" t="n">
-        <v>910679</v>
+        <v>940679</v>
       </c>
       <c r="E620" t="inlineStr">
         <is>
@@ -30238,10 +30238,10 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D623" t="n">
-        <v>441087</v>
+        <v>451087</v>
       </c>
       <c r="E623" t="inlineStr">
         <is>
@@ -30286,10 +30286,10 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>27538</v>
+        <v>28070</v>
       </c>
       <c r="D624" t="n">
-        <v>37061320</v>
+        <v>38697387</v>
       </c>
       <c r="E624" t="inlineStr">
         <is>
@@ -30382,10 +30382,10 @@
         </is>
       </c>
       <c r="C626" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D626" t="n">
-        <v>29471</v>
+        <v>33812</v>
       </c>
       <c r="E626" t="inlineStr">
         <is>
@@ -30430,10 +30430,10 @@
         </is>
       </c>
       <c r="C627" t="n">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="D627" t="n">
-        <v>485229</v>
+        <v>572878</v>
       </c>
       <c r="E627" t="inlineStr">
         <is>
@@ -30526,10 +30526,10 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>11789</v>
+        <v>12054</v>
       </c>
       <c r="D629" t="n">
-        <v>22428913</v>
+        <v>24386451</v>
       </c>
       <c r="E629" t="inlineStr">
         <is>
@@ -30622,10 +30622,10 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>4532</v>
+        <v>4630</v>
       </c>
       <c r="D631" t="n">
-        <v>8512583</v>
+        <v>9183679</v>
       </c>
       <c r="E631" t="inlineStr">
         <is>
@@ -30718,10 +30718,10 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D633" t="n">
-        <v>614034</v>
+        <v>621579</v>
       </c>
       <c r="E633" t="inlineStr">
         <is>
@@ -30766,10 +30766,10 @@
         </is>
       </c>
       <c r="C634" t="n">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="D634" t="n">
-        <v>1104470</v>
+        <v>1135085</v>
       </c>
       <c r="E634" t="inlineStr">
         <is>
@@ -30862,10 +30862,10 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>18358</v>
+        <v>18751</v>
       </c>
       <c r="D636" t="n">
-        <v>24933656</v>
+        <v>26218961</v>
       </c>
       <c r="E636" t="inlineStr">
         <is>
@@ -31006,10 +31006,10 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D639" t="n">
-        <v>197254</v>
+        <v>216617</v>
       </c>
       <c r="E639" t="inlineStr">
         <is>
@@ -31054,10 +31054,10 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>7311</v>
+        <v>7467</v>
       </c>
       <c r="D640" t="n">
-        <v>13170544</v>
+        <v>14252969</v>
       </c>
       <c r="E640" t="inlineStr">
         <is>
@@ -31150,10 +31150,10 @@
         </is>
       </c>
       <c r="C642" t="n">
-        <v>3568</v>
+        <v>3648</v>
       </c>
       <c r="D642" t="n">
-        <v>6358567</v>
+        <v>6893361</v>
       </c>
       <c r="E642" t="inlineStr">
         <is>
@@ -31198,10 +31198,10 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D643" t="n">
-        <v>292563</v>
+        <v>294063</v>
       </c>
       <c r="E643" t="inlineStr">
         <is>
@@ -31246,10 +31246,10 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D644" t="n">
-        <v>443198</v>
+        <v>469111</v>
       </c>
       <c r="E644" t="inlineStr">
         <is>
@@ -31294,10 +31294,10 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>17068</v>
+        <v>17381</v>
       </c>
       <c r="D645" t="n">
-        <v>23129224</v>
+        <v>24280466</v>
       </c>
       <c r="E645" t="inlineStr">
         <is>
@@ -31390,10 +31390,10 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D647" t="n">
-        <v>69330</v>
+        <v>70830</v>
       </c>
       <c r="E647" t="inlineStr">
         <is>
@@ -31438,10 +31438,10 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="D648" t="n">
-        <v>365249</v>
+        <v>407648</v>
       </c>
       <c r="E648" t="inlineStr">
         <is>
@@ -31486,10 +31486,10 @@
         </is>
       </c>
       <c r="C649" t="n">
-        <v>6799</v>
+        <v>6936</v>
       </c>
       <c r="D649" t="n">
-        <v>12316047</v>
+        <v>13306537</v>
       </c>
       <c r="E649" t="inlineStr">
         <is>
@@ -31582,10 +31582,10 @@
         </is>
       </c>
       <c r="C651" t="n">
-        <v>1597</v>
+        <v>1626</v>
       </c>
       <c r="D651" t="n">
-        <v>2891492</v>
+        <v>3090569</v>
       </c>
       <c r="E651" t="inlineStr">
         <is>
@@ -31678,10 +31678,10 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D653" t="n">
-        <v>502660</v>
+        <v>513684</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
@@ -31726,10 +31726,10 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D654" t="n">
-        <v>584963</v>
+        <v>595215</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
@@ -31774,10 +31774,10 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>9305</v>
+        <v>9470</v>
       </c>
       <c r="D655" t="n">
-        <v>12521753</v>
+        <v>13083090</v>
       </c>
       <c r="E655" t="inlineStr">
         <is>
@@ -31966,10 +31966,10 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D659" t="n">
-        <v>153807</v>
+        <v>190620</v>
       </c>
       <c r="E659" t="inlineStr">
         <is>
@@ -32014,10 +32014,10 @@
         </is>
       </c>
       <c r="C660" t="n">
-        <v>3233</v>
+        <v>3292</v>
       </c>
       <c r="D660" t="n">
-        <v>5674129</v>
+        <v>6138630</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
@@ -32110,10 +32110,10 @@
         </is>
       </c>
       <c r="C662" t="n">
-        <v>1105</v>
+        <v>1125</v>
       </c>
       <c r="D662" t="n">
-        <v>1985192</v>
+        <v>2109507</v>
       </c>
       <c r="E662" t="inlineStr">
         <is>
@@ -32158,10 +32158,10 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D663" t="n">
-        <v>268376</v>
+        <v>269376</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
@@ -32254,10 +32254,10 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>36143</v>
+        <v>36853</v>
       </c>
       <c r="D665" t="n">
-        <v>47734677</v>
+        <v>49998741</v>
       </c>
       <c r="E665" t="inlineStr">
         <is>
@@ -32446,10 +32446,10 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D669" t="n">
-        <v>392448</v>
+        <v>422448</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
@@ -32494,10 +32494,10 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>14355</v>
+        <v>14676</v>
       </c>
       <c r="D670" t="n">
-        <v>26589703</v>
+        <v>28920104</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -32542,10 +32542,10 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D671" t="n">
-        <v>47666</v>
+        <v>57666</v>
       </c>
       <c r="E671" t="inlineStr">
         <is>
@@ -32590,10 +32590,10 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>6573</v>
+        <v>6703</v>
       </c>
       <c r="D672" t="n">
-        <v>12261410</v>
+        <v>13142520</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
@@ -32686,10 +32686,10 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D674" t="n">
-        <v>393355</v>
+        <v>402928</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
@@ -32734,10 +32734,10 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>808</v>
+        <v>820</v>
       </c>
       <c r="D675" t="n">
-        <v>1389759</v>
+        <v>1445818</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
@@ -32782,10 +32782,10 @@
         </is>
       </c>
       <c r="C676" t="n">
-        <v>13999</v>
+        <v>14248</v>
       </c>
       <c r="D676" t="n">
-        <v>17871135</v>
+        <v>18610310</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -32926,10 +32926,10 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D679" t="n">
-        <v>89217</v>
+        <v>92730</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
@@ -33022,10 +33022,10 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>4570</v>
+        <v>4656</v>
       </c>
       <c r="D681" t="n">
-        <v>7964975</v>
+        <v>8609500</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
@@ -33118,10 +33118,10 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>1422</v>
+        <v>1454</v>
       </c>
       <c r="D683" t="n">
-        <v>2629184</v>
+        <v>2870630</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
@@ -33214,10 +33214,10 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D685" t="n">
-        <v>141680</v>
+        <v>143180</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -33262,10 +33262,10 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D686" t="n">
-        <v>545750</v>
+        <v>560658</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
@@ -33310,10 +33310,10 @@
         </is>
       </c>
       <c r="C687" t="n">
-        <v>33851</v>
+        <v>34410</v>
       </c>
       <c r="D687" t="n">
-        <v>44208569</v>
+        <v>45771708</v>
       </c>
       <c r="E687" t="inlineStr">
         <is>
@@ -33454,10 +33454,10 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D690" t="n">
-        <v>247604</v>
+        <v>259337</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -33502,10 +33502,10 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>13293</v>
+        <v>13611</v>
       </c>
       <c r="D691" t="n">
-        <v>24131518</v>
+        <v>26370688</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
@@ -33550,10 +33550,10 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D692" t="n">
-        <v>38665</v>
+        <v>48665</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
@@ -33598,10 +33598,10 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>3874</v>
+        <v>3963</v>
       </c>
       <c r="D693" t="n">
-        <v>7028747</v>
+        <v>7597459</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
@@ -33694,10 +33694,10 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="D695" t="n">
-        <v>850394</v>
+        <v>873908</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
@@ -33742,10 +33742,10 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="D696" t="n">
-        <v>977550</v>
+        <v>994388</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -33790,10 +33790,10 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>9212</v>
+        <v>9390</v>
       </c>
       <c r="D697" t="n">
-        <v>12229475</v>
+        <v>12738696</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -33886,10 +33886,10 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>3261</v>
+        <v>3339</v>
       </c>
       <c r="D699" t="n">
-        <v>5682355</v>
+        <v>6209245</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
@@ -33982,10 +33982,10 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>1668</v>
+        <v>1698</v>
       </c>
       <c r="D701" t="n">
-        <v>2860184</v>
+        <v>3078638</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
@@ -34030,10 +34030,10 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D702" t="n">
-        <v>436401</v>
+        <v>437309</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
@@ -34126,10 +34126,10 @@
         </is>
       </c>
       <c r="C704" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D704" t="n">
-        <v>390195</v>
+        <v>412588</v>
       </c>
       <c r="E704" t="inlineStr">
         <is>
@@ -34174,10 +34174,10 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>4671</v>
+        <v>4747</v>
       </c>
       <c r="D705" t="n">
-        <v>5867929</v>
+        <v>6082513</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
@@ -34318,10 +34318,10 @@
         </is>
       </c>
       <c r="C708" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D708" t="n">
-        <v>58576</v>
+        <v>64391</v>
       </c>
       <c r="E708" t="inlineStr">
         <is>
@@ -34366,10 +34366,10 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>977</v>
+        <v>992</v>
       </c>
       <c r="D709" t="n">
-        <v>1673140</v>
+        <v>1775613</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
@@ -34462,10 +34462,10 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="D711" t="n">
-        <v>870089</v>
+        <v>891018</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
@@ -34510,10 +34510,10 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D712" t="n">
-        <v>206545</v>
+        <v>220555</v>
       </c>
       <c r="E712" t="inlineStr">
         <is>
@@ -34558,10 +34558,10 @@
         </is>
       </c>
       <c r="C713" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D713" t="n">
-        <v>297280</v>
+        <v>307280</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
@@ -34606,10 +34606,10 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>11435</v>
+        <v>11649</v>
       </c>
       <c r="D714" t="n">
-        <v>15376374</v>
+        <v>16075930</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
@@ -34702,10 +34702,10 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D716" t="n">
-        <v>22920</v>
+        <v>32380</v>
       </c>
       <c r="E716" t="inlineStr">
         <is>
@@ -34750,10 +34750,10 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D717" t="n">
-        <v>80859</v>
+        <v>83859</v>
       </c>
       <c r="E717" t="inlineStr">
         <is>
@@ -34798,10 +34798,10 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>4388</v>
+        <v>4488</v>
       </c>
       <c r="D718" t="n">
-        <v>7891854</v>
+        <v>8604980</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
@@ -34846,10 +34846,10 @@
         </is>
       </c>
       <c r="C719" t="n">
-        <v>998</v>
+        <v>1024</v>
       </c>
       <c r="D719" t="n">
-        <v>1818098</v>
+        <v>1988967</v>
       </c>
       <c r="E719" t="inlineStr">
         <is>
@@ -34942,10 +34942,10 @@
         </is>
       </c>
       <c r="C721" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D721" t="n">
-        <v>263171</v>
+        <v>263606</v>
       </c>
       <c r="E721" t="inlineStr">
         <is>
@@ -34990,10 +34990,10 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D722" t="n">
-        <v>595132</v>
+        <v>622206</v>
       </c>
       <c r="E722" t="inlineStr">
         <is>
@@ -35038,10 +35038,10 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>23612</v>
+        <v>24073</v>
       </c>
       <c r="D723" t="n">
-        <v>30628552</v>
+        <v>31930415</v>
       </c>
       <c r="E723" t="inlineStr">
         <is>
@@ -35182,10 +35182,10 @@
         </is>
       </c>
       <c r="C726" t="n">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D726" t="n">
-        <v>267701</v>
+        <v>299261</v>
       </c>
       <c r="E726" t="inlineStr">
         <is>
@@ -35230,10 +35230,10 @@
         </is>
       </c>
       <c r="C727" t="n">
-        <v>7170</v>
+        <v>7295</v>
       </c>
       <c r="D727" t="n">
-        <v>12720638</v>
+        <v>13610782</v>
       </c>
       <c r="E727" t="inlineStr">
         <is>
@@ -35326,10 +35326,10 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>2954</v>
+        <v>3017</v>
       </c>
       <c r="D729" t="n">
-        <v>5297288</v>
+        <v>5705831</v>
       </c>
       <c r="E729" t="inlineStr">
         <is>
@@ -35422,10 +35422,10 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D731" t="n">
-        <v>603109</v>
+        <v>613418</v>
       </c>
       <c r="E731" t="inlineStr">
         <is>
@@ -35518,10 +35518,10 @@
         </is>
       </c>
       <c r="C733" t="n">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D733" t="n">
-        <v>642057</v>
+        <v>654556</v>
       </c>
       <c r="E733" t="inlineStr">
         <is>
@@ -35614,10 +35614,10 @@
         </is>
       </c>
       <c r="C735" t="n">
-        <v>92990</v>
+        <v>94504</v>
       </c>
       <c r="D735" t="n">
-        <v>126059215</v>
+        <v>130731633</v>
       </c>
       <c r="E735" t="inlineStr">
         <is>
@@ -35806,10 +35806,10 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D739" t="n">
-        <v>332043</v>
+        <v>382709</v>
       </c>
       <c r="E739" t="inlineStr">
         <is>
@@ -35854,10 +35854,10 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>33840</v>
+        <v>34552</v>
       </c>
       <c r="D740" t="n">
-        <v>61537909</v>
+        <v>66456180</v>
       </c>
       <c r="E740" t="inlineStr">
         <is>
@@ -35902,10 +35902,10 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D741" t="n">
-        <v>90791</v>
+        <v>100791</v>
       </c>
       <c r="E741" t="inlineStr">
         <is>
@@ -35998,10 +35998,10 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>17498</v>
+        <v>17823</v>
       </c>
       <c r="D743" t="n">
-        <v>31132949</v>
+        <v>33230323</v>
       </c>
       <c r="E743" t="inlineStr">
         <is>
@@ -36142,10 +36142,10 @@
         </is>
       </c>
       <c r="C746" t="n">
-        <v>2415</v>
+        <v>2440</v>
       </c>
       <c r="D746" t="n">
-        <v>4162684</v>
+        <v>4339380</v>
       </c>
       <c r="E746" t="inlineStr">
         <is>
@@ -36238,10 +36238,10 @@
         </is>
       </c>
       <c r="C748" t="n">
-        <v>1906</v>
+        <v>1929</v>
       </c>
       <c r="D748" t="n">
-        <v>3062073</v>
+        <v>3170251</v>
       </c>
       <c r="E748" t="inlineStr">
         <is>
@@ -36286,10 +36286,10 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>14016</v>
+        <v>14256</v>
       </c>
       <c r="D749" t="n">
-        <v>18560166</v>
+        <v>19382043</v>
       </c>
       <c r="E749" t="inlineStr">
         <is>
@@ -36382,10 +36382,10 @@
         </is>
       </c>
       <c r="C751" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D751" t="n">
-        <v>204825</v>
+        <v>224818</v>
       </c>
       <c r="E751" t="inlineStr">
         <is>
@@ -36430,10 +36430,10 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>5293</v>
+        <v>5397</v>
       </c>
       <c r="D752" t="n">
-        <v>9409038</v>
+        <v>10118042</v>
       </c>
       <c r="E752" t="inlineStr">
         <is>
@@ -36526,10 +36526,10 @@
         </is>
       </c>
       <c r="C754" t="n">
-        <v>1983</v>
+        <v>2035</v>
       </c>
       <c r="D754" t="n">
-        <v>3560534</v>
+        <v>3875441</v>
       </c>
       <c r="E754" t="inlineStr">
         <is>
@@ -36574,10 +36574,10 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D755" t="n">
-        <v>222787</v>
+        <v>223057</v>
       </c>
       <c r="E755" t="inlineStr">
         <is>
@@ -36622,10 +36622,10 @@
         </is>
       </c>
       <c r="C756" t="n">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="D756" t="n">
-        <v>629105</v>
+        <v>661899</v>
       </c>
       <c r="E756" t="inlineStr">
         <is>
@@ -36670,10 +36670,10 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>21420</v>
+        <v>21816</v>
       </c>
       <c r="D757" t="n">
-        <v>27627775</v>
+        <v>28678435</v>
       </c>
       <c r="E757" t="inlineStr">
         <is>
@@ -36814,10 +36814,10 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D760" t="n">
-        <v>120230</v>
+        <v>131730</v>
       </c>
       <c r="E760" t="inlineStr">
         <is>
@@ -36862,10 +36862,10 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>8554</v>
+        <v>8734</v>
       </c>
       <c r="D761" t="n">
-        <v>15252773</v>
+        <v>16512981</v>
       </c>
       <c r="E761" t="inlineStr">
         <is>
@@ -36958,10 +36958,10 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>2813</v>
+        <v>2861</v>
       </c>
       <c r="D763" t="n">
-        <v>4864498</v>
+        <v>5186123</v>
       </c>
       <c r="E763" t="inlineStr">
         <is>
@@ -37102,10 +37102,10 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="D766" t="n">
-        <v>753037</v>
+        <v>773410</v>
       </c>
       <c r="E766" t="inlineStr">
         <is>
@@ -37198,10 +37198,10 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>14063</v>
+        <v>14301</v>
       </c>
       <c r="D768" t="n">
-        <v>18596145</v>
+        <v>19164456</v>
       </c>
       <c r="E768" t="inlineStr">
         <is>
@@ -37390,10 +37390,10 @@
         </is>
       </c>
       <c r="C772" t="n">
-        <v>5343</v>
+        <v>5430</v>
       </c>
       <c r="D772" t="n">
-        <v>9303414</v>
+        <v>9954697</v>
       </c>
       <c r="E772" t="inlineStr">
         <is>
@@ -37486,10 +37486,10 @@
         </is>
       </c>
       <c r="C774" t="n">
-        <v>2038</v>
+        <v>2087</v>
       </c>
       <c r="D774" t="n">
-        <v>3568344</v>
+        <v>3883817</v>
       </c>
       <c r="E774" t="inlineStr">
         <is>
@@ -37582,10 +37582,10 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D776" t="n">
-        <v>716368</v>
+        <v>756759</v>
       </c>
       <c r="E776" t="inlineStr">
         <is>
@@ -37630,10 +37630,10 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>35997</v>
+        <v>36525</v>
       </c>
       <c r="D777" t="n">
-        <v>46575034</v>
+        <v>47914913</v>
       </c>
       <c r="E777" t="inlineStr">
         <is>
@@ -37870,10 +37870,10 @@
         </is>
       </c>
       <c r="C782" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D782" t="n">
-        <v>267060</v>
+        <v>282616</v>
       </c>
       <c r="E782" t="inlineStr">
         <is>
@@ -37918,10 +37918,10 @@
         </is>
       </c>
       <c r="C783" t="n">
-        <v>16159</v>
+        <v>16463</v>
       </c>
       <c r="D783" t="n">
-        <v>28728971</v>
+        <v>30867396</v>
       </c>
       <c r="E783" t="inlineStr">
         <is>
@@ -38014,10 +38014,10 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>5506</v>
+        <v>5607</v>
       </c>
       <c r="D785" t="n">
-        <v>10009937</v>
+        <v>10721230</v>
       </c>
       <c r="E785" t="inlineStr">
         <is>
@@ -38110,10 +38110,10 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="D787" t="n">
-        <v>1229237</v>
+        <v>1247222</v>
       </c>
       <c r="E787" t="inlineStr">
         <is>
@@ -38158,10 +38158,10 @@
         </is>
       </c>
       <c r="C788" t="n">
-        <v>944</v>
+        <v>955</v>
       </c>
       <c r="D788" t="n">
-        <v>1510022</v>
+        <v>1581480</v>
       </c>
       <c r="E788" t="inlineStr">
         <is>
@@ -38254,10 +38254,10 @@
         </is>
       </c>
       <c r="C790" t="n">
-        <v>15141</v>
+        <v>15425</v>
       </c>
       <c r="D790" t="n">
-        <v>20890719</v>
+        <v>21910190</v>
       </c>
       <c r="E790" t="inlineStr">
         <is>
@@ -38350,10 +38350,10 @@
         </is>
       </c>
       <c r="C792" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D792" t="n">
-        <v>183585</v>
+        <v>203585</v>
       </c>
       <c r="E792" t="inlineStr">
         <is>
@@ -38398,10 +38398,10 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>5774</v>
+        <v>5896</v>
       </c>
       <c r="D793" t="n">
-        <v>9993254</v>
+        <v>10798831</v>
       </c>
       <c r="E793" t="inlineStr">
         <is>
@@ -38446,10 +38446,10 @@
         </is>
       </c>
       <c r="C794" t="n">
-        <v>1501</v>
+        <v>1534</v>
       </c>
       <c r="D794" t="n">
-        <v>2534513</v>
+        <v>2749545</v>
       </c>
       <c r="E794" t="inlineStr">
         <is>
@@ -38494,10 +38494,10 @@
         </is>
       </c>
       <c r="C795" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D795" t="n">
-        <v>300737</v>
+        <v>321243</v>
       </c>
       <c r="E795" t="inlineStr">
         <is>
@@ -38542,10 +38542,10 @@
         </is>
       </c>
       <c r="C796" t="n">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="D796" t="n">
-        <v>847048</v>
+        <v>894795</v>
       </c>
       <c r="E796" t="inlineStr">
         <is>
@@ -38590,10 +38590,10 @@
         </is>
       </c>
       <c r="C797" t="n">
-        <v>8375</v>
+        <v>8492</v>
       </c>
       <c r="D797" t="n">
-        <v>10261154</v>
+        <v>10553320</v>
       </c>
       <c r="E797" t="inlineStr">
         <is>
@@ -38734,10 +38734,10 @@
         </is>
       </c>
       <c r="C800" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D800" t="n">
-        <v>60636</v>
+        <v>75336</v>
       </c>
       <c r="E800" t="inlineStr">
         <is>
@@ -38782,10 +38782,10 @@
         </is>
       </c>
       <c r="C801" t="n">
-        <v>2227</v>
+        <v>2276</v>
       </c>
       <c r="D801" t="n">
-        <v>3979369</v>
+        <v>4320879</v>
       </c>
       <c r="E801" t="inlineStr">
         <is>
@@ -38830,10 +38830,10 @@
         </is>
       </c>
       <c r="C802" t="n">
-        <v>1354</v>
+        <v>1386</v>
       </c>
       <c r="D802" t="n">
-        <v>2473397</v>
+        <v>2680229</v>
       </c>
       <c r="E802" t="inlineStr">
         <is>
@@ -38878,10 +38878,10 @@
         </is>
       </c>
       <c r="C803" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D803" t="n">
-        <v>237841</v>
+        <v>239429</v>
       </c>
       <c r="E803" t="inlineStr">
         <is>
@@ -38926,10 +38926,10 @@
         </is>
       </c>
       <c r="C804" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D804" t="n">
-        <v>341158</v>
+        <v>350297</v>
       </c>
       <c r="E804" t="inlineStr">
         <is>
@@ -38974,10 +38974,10 @@
         </is>
       </c>
       <c r="C805" t="n">
-        <v>20552</v>
+        <v>20890</v>
       </c>
       <c r="D805" t="n">
-        <v>26528952</v>
+        <v>27445437</v>
       </c>
       <c r="E805" t="inlineStr">
         <is>
@@ -39118,10 +39118,10 @@
         </is>
       </c>
       <c r="C808" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D808" t="n">
-        <v>97190</v>
+        <v>98017</v>
       </c>
       <c r="E808" t="inlineStr">
         <is>
@@ -39214,10 +39214,10 @@
         </is>
       </c>
       <c r="C810" t="n">
-        <v>7001</v>
+        <v>7146</v>
       </c>
       <c r="D810" t="n">
-        <v>12417145</v>
+        <v>13371986</v>
       </c>
       <c r="E810" t="inlineStr">
         <is>
@@ -39310,10 +39310,10 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>4386</v>
+        <v>4478</v>
       </c>
       <c r="D812" t="n">
-        <v>7766465</v>
+        <v>8371709</v>
       </c>
       <c r="E812" t="inlineStr">
         <is>
@@ -39406,10 +39406,10 @@
         </is>
       </c>
       <c r="C814" t="n">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="D814" t="n">
-        <v>658830</v>
+        <v>682714</v>
       </c>
       <c r="E814" t="inlineStr">
         <is>
@@ -39502,10 +39502,10 @@
         </is>
       </c>
       <c r="C816" t="n">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="D816" t="n">
-        <v>654437</v>
+        <v>683722</v>
       </c>
       <c r="E816" t="inlineStr">
         <is>
@@ -39550,10 +39550,10 @@
         </is>
       </c>
       <c r="C817" t="n">
-        <v>14148</v>
+        <v>14368</v>
       </c>
       <c r="D817" t="n">
-        <v>18784723</v>
+        <v>19426959</v>
       </c>
       <c r="E817" t="inlineStr">
         <is>
@@ -39742,10 +39742,10 @@
         </is>
       </c>
       <c r="C821" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D821" t="n">
-        <v>189315</v>
+        <v>195391</v>
       </c>
       <c r="E821" t="inlineStr">
         <is>
@@ -39790,10 +39790,10 @@
         </is>
       </c>
       <c r="C822" t="n">
-        <v>5001</v>
+        <v>5083</v>
       </c>
       <c r="D822" t="n">
-        <v>8918911</v>
+        <v>9499940</v>
       </c>
       <c r="E822" t="inlineStr">
         <is>
@@ -39886,10 +39886,10 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>1655</v>
+        <v>1687</v>
       </c>
       <c r="D824" t="n">
-        <v>3066481</v>
+        <v>3305335</v>
       </c>
       <c r="E824" t="inlineStr">
         <is>
@@ -39982,10 +39982,10 @@
         </is>
       </c>
       <c r="C826" t="n">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D826" t="n">
-        <v>827278</v>
+        <v>838778</v>
       </c>
       <c r="E826" t="inlineStr">
         <is>
@@ -40078,10 +40078,10 @@
         </is>
       </c>
       <c r="C828" t="n">
-        <v>40818</v>
+        <v>41594</v>
       </c>
       <c r="D828" t="n">
-        <v>53449669</v>
+        <v>55473454</v>
       </c>
       <c r="E828" t="inlineStr">
         <is>
@@ -40126,10 +40126,10 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D829" t="n">
-        <v>20958</v>
+        <v>26413</v>
       </c>
       <c r="E829" t="inlineStr">
         <is>
@@ -40174,10 +40174,10 @@
         </is>
       </c>
       <c r="C830" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D830" t="n">
-        <v>64176</v>
+        <v>67028</v>
       </c>
       <c r="E830" t="inlineStr">
         <is>
@@ -40222,10 +40222,10 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D831" t="n">
-        <v>164685</v>
+        <v>175431</v>
       </c>
       <c r="E831" t="inlineStr">
         <is>
@@ -40270,10 +40270,10 @@
         </is>
       </c>
       <c r="C832" t="n">
-        <v>16806</v>
+        <v>17108</v>
       </c>
       <c r="D832" t="n">
-        <v>30418200</v>
+        <v>32492976</v>
       </c>
       <c r="E832" t="inlineStr">
         <is>
@@ -40318,10 +40318,10 @@
         </is>
       </c>
       <c r="C833" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D833" t="n">
-        <v>57753</v>
+        <v>67753</v>
       </c>
       <c r="E833" t="inlineStr">
         <is>
@@ -40366,10 +40366,10 @@
         </is>
       </c>
       <c r="C834" t="n">
-        <v>7869</v>
+        <v>7992</v>
       </c>
       <c r="D834" t="n">
-        <v>14031565</v>
+        <v>14799884</v>
       </c>
       <c r="E834" t="inlineStr">
         <is>
@@ -40414,10 +40414,10 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="D835" t="n">
-        <v>981480</v>
+        <v>998330</v>
       </c>
       <c r="E835" t="inlineStr">
         <is>
@@ -40558,10 +40558,10 @@
         </is>
       </c>
       <c r="C838" t="n">
-        <v>1066</v>
+        <v>1078</v>
       </c>
       <c r="D838" t="n">
-        <v>1660597</v>
+        <v>1729561</v>
       </c>
       <c r="E838" t="inlineStr">
         <is>
@@ -40606,10 +40606,10 @@
         </is>
       </c>
       <c r="C839" t="n">
-        <v>9519</v>
+        <v>9702</v>
       </c>
       <c r="D839" t="n">
-        <v>12421301</v>
+        <v>12952593</v>
       </c>
       <c r="E839" t="inlineStr">
         <is>
@@ -40894,10 +40894,10 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>3341</v>
+        <v>3391</v>
       </c>
       <c r="D845" t="n">
-        <v>5757741</v>
+        <v>6099317</v>
       </c>
       <c r="E845" t="inlineStr">
         <is>
@@ -40942,10 +40942,10 @@
         </is>
       </c>
       <c r="C846" t="n">
-        <v>1515</v>
+        <v>1537</v>
       </c>
       <c r="D846" t="n">
-        <v>2627407</v>
+        <v>2791644</v>
       </c>
       <c r="E846" t="inlineStr">
         <is>
@@ -40990,10 +40990,10 @@
         </is>
       </c>
       <c r="C847" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D847" t="n">
-        <v>675612</v>
+        <v>677112</v>
       </c>
       <c r="E847" t="inlineStr">
         <is>
@@ -41038,10 +41038,10 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D848" t="n">
-        <v>576749</v>
+        <v>587488</v>
       </c>
       <c r="E848" t="inlineStr">
         <is>
@@ -41086,10 +41086,10 @@
         </is>
       </c>
       <c r="C849" t="n">
-        <v>75947</v>
+        <v>77108</v>
       </c>
       <c r="D849" t="n">
-        <v>102918566</v>
+        <v>106494904</v>
       </c>
       <c r="E849" t="inlineStr">
         <is>
@@ -41278,10 +41278,10 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D853" t="n">
-        <v>111346</v>
+        <v>131346</v>
       </c>
       <c r="E853" t="inlineStr">
         <is>
@@ -41374,10 +41374,10 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>27684</v>
+        <v>28173</v>
       </c>
       <c r="D855" t="n">
-        <v>51869213</v>
+        <v>55491094</v>
       </c>
       <c r="E855" t="inlineStr">
         <is>
@@ -41422,10 +41422,10 @@
         </is>
       </c>
       <c r="C856" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D856" t="n">
-        <v>60998</v>
+        <v>70998</v>
       </c>
       <c r="E856" t="inlineStr">
         <is>
@@ -41518,10 +41518,10 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>17015</v>
+        <v>17314</v>
       </c>
       <c r="D858" t="n">
-        <v>31119292</v>
+        <v>33129685</v>
       </c>
       <c r="E858" t="inlineStr">
         <is>
@@ -41662,10 +41662,10 @@
         </is>
       </c>
       <c r="C861" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D861" t="n">
-        <v>11922</v>
+        <v>13017</v>
       </c>
       <c r="E861" t="inlineStr">
         <is>
@@ -41758,10 +41758,10 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>2170</v>
+        <v>2188</v>
       </c>
       <c r="D863" t="n">
-        <v>3554132</v>
+        <v>3630462</v>
       </c>
       <c r="E863" t="inlineStr">
         <is>
@@ -41806,10 +41806,10 @@
         </is>
       </c>
       <c r="C864" t="n">
-        <v>14276</v>
+        <v>14501</v>
       </c>
       <c r="D864" t="n">
-        <v>19501684</v>
+        <v>20175875</v>
       </c>
       <c r="E864" t="inlineStr">
         <is>
@@ -41998,10 +41998,10 @@
         </is>
       </c>
       <c r="C868" t="n">
-        <v>5567</v>
+        <v>5651</v>
       </c>
       <c r="D868" t="n">
-        <v>11096848</v>
+        <v>11731532</v>
       </c>
       <c r="E868" t="inlineStr">
         <is>
@@ -42046,10 +42046,10 @@
         </is>
       </c>
       <c r="C869" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D869" t="n">
-        <v>52500</v>
+        <v>62500</v>
       </c>
       <c r="E869" t="inlineStr">
         <is>
@@ -42094,10 +42094,10 @@
         </is>
       </c>
       <c r="C870" t="n">
-        <v>1737</v>
+        <v>1774</v>
       </c>
       <c r="D870" t="n">
-        <v>3509446</v>
+        <v>3796820</v>
       </c>
       <c r="E870" t="inlineStr">
         <is>
@@ -42286,10 +42286,10 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D874" t="n">
-        <v>653692</v>
+        <v>681726</v>
       </c>
       <c r="E874" t="inlineStr">
         <is>
@@ -42334,10 +42334,10 @@
         </is>
       </c>
       <c r="C875" t="n">
-        <v>73328</v>
+        <v>74436</v>
       </c>
       <c r="D875" t="n">
-        <v>95836554</v>
+        <v>98634535</v>
       </c>
       <c r="E875" t="inlineStr">
         <is>
@@ -42574,10 +42574,10 @@
         </is>
       </c>
       <c r="C880" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D880" t="n">
-        <v>216760</v>
+        <v>224033</v>
       </c>
       <c r="E880" t="inlineStr">
         <is>
@@ -42622,10 +42622,10 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>28457</v>
+        <v>28995</v>
       </c>
       <c r="D881" t="n">
-        <v>53011324</v>
+        <v>56767179</v>
       </c>
       <c r="E881" t="inlineStr">
         <is>
@@ -42718,10 +42718,10 @@
         </is>
       </c>
       <c r="C883" t="n">
-        <v>18858</v>
+        <v>19170</v>
       </c>
       <c r="D883" t="n">
-        <v>34519180</v>
+        <v>36571035</v>
       </c>
       <c r="E883" t="inlineStr">
         <is>
@@ -42862,10 +42862,10 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="D886" t="n">
-        <v>1678472</v>
+        <v>1707251</v>
       </c>
       <c r="E886" t="inlineStr">
         <is>
@@ -42910,10 +42910,10 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>2085</v>
+        <v>2101</v>
       </c>
       <c r="D887" t="n">
-        <v>3438536</v>
+        <v>3528007</v>
       </c>
       <c r="E887" t="inlineStr">
         <is>
@@ -43006,10 +43006,10 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>9524</v>
+        <v>9699</v>
       </c>
       <c r="D889" t="n">
-        <v>12178899</v>
+        <v>12626767</v>
       </c>
       <c r="E889" t="inlineStr">
         <is>
@@ -43054,10 +43054,10 @@
         </is>
       </c>
       <c r="C890" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D890" t="n">
-        <v>102670</v>
+        <v>122670</v>
       </c>
       <c r="E890" t="inlineStr">
         <is>
@@ -43102,10 +43102,10 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>3239</v>
+        <v>3293</v>
       </c>
       <c r="D891" t="n">
-        <v>5614684</v>
+        <v>5971513</v>
       </c>
       <c r="E891" t="inlineStr">
         <is>
@@ -43150,10 +43150,10 @@
         </is>
       </c>
       <c r="C892" t="n">
-        <v>1399</v>
+        <v>1436</v>
       </c>
       <c r="D892" t="n">
-        <v>2551531</v>
+        <v>2797084</v>
       </c>
       <c r="E892" t="inlineStr">
         <is>
@@ -43198,10 +43198,10 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D893" t="n">
-        <v>494552</v>
+        <v>506181</v>
       </c>
       <c r="E893" t="inlineStr">
         <is>
@@ -43246,10 +43246,10 @@
         </is>
       </c>
       <c r="C894" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D894" t="n">
-        <v>377591</v>
+        <v>393227</v>
       </c>
       <c r="E894" t="inlineStr">
         <is>
@@ -43294,10 +43294,10 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>4306</v>
+        <v>4347</v>
       </c>
       <c r="D895" t="n">
-        <v>5853595</v>
+        <v>5997469</v>
       </c>
       <c r="E895" t="inlineStr">
         <is>
@@ -43390,10 +43390,10 @@
         </is>
       </c>
       <c r="C897" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D897" t="n">
-        <v>117852</v>
+        <v>137852</v>
       </c>
       <c r="E897" t="inlineStr">
         <is>
@@ -43438,10 +43438,10 @@
         </is>
       </c>
       <c r="C898" t="n">
-        <v>1415</v>
+        <v>1433</v>
       </c>
       <c r="D898" t="n">
-        <v>2492524</v>
+        <v>2634720</v>
       </c>
       <c r="E898" t="inlineStr">
         <is>
@@ -43534,10 +43534,10 @@
         </is>
       </c>
       <c r="C900" t="n">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="D900" t="n">
-        <v>851574</v>
+        <v>884115</v>
       </c>
       <c r="E900" t="inlineStr">
         <is>
@@ -43630,10 +43630,10 @@
         </is>
       </c>
       <c r="C902" t="n">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D902" t="n">
-        <v>220128</v>
+        <v>233098</v>
       </c>
       <c r="E902" t="inlineStr">
         <is>
@@ -43678,10 +43678,10 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>27364</v>
+        <v>27841</v>
       </c>
       <c r="D903" t="n">
-        <v>35931423</v>
+        <v>37164016</v>
       </c>
       <c r="E903" t="inlineStr">
         <is>
@@ -43726,10 +43726,10 @@
         </is>
       </c>
       <c r="C904" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D904" t="n">
-        <v>51517</v>
+        <v>51864</v>
       </c>
       <c r="E904" t="inlineStr">
         <is>
@@ -43822,10 +43822,10 @@
         </is>
       </c>
       <c r="C906" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D906" t="n">
-        <v>90116</v>
+        <v>100116</v>
       </c>
       <c r="E906" t="inlineStr">
         <is>
@@ -43870,10 +43870,10 @@
         </is>
       </c>
       <c r="C907" t="n">
-        <v>9696</v>
+        <v>9842</v>
       </c>
       <c r="D907" t="n">
-        <v>17043913</v>
+        <v>17986866</v>
       </c>
       <c r="E907" t="inlineStr">
         <is>
@@ -43966,10 +43966,10 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>6122</v>
+        <v>6244</v>
       </c>
       <c r="D909" t="n">
-        <v>11323962</v>
+        <v>12147146</v>
       </c>
       <c r="E909" t="inlineStr">
         <is>
@@ -44062,10 +44062,10 @@
         </is>
       </c>
       <c r="C911" t="n">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D911" t="n">
-        <v>689850</v>
+        <v>719581</v>
       </c>
       <c r="E911" t="inlineStr">
         <is>
@@ -44110,10 +44110,10 @@
         </is>
       </c>
       <c r="C912" t="n">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="D912" t="n">
-        <v>1122318</v>
+        <v>1156667</v>
       </c>
       <c r="E912" t="inlineStr">
         <is>
@@ -44206,10 +44206,10 @@
         </is>
       </c>
       <c r="C914" t="n">
-        <v>17978</v>
+        <v>18281</v>
       </c>
       <c r="D914" t="n">
-        <v>22840383</v>
+        <v>23654379</v>
       </c>
       <c r="E914" t="inlineStr">
         <is>
@@ -44302,10 +44302,10 @@
         </is>
       </c>
       <c r="C916" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D916" t="n">
-        <v>45276</v>
+        <v>57864</v>
       </c>
       <c r="E916" t="inlineStr">
         <is>
@@ -44350,10 +44350,10 @@
         </is>
       </c>
       <c r="C917" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D917" t="n">
-        <v>116473</v>
+        <v>126473</v>
       </c>
       <c r="E917" t="inlineStr">
         <is>
@@ -44398,10 +44398,10 @@
         </is>
       </c>
       <c r="C918" t="n">
-        <v>6560</v>
+        <v>6653</v>
       </c>
       <c r="D918" t="n">
-        <v>11311306</v>
+        <v>11967555</v>
       </c>
       <c r="E918" t="inlineStr">
         <is>
@@ -44494,10 +44494,10 @@
         </is>
       </c>
       <c r="C920" t="n">
-        <v>3077</v>
+        <v>3132</v>
       </c>
       <c r="D920" t="n">
-        <v>5372277</v>
+        <v>5694146</v>
       </c>
       <c r="E920" t="inlineStr">
         <is>
@@ -44590,10 +44590,10 @@
         </is>
       </c>
       <c r="C922" t="n">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D922" t="n">
-        <v>379677</v>
+        <v>405677</v>
       </c>
       <c r="E922" t="inlineStr">
         <is>
@@ -44638,10 +44638,10 @@
         </is>
       </c>
       <c r="C923" t="n">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="D923" t="n">
-        <v>723403</v>
+        <v>769374</v>
       </c>
       <c r="E923" t="inlineStr">
         <is>
@@ -44686,10 +44686,10 @@
         </is>
       </c>
       <c r="C924" t="n">
-        <v>12083</v>
+        <v>12268</v>
       </c>
       <c r="D924" t="n">
-        <v>15877533</v>
+        <v>16380948</v>
       </c>
       <c r="E924" t="inlineStr">
         <is>
@@ -44782,10 +44782,10 @@
         </is>
       </c>
       <c r="C926" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D926" t="n">
-        <v>61806</v>
+        <v>71806</v>
       </c>
       <c r="E926" t="inlineStr">
         <is>
@@ -44830,10 +44830,10 @@
         </is>
       </c>
       <c r="C927" t="n">
-        <v>4208</v>
+        <v>4274</v>
       </c>
       <c r="D927" t="n">
-        <v>7423169</v>
+        <v>7883237</v>
       </c>
       <c r="E927" t="inlineStr">
         <is>
@@ -44878,10 +44878,10 @@
         </is>
       </c>
       <c r="C928" t="n">
-        <v>1955</v>
+        <v>1988</v>
       </c>
       <c r="D928" t="n">
-        <v>3505364</v>
+        <v>3758584</v>
       </c>
       <c r="E928" t="inlineStr">
         <is>
@@ -44974,10 +44974,10 @@
         </is>
       </c>
       <c r="C930" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D930" t="n">
-        <v>436455</v>
+        <v>447354</v>
       </c>
       <c r="E930" t="inlineStr">
         <is>
@@ -45022,10 +45022,10 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>55700</v>
+        <v>56627</v>
       </c>
       <c r="D931" t="n">
-        <v>74980067</v>
+        <v>77998198</v>
       </c>
       <c r="E931" t="inlineStr">
         <is>
@@ -45118,10 +45118,10 @@
         </is>
       </c>
       <c r="C933" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D933" t="n">
-        <v>54144</v>
+        <v>64144</v>
       </c>
       <c r="E933" t="inlineStr">
         <is>
@@ -45166,10 +45166,10 @@
         </is>
       </c>
       <c r="C934" t="n">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D934" t="n">
-        <v>392365</v>
+        <v>429230</v>
       </c>
       <c r="E934" t="inlineStr">
         <is>
@@ -45262,10 +45262,10 @@
         </is>
       </c>
       <c r="C936" t="n">
-        <v>26873</v>
+        <v>27469</v>
       </c>
       <c r="D936" t="n">
-        <v>48568602</v>
+        <v>53001376</v>
       </c>
       <c r="E936" t="inlineStr">
         <is>
@@ -45358,10 +45358,10 @@
         </is>
       </c>
       <c r="C938" t="n">
-        <v>8012</v>
+        <v>8187</v>
       </c>
       <c r="D938" t="n">
-        <v>14391461</v>
+        <v>15489088</v>
       </c>
       <c r="E938" t="inlineStr">
         <is>
@@ -45406,10 +45406,10 @@
         </is>
       </c>
       <c r="C939" t="n">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="D939" t="n">
-        <v>1042883</v>
+        <v>1052399</v>
       </c>
       <c r="E939" t="inlineStr">
         <is>
@@ -45502,10 +45502,10 @@
         </is>
       </c>
       <c r="C941" t="n">
-        <v>1361</v>
+        <v>1370</v>
       </c>
       <c r="D941" t="n">
-        <v>2160692</v>
+        <v>2212963</v>
       </c>
       <c r="E941" t="inlineStr">
         <is>
@@ -45550,10 +45550,10 @@
         </is>
       </c>
       <c r="C942" t="n">
-        <v>26577</v>
+        <v>27065</v>
       </c>
       <c r="D942" t="n">
-        <v>35750805</v>
+        <v>37313724</v>
       </c>
       <c r="E942" t="inlineStr">
         <is>
@@ -45646,10 +45646,10 @@
         </is>
       </c>
       <c r="C944" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D944" t="n">
-        <v>67264</v>
+        <v>85226</v>
       </c>
       <c r="E944" t="inlineStr">
         <is>
@@ -45694,10 +45694,10 @@
         </is>
       </c>
       <c r="C945" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D945" t="n">
-        <v>5028</v>
+        <v>7209</v>
       </c>
       <c r="E945" t="inlineStr">
         <is>
@@ -45742,10 +45742,10 @@
         </is>
       </c>
       <c r="C946" t="n">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D946" t="n">
-        <v>307105</v>
+        <v>327929</v>
       </c>
       <c r="E946" t="inlineStr">
         <is>
@@ -45790,10 +45790,10 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>12521</v>
+        <v>12759</v>
       </c>
       <c r="D947" t="n">
-        <v>22568257</v>
+        <v>24360102</v>
       </c>
       <c r="E947" t="inlineStr">
         <is>
@@ -45886,10 +45886,10 @@
         </is>
       </c>
       <c r="C949" t="n">
-        <v>3063</v>
+        <v>3144</v>
       </c>
       <c r="D949" t="n">
-        <v>5611284</v>
+        <v>6103029</v>
       </c>
       <c r="E949" t="inlineStr">
         <is>
@@ -45982,10 +45982,10 @@
         </is>
       </c>
       <c r="C951" t="n">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="D951" t="n">
-        <v>1088952</v>
+        <v>1122776</v>
       </c>
       <c r="E951" t="inlineStr">
         <is>
@@ -46030,10 +46030,10 @@
         </is>
       </c>
       <c r="C952" t="n">
-        <v>883</v>
+        <v>892</v>
       </c>
       <c r="D952" t="n">
-        <v>1378627</v>
+        <v>1442893</v>
       </c>
       <c r="E952" t="inlineStr">
         <is>
@@ -46078,10 +46078,10 @@
         </is>
       </c>
       <c r="C953" t="n">
-        <v>8730</v>
+        <v>8865</v>
       </c>
       <c r="D953" t="n">
-        <v>11632760</v>
+        <v>12119060</v>
       </c>
       <c r="E953" t="inlineStr">
         <is>
@@ -46174,10 +46174,10 @@
         </is>
       </c>
       <c r="C955" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D955" t="n">
-        <v>13000</v>
+        <v>13800</v>
       </c>
       <c r="E955" t="inlineStr">
         <is>
@@ -46270,10 +46270,10 @@
         </is>
       </c>
       <c r="C957" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D957" t="n">
-        <v>147939</v>
+        <v>152940</v>
       </c>
       <c r="E957" t="inlineStr">
         <is>
@@ -46318,10 +46318,10 @@
         </is>
       </c>
       <c r="C958" t="n">
-        <v>3853</v>
+        <v>3935</v>
       </c>
       <c r="D958" t="n">
-        <v>6785660</v>
+        <v>7393069</v>
       </c>
       <c r="E958" t="inlineStr">
         <is>
@@ -46366,10 +46366,10 @@
         </is>
       </c>
       <c r="C959" t="n">
-        <v>862</v>
+        <v>881</v>
       </c>
       <c r="D959" t="n">
-        <v>1507283</v>
+        <v>1628635</v>
       </c>
       <c r="E959" t="inlineStr">
         <is>
@@ -46414,10 +46414,10 @@
         </is>
       </c>
       <c r="C960" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D960" t="n">
-        <v>280226</v>
+        <v>281726</v>
       </c>
       <c r="E960" t="inlineStr">
         <is>
@@ -46462,10 +46462,10 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D961" t="n">
-        <v>389951</v>
+        <v>399951</v>
       </c>
       <c r="E961" t="inlineStr">
         <is>
@@ -46510,10 +46510,10 @@
         </is>
       </c>
       <c r="C962" t="n">
-        <v>16078</v>
+        <v>16351</v>
       </c>
       <c r="D962" t="n">
-        <v>21310522</v>
+        <v>22188118</v>
       </c>
       <c r="E962" t="inlineStr">
         <is>
@@ -46558,10 +46558,10 @@
         </is>
       </c>
       <c r="C963" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D963" t="n">
-        <v>11438</v>
+        <v>18017</v>
       </c>
       <c r="E963" t="inlineStr">
         <is>
@@ -46654,10 +46654,10 @@
         </is>
       </c>
       <c r="C965" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D965" t="n">
-        <v>146709</v>
+        <v>156709</v>
       </c>
       <c r="E965" t="inlineStr">
         <is>
@@ -46702,10 +46702,10 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>6699</v>
+        <v>6851</v>
       </c>
       <c r="D966" t="n">
-        <v>11921165</v>
+        <v>13122196</v>
       </c>
       <c r="E966" t="inlineStr">
         <is>
@@ -46798,10 +46798,10 @@
         </is>
       </c>
       <c r="C968" t="n">
-        <v>1859</v>
+        <v>1908</v>
       </c>
       <c r="D968" t="n">
-        <v>3150090</v>
+        <v>3426268</v>
       </c>
       <c r="E968" t="inlineStr">
         <is>
@@ -46990,10 +46990,10 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D972" t="n">
-        <v>592043</v>
+        <v>613028</v>
       </c>
       <c r="E972" t="inlineStr">
         <is>
@@ -47038,10 +47038,10 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>23512</v>
+        <v>23921</v>
       </c>
       <c r="D973" t="n">
-        <v>30742725</v>
+        <v>31880332</v>
       </c>
       <c r="E973" t="inlineStr">
         <is>
@@ -47182,10 +47182,10 @@
         </is>
       </c>
       <c r="C976" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D976" t="n">
-        <v>10300</v>
+        <v>13100</v>
       </c>
       <c r="E976" t="inlineStr">
         <is>
@@ -47230,10 +47230,10 @@
         </is>
       </c>
       <c r="C977" t="n">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D977" t="n">
-        <v>344104</v>
+        <v>383052</v>
       </c>
       <c r="E977" t="inlineStr">
         <is>
@@ -47278,10 +47278,10 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>12605</v>
+        <v>12865</v>
       </c>
       <c r="D978" t="n">
-        <v>22513644</v>
+        <v>24517384</v>
       </c>
       <c r="E978" t="inlineStr">
         <is>
@@ -47326,10 +47326,10 @@
         </is>
       </c>
       <c r="C979" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D979" t="n">
-        <v>26500</v>
+        <v>36500</v>
       </c>
       <c r="E979" t="inlineStr">
         <is>
@@ -47374,10 +47374,10 @@
         </is>
       </c>
       <c r="C980" t="n">
-        <v>2733</v>
+        <v>2790</v>
       </c>
       <c r="D980" t="n">
-        <v>4880766</v>
+        <v>5261981</v>
       </c>
       <c r="E980" t="inlineStr">
         <is>
@@ -47422,10 +47422,10 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D981" t="n">
-        <v>557231</v>
+        <v>567231</v>
       </c>
       <c r="E981" t="inlineStr">
         <is>
@@ -47470,10 +47470,10 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="D982" t="n">
-        <v>984207</v>
+        <v>997854</v>
       </c>
       <c r="E982" t="inlineStr">
         <is>
@@ -47518,10 +47518,10 @@
         </is>
       </c>
       <c r="C983" t="n">
-        <v>10496</v>
+        <v>10670</v>
       </c>
       <c r="D983" t="n">
-        <v>13905990</v>
+        <v>14452001</v>
       </c>
       <c r="E983" t="inlineStr">
         <is>
@@ -47614,10 +47614,10 @@
         </is>
       </c>
       <c r="C985" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D985" t="n">
-        <v>53240</v>
+        <v>63240</v>
       </c>
       <c r="E985" t="inlineStr">
         <is>
@@ -47662,10 +47662,10 @@
         </is>
       </c>
       <c r="C986" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D986" t="n">
-        <v>106918</v>
+        <v>129795</v>
       </c>
       <c r="E986" t="inlineStr">
         <is>
@@ -47758,10 +47758,10 @@
         </is>
       </c>
       <c r="C988" t="n">
-        <v>3969</v>
+        <v>4046</v>
       </c>
       <c r="D988" t="n">
-        <v>7141919</v>
+        <v>7653357</v>
       </c>
       <c r="E988" t="inlineStr">
         <is>
@@ -47806,10 +47806,10 @@
         </is>
       </c>
       <c r="C989" t="n">
-        <v>1887</v>
+        <v>1925</v>
       </c>
       <c r="D989" t="n">
-        <v>3347385</v>
+        <v>3601988</v>
       </c>
       <c r="E989" t="inlineStr">
         <is>
@@ -47902,10 +47902,10 @@
         </is>
       </c>
       <c r="C991" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D991" t="n">
-        <v>244379</v>
+        <v>254083</v>
       </c>
       <c r="E991" t="inlineStr">
         <is>
@@ -47950,10 +47950,10 @@
         </is>
       </c>
       <c r="C992" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D992" t="n">
-        <v>452954</v>
+        <v>466272</v>
       </c>
       <c r="E992" t="inlineStr">
         <is>
@@ -47998,10 +47998,10 @@
         </is>
       </c>
       <c r="C993" t="n">
-        <v>89160</v>
+        <v>90719</v>
       </c>
       <c r="D993" t="n">
-        <v>124693892</v>
+        <v>129146981</v>
       </c>
       <c r="E993" t="inlineStr">
         <is>
@@ -48046,10 +48046,10 @@
         </is>
       </c>
       <c r="C994" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D994" t="n">
-        <v>94271</v>
+        <v>99511</v>
       </c>
       <c r="E994" t="inlineStr">
         <is>
@@ -48094,10 +48094,10 @@
         </is>
       </c>
       <c r="C995" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D995" t="n">
-        <v>161277</v>
+        <v>170901</v>
       </c>
       <c r="E995" t="inlineStr">
         <is>
@@ -48238,10 +48238,10 @@
         </is>
       </c>
       <c r="C998" t="n">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D998" t="n">
-        <v>668920</v>
+        <v>703665</v>
       </c>
       <c r="E998" t="inlineStr">
         <is>
@@ -48334,10 +48334,10 @@
         </is>
       </c>
       <c r="C1000" t="n">
-        <v>34651</v>
+        <v>35318</v>
       </c>
       <c r="D1000" t="n">
-        <v>67902843</v>
+        <v>72604520</v>
       </c>
       <c r="E1000" t="inlineStr">
         <is>
@@ -48478,10 +48478,10 @@
         </is>
       </c>
       <c r="C1003" t="n">
-        <v>25185</v>
+        <v>25645</v>
       </c>
       <c r="D1003" t="n">
-        <v>48324591</v>
+        <v>51285510</v>
       </c>
       <c r="E1003" t="inlineStr">
         <is>
@@ -48574,10 +48574,10 @@
         </is>
       </c>
       <c r="C1005" t="n">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D1005" t="n">
-        <v>899960</v>
+        <v>916693</v>
       </c>
       <c r="E1005" t="inlineStr">
         <is>
@@ -48622,10 +48622,10 @@
         </is>
       </c>
       <c r="C1006" t="n">
-        <v>1417</v>
+        <v>1438</v>
       </c>
       <c r="D1006" t="n">
-        <v>2453596</v>
+        <v>2539637</v>
       </c>
       <c r="E1006" t="inlineStr">
         <is>
@@ -48670,10 +48670,10 @@
         </is>
       </c>
       <c r="C1007" t="n">
-        <v>109574</v>
+        <v>111368</v>
       </c>
       <c r="D1007" t="n">
-        <v>149509558</v>
+        <v>154586102</v>
       </c>
       <c r="E1007" t="inlineStr">
         <is>
@@ -48718,10 +48718,10 @@
         </is>
       </c>
       <c r="C1008" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1008" t="n">
-        <v>117197</v>
+        <v>128387</v>
       </c>
       <c r="E1008" t="inlineStr">
         <is>
@@ -48766,10 +48766,10 @@
         </is>
       </c>
       <c r="C1009" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D1009" t="n">
-        <v>142468</v>
+        <v>152468</v>
       </c>
       <c r="E1009" t="inlineStr">
         <is>
@@ -49006,10 +49006,10 @@
         </is>
       </c>
       <c r="C1014" t="n">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="D1014" t="n">
-        <v>1101649</v>
+        <v>1260290</v>
       </c>
       <c r="E1014" t="inlineStr">
         <is>
@@ -49054,10 +49054,10 @@
         </is>
       </c>
       <c r="C1015" t="n">
-        <v>45585</v>
+        <v>46379</v>
       </c>
       <c r="D1015" t="n">
-        <v>87529595</v>
+        <v>93108899</v>
       </c>
       <c r="E1015" t="inlineStr">
         <is>
@@ -49198,10 +49198,10 @@
         </is>
       </c>
       <c r="C1018" t="n">
-        <v>35936</v>
+        <v>36594</v>
       </c>
       <c r="D1018" t="n">
-        <v>68758130</v>
+        <v>72985114</v>
       </c>
       <c r="E1018" t="inlineStr">
         <is>
@@ -49246,10 +49246,10 @@
         </is>
       </c>
       <c r="C1019" t="n">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="D1019" t="n">
-        <v>1235998</v>
+        <v>1278446</v>
       </c>
       <c r="E1019" t="inlineStr">
         <is>
@@ -49342,10 +49342,10 @@
         </is>
       </c>
       <c r="C1021" t="n">
-        <v>3239</v>
+        <v>3288</v>
       </c>
       <c r="D1021" t="n">
-        <v>5533838</v>
+        <v>5768121</v>
       </c>
       <c r="E1021" t="inlineStr">
         <is>
@@ -49390,10 +49390,10 @@
         </is>
       </c>
       <c r="C1022" t="n">
-        <v>13604</v>
+        <v>13810</v>
       </c>
       <c r="D1022" t="n">
-        <v>18631614</v>
+        <v>19244386</v>
       </c>
       <c r="E1022" t="inlineStr">
         <is>
@@ -49486,10 +49486,10 @@
         </is>
       </c>
       <c r="C1024" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1024" t="n">
-        <v>61211</v>
+        <v>66529</v>
       </c>
       <c r="E1024" t="inlineStr">
         <is>
@@ -49582,10 +49582,10 @@
         </is>
       </c>
       <c r="C1026" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D1026" t="n">
-        <v>124114</v>
+        <v>135614</v>
       </c>
       <c r="E1026" t="inlineStr">
         <is>
@@ -49630,10 +49630,10 @@
         </is>
       </c>
       <c r="C1027" t="n">
-        <v>4601</v>
+        <v>4703</v>
       </c>
       <c r="D1027" t="n">
-        <v>9156297</v>
+        <v>9884108</v>
       </c>
       <c r="E1027" t="inlineStr">
         <is>
@@ -49678,10 +49678,10 @@
         </is>
       </c>
       <c r="C1028" t="n">
-        <v>1601</v>
+        <v>1638</v>
       </c>
       <c r="D1028" t="n">
-        <v>3320840</v>
+        <v>3550102</v>
       </c>
       <c r="E1028" t="inlineStr">
         <is>
@@ -49726,10 +49726,10 @@
         </is>
       </c>
       <c r="C1029" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D1029" t="n">
-        <v>177824</v>
+        <v>188591</v>
       </c>
       <c r="E1029" t="inlineStr">
         <is>
@@ -49774,10 +49774,10 @@
         </is>
       </c>
       <c r="C1030" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1030" t="n">
-        <v>26740</v>
+        <v>36740</v>
       </c>
       <c r="E1030" t="inlineStr">
         <is>
@@ -49870,10 +49870,10 @@
         </is>
       </c>
       <c r="C1032" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D1032" t="n">
-        <v>395805</v>
+        <v>404727</v>
       </c>
       <c r="E1032" t="inlineStr">
         <is>
@@ -49918,10 +49918,10 @@
         </is>
       </c>
       <c r="C1033" t="n">
-        <v>69682</v>
+        <v>71047</v>
       </c>
       <c r="D1033" t="n">
-        <v>92811812</v>
+        <v>96390834</v>
       </c>
       <c r="E1033" t="inlineStr">
         <is>
@@ -49966,10 +49966,10 @@
         </is>
       </c>
       <c r="C1034" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D1034" t="n">
-        <v>74186</v>
+        <v>80235</v>
       </c>
       <c r="E1034" t="inlineStr">
         <is>
@@ -50062,10 +50062,10 @@
         </is>
       </c>
       <c r="C1036" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1036" t="n">
-        <v>5999</v>
+        <v>7499</v>
       </c>
       <c r="E1036" t="inlineStr">
         <is>
@@ -50110,10 +50110,10 @@
         </is>
       </c>
       <c r="C1037" t="n">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="D1037" t="n">
-        <v>542417</v>
+        <v>627507</v>
       </c>
       <c r="E1037" t="inlineStr">
         <is>
@@ -50158,10 +50158,10 @@
         </is>
       </c>
       <c r="C1038" t="n">
-        <v>23573</v>
+        <v>24059</v>
       </c>
       <c r="D1038" t="n">
-        <v>43293750</v>
+        <v>46489288</v>
       </c>
       <c r="E1038" t="inlineStr">
         <is>
@@ -50206,10 +50206,10 @@
         </is>
       </c>
       <c r="C1039" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1039" t="n">
-        <v>94500</v>
+        <v>104500</v>
       </c>
       <c r="E1039" t="inlineStr">
         <is>
@@ -50254,10 +50254,10 @@
         </is>
       </c>
       <c r="C1040" t="n">
-        <v>16753</v>
+        <v>17113</v>
       </c>
       <c r="D1040" t="n">
-        <v>30894179</v>
+        <v>33250383</v>
       </c>
       <c r="E1040" t="inlineStr">
         <is>
@@ -50302,10 +50302,10 @@
         </is>
       </c>
       <c r="C1041" t="n">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="D1041" t="n">
-        <v>871383</v>
+        <v>899310</v>
       </c>
       <c r="E1041" t="inlineStr">
         <is>
@@ -50398,10 +50398,10 @@
         </is>
       </c>
       <c r="C1043" t="n">
-        <v>1119</v>
+        <v>1149</v>
       </c>
       <c r="D1043" t="n">
-        <v>1753527</v>
+        <v>1868013</v>
       </c>
       <c r="E1043" t="inlineStr">
         <is>
@@ -50494,10 +50494,10 @@
         </is>
       </c>
       <c r="C1045" t="n">
-        <v>35646</v>
+        <v>36289</v>
       </c>
       <c r="D1045" t="n">
-        <v>47556566</v>
+        <v>49267438</v>
       </c>
       <c r="E1045" t="inlineStr">
         <is>
@@ -50686,10 +50686,10 @@
         </is>
       </c>
       <c r="C1049" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D1049" t="n">
-        <v>214258</v>
+        <v>234258</v>
       </c>
       <c r="E1049" t="inlineStr">
         <is>
@@ -50734,10 +50734,10 @@
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>13652</v>
+        <v>13905</v>
       </c>
       <c r="D1050" t="n">
-        <v>25476052</v>
+        <v>27266860</v>
       </c>
       <c r="E1050" t="inlineStr">
         <is>
@@ -50782,10 +50782,10 @@
         </is>
       </c>
       <c r="C1051" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1051" t="n">
-        <v>34336</v>
+        <v>44336</v>
       </c>
       <c r="E1051" t="inlineStr">
         <is>
@@ -50830,10 +50830,10 @@
         </is>
       </c>
       <c r="C1052" t="n">
-        <v>8448</v>
+        <v>8612</v>
       </c>
       <c r="D1052" t="n">
-        <v>15978107</v>
+        <v>17090796</v>
       </c>
       <c r="E1052" t="inlineStr">
         <is>
@@ -50926,10 +50926,10 @@
         </is>
       </c>
       <c r="C1054" t="n">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="D1054" t="n">
-        <v>1488673</v>
+        <v>1514369</v>
       </c>
       <c r="E1054" t="inlineStr">
         <is>
